--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E56EF9-DC96-4754-BD7E-CD995216AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="206">
   <si>
     <t>日本語</t>
   </si>
@@ -546,221 +542,115 @@
     <t>GMP</t>
   </si>
   <si>
+    <t>Coroner</t>
+  </si>
+  <si>
+    <t>検視官</t>
+  </si>
+  <si>
     <t>NoDeadBodies</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この付近に~r~死体~s~はありません。</t>
   </si>
   <si>
     <t>UnitRequested</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~b~{0}~s~の応援を要請しました。</t>
-    <rPh sb="10" eb="12">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>この付近に~r~死体~s~はありません。</t>
-    <rPh sb="2" eb="4">
-      <t>フキン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Coroner</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerCheckPls</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>詳しい情報は~b~検視官レポート~s~を確認してください。</t>
-    <rPh sb="0" eb="1">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerBye</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>それではいい一日を!</t>
-    <rPh sb="6" eb="8">
-      <t>イチニチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>TeleportUnit</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>{0}で応援を近くにテレポートさせます。</t>
-    <rPh sb="4" eb="6">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerMenu</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官メニュー</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerReport</t>
+  </si>
+  <si>
+    <t>検視官レポート</t>
   </si>
   <si>
     <t>CoronerReportCount</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官レポート数: {0}</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NoData</t>
+  </si>
+  <si>
+    <t>データなし</t>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sex</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CauseOfDeath</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死因</t>
-    <rPh sb="0" eb="2">
-      <t>シイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>DiedDay</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死亡日</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NoData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データなし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CoronerReport</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官レポート</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BackupVehicle</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援車両</t>
-    <rPh sb="0" eb="2">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シャリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -790,7 +680,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1126,20 +1016,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1230,7 +1115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1256,7 +1141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1282,7 +1167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1308,7 +1193,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1334,7 +1219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1360,7 +1245,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1386,7 +1271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1412,7 +1297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1438,7 +1323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1464,16 +1349,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1490,16 +1372,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E14" t="s">
-        <v>99</v>
-      </c>
       <c r="H14" t="s">
         <v>101</v>
       </c>
@@ -1516,7 +1395,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1542,16 +1421,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>114</v>
       </c>
       <c r="B16" t="s">
         <v>115</v>
       </c>
-      <c r="E16" t="s">
-        <v>114</v>
-      </c>
       <c r="H16" t="s">
         <v>116</v>
       </c>
@@ -1568,7 +1444,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1594,7 +1470,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -1620,7 +1496,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -1646,7 +1522,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1672,7 +1548,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -1698,7 +1574,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -1724,7 +1600,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -1750,31 +1626,31 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -1782,7 +1658,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -1790,7 +1666,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>186</v>
       </c>
@@ -1798,7 +1674,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -1806,63 +1682,63 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>202</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B41" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>192</v>
-      </c>
-      <c r="B38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>198</v>
-      </c>
-      <c r="B41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -1871,8 +1747,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E56EF9-DC96-4754-BD7E-CD995216AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="206">
   <si>
     <t>日本語</t>
   </si>
@@ -542,115 +546,221 @@
     <t>GMP</t>
   </si>
   <si>
+    <t>NoDeadBodies</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UnitRequested</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~{0}~s~の応援を要請しました。</t>
+    <rPh sb="10" eb="12">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この付近に~r~死体~s~はありません。</t>
+    <rPh sb="2" eb="4">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Coroner</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官</t>
-  </si>
-  <si>
-    <t>NoDeadBodies</t>
-  </si>
-  <si>
-    <t>この付近に~r~死体~s~はありません。</t>
-  </si>
-  <si>
-    <t>UnitRequested</t>
-  </si>
-  <si>
-    <t>~b~{0}~s~の応援を要請しました。</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerCheckPls</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>詳しい情報は~b~検視官レポート~s~を確認してください。</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerBye</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>それではいい一日を!</t>
+    <rPh sb="6" eb="8">
+      <t>イチニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>TeleportUnit</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>{0}で応援を近くにテレポートさせます。</t>
+    <rPh sb="4" eb="6">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerMenu</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官メニュー</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerReportCount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官レポート数: {0}</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CauseOfDeath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死因</t>
+    <rPh sb="0" eb="2">
+      <t>シイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DiedDay</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死亡日</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NoData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データなし</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerReport</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官レポート</t>
-  </si>
-  <si>
-    <t>CoronerReportCount</t>
-  </si>
-  <si>
-    <t>検視官レポート数: {0}</t>
-  </si>
-  <si>
-    <t>NoData</t>
-  </si>
-  <si>
-    <t>データなし</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>CauseOfDeath</t>
-  </si>
-  <si>
-    <t>死因</t>
-  </si>
-  <si>
-    <t>DiedDay</t>
-  </si>
-  <si>
-    <t>死亡日</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BackupVehicle</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援車両</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -680,7 +790,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1016,15 +1126,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V43"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1115,7 +1230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1141,7 +1256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1167,7 +1282,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1193,7 +1308,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1219,7 +1334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1245,7 +1360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1271,7 +1386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1297,7 +1412,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1323,7 +1438,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1349,13 +1464,16 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
       <c r="H13" t="s">
         <v>94</v>
       </c>
@@ -1372,13 +1490,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
       <c r="H14" t="s">
         <v>101</v>
       </c>
@@ -1395,7 +1516,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1421,13 +1542,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>114</v>
       </c>
       <c r="B16" t="s">
         <v>115</v>
       </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
       <c r="H16" t="s">
         <v>116</v>
       </c>
@@ -1444,7 +1568,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1470,7 +1594,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -1496,7 +1620,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -1522,7 +1646,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1548,7 +1672,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -1574,7 +1698,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -1600,7 +1724,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -1626,31 +1750,31 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>178</v>
       </c>
       <c r="B27" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -1658,7 +1782,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -1666,7 +1790,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>186</v>
       </c>
@@ -1674,7 +1798,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -1682,63 +1806,63 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>190</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>192</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>194</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>196</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>198</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>202</v>
-      </c>
-      <c r="B41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -1747,7 +1871,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E56EF9-DC96-4754-BD7E-CD995216AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="218">
   <si>
     <t>日本語</t>
   </si>
@@ -546,221 +542,151 @@
     <t>GMP</t>
   </si>
   <si>
+    <t>Coroner</t>
+  </si>
+  <si>
+    <t>検視官</t>
+  </si>
+  <si>
     <t>NoDeadBodies</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この付近に~r~死体~s~はありません。</t>
+  </si>
+  <si>
+    <t>There is no ~r~dead bodies~s~ nearby you.</t>
   </si>
   <si>
     <t>UnitRequested</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~b~{0}~s~の応援を要請しました。</t>
-    <rPh sb="10" eb="12">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>この付近に~r~死体~s~はありません。</t>
-    <rPh sb="2" eb="4">
-      <t>フキン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Coroner</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Requested ~b~{0}~s~ unit to Dispatch.</t>
   </si>
   <si>
     <t>CoronerCheckPls</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>詳しい情報は~b~検視官レポート~s~を確認してください。</t>
-    <rPh sb="0" eb="1">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>You can check ~b~Coroner's Report~s~ for more information.</t>
   </si>
   <si>
     <t>CoronerBye</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>それではいい一日を!</t>
-    <rPh sb="6" eb="8">
-      <t>イチニチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Have a nice day! Officer!</t>
   </si>
   <si>
     <t>TeleportUnit</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>{0}で応援を近くにテレポートさせます。</t>
-    <rPh sb="4" eb="6">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Press {0} to teleport the backup unit nearby.</t>
   </si>
   <si>
     <t>CoronerMenu</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官メニュー</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+  </si>
+  <si>
+    <t>CoronerReport</t>
+  </si>
+  <si>
+    <t>検視官レポート</t>
+  </si>
+  <si>
+    <t>Coroner Report</t>
   </si>
   <si>
     <t>CoronerReportCount</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官レポート数: {0}</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Report Count: {0}</t>
+  </si>
+  <si>
+    <t>NoData</t>
+  </si>
+  <si>
+    <t>データなし</t>
+  </si>
+  <si>
+    <t>No Data</t>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sex</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CauseOfDeath</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死因</t>
-    <rPh sb="0" eb="2">
-      <t>シイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cause of Death</t>
   </si>
   <si>
     <t>DiedDay</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死亡日</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NoData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データなし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CoronerReport</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官レポート</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Died Day</t>
   </si>
   <si>
     <t>BackupVehicle</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援車両</t>
-    <rPh sb="0" eb="2">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シャリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Vehicle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -790,7 +716,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1126,20 +1052,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1230,7 +1151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1256,7 +1177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1282,7 +1203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1308,7 +1229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1334,7 +1255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1360,7 +1281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1386,7 +1307,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1412,7 +1333,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1438,7 +1359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1464,7 +1385,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1490,7 +1411,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1516,7 +1437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1542,7 +1463,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -1568,7 +1489,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1594,7 +1515,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -1620,7 +1541,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -1646,7 +1567,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1672,7 +1593,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -1698,7 +1619,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -1724,7 +1645,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -1750,129 +1671,173 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+      <c r="E26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="E29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+      <c r="E33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>202</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+      <c r="E38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+      <c r="E41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>216</v>
+      </c>
+      <c r="E43" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E56EF9-DC96-4754-BD7E-CD995216AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D571BF4A-B709-456B-9C70-1ED35DF74F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="211">
   <si>
     <t>日本語</t>
   </si>
@@ -732,6 +732,41 @@
     <rPh sb="2" eb="4">
       <t>シャリョウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BackupOfficer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>応援警官</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AllDismissItem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~r~全応援を解散~s~</t>
+    <rPh sb="3" eb="4">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~r~All Units Dismiss~s~</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1127,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1798,7 +1833,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -1806,7 +1841,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>202</v>
       </c>
@@ -1814,7 +1849,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -1822,7 +1857,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -1830,7 +1865,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>192</v>
       </c>
@@ -1838,7 +1873,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>194</v>
       </c>
@@ -1846,7 +1881,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>196</v>
       </c>
@@ -1854,7 +1889,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -1862,12 +1897,31 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>204</v>
       </c>
       <c r="B43" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E56EF9-DC96-4754-BD7E-CD995216AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="206">
   <si>
     <t>日本語</t>
   </si>
@@ -542,151 +546,221 @@
     <t>GMP</t>
   </si>
   <si>
+    <t>NoDeadBodies</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UnitRequested</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~{0}~s~の応援を要請しました。</t>
+    <rPh sb="10" eb="12">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この付近に~r~死体~s~はありません。</t>
+    <rPh sb="2" eb="4">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Coroner</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官</t>
-  </si>
-  <si>
-    <t>NoDeadBodies</t>
-  </si>
-  <si>
-    <t>この付近に~r~死体~s~はありません。</t>
-  </si>
-  <si>
-    <t>There is no ~r~dead bodies~s~ nearby you.</t>
-  </si>
-  <si>
-    <t>UnitRequested</t>
-  </si>
-  <si>
-    <t>~b~{0}~s~の応援を要請しました。</t>
-  </si>
-  <si>
-    <t>Requested ~b~{0}~s~ unit to Dispatch.</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerCheckPls</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>詳しい情報は~b~検視官レポート~s~を確認してください。</t>
-  </si>
-  <si>
-    <t>You can check ~b~Coroner's Report~s~ for more information.</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerBye</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>それではいい一日を!</t>
-  </si>
-  <si>
-    <t>Have a nice day! Officer!</t>
+    <rPh sb="6" eb="8">
+      <t>イチニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>TeleportUnit</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>{0}で応援を近くにテレポートさせます。</t>
-  </si>
-  <si>
-    <t>Press {0} to teleport the backup unit nearby.</t>
+    <rPh sb="4" eb="6">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerMenu</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官メニュー</t>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerReportCount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官レポート数: {0}</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CauseOfDeath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死因</t>
+    <rPh sb="0" eb="2">
+      <t>シイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DiedDay</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死亡日</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NoData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データなし</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerReport</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官レポート</t>
-  </si>
-  <si>
-    <t>Coroner Report</t>
-  </si>
-  <si>
-    <t>CoronerReportCount</t>
-  </si>
-  <si>
-    <t>検視官レポート数: {0}</t>
-  </si>
-  <si>
-    <t>Report Count: {0}</t>
-  </si>
-  <si>
-    <t>NoData</t>
-  </si>
-  <si>
-    <t>データなし</t>
-  </si>
-  <si>
-    <t>No Data</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>CauseOfDeath</t>
-  </si>
-  <si>
-    <t>死因</t>
-  </si>
-  <si>
-    <t>Cause of Death</t>
-  </si>
-  <si>
-    <t>DiedDay</t>
-  </si>
-  <si>
-    <t>死亡日</t>
-  </si>
-  <si>
-    <t>Died Day</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BackupVehicle</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援車両</t>
-  </si>
-  <si>
-    <t>Backup Vehicle</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -716,7 +790,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1052,15 +1126,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V43"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1151,7 +1230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1177,7 +1256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1203,7 +1282,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1229,7 +1308,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1255,7 +1334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1281,7 +1360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1307,7 +1386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1333,7 +1412,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1359,7 +1438,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1385,7 +1464,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1411,7 +1490,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1437,7 +1516,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1463,7 +1542,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -1489,7 +1568,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1515,7 +1594,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -1541,7 +1620,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -1567,7 +1646,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1593,7 +1672,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -1619,7 +1698,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -1645,7 +1724,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -1671,173 +1750,129 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>178</v>
       </c>
       <c r="B27" t="s">
         <v>179</v>
       </c>
-      <c r="E27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>182</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B29" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>184</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>185</v>
       </c>
-      <c r="E29" t="s">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
         <v>187</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>188</v>
       </c>
-      <c r="E30" t="s">
+      <c r="B33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>190</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>191</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B38" t="s">
         <v>193</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>194</v>
       </c>
-      <c r="E33" t="s">
+      <c r="B39" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>196</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B40" t="s">
         <v>197</v>
       </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B41" t="s">
         <v>199</v>
       </c>
-      <c r="B35" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B43" t="s">
         <v>205</v>
       </c>
-      <c r="B38" t="s">
-        <v>206</v>
-      </c>
-      <c r="E38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" t="s">
-        <v>208</v>
-      </c>
-      <c r="E39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>209</v>
-      </c>
-      <c r="B40" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>215</v>
-      </c>
-      <c r="B43" t="s">
-        <v>216</v>
-      </c>
-      <c r="E43" t="s">
-        <v>217</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E56EF9-DC96-4754-BD7E-CD995216AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="223">
   <si>
     <t>日本語</t>
   </si>
@@ -546,221 +542,166 @@
     <t>GMP</t>
   </si>
   <si>
+    <t>Coroner</t>
+  </si>
+  <si>
+    <t>検視官</t>
+  </si>
+  <si>
     <t>NoDeadBodies</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この付近に~r~死体~s~はありません。</t>
+  </si>
+  <si>
+    <t>There is no ~r~dead bodies~s~ nearby you.</t>
   </si>
   <si>
     <t>UnitRequested</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~b~{0}~s~の応援を要請しました。</t>
-    <rPh sb="10" eb="12">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>この付近に~r~死体~s~はありません。</t>
-    <rPh sb="2" eb="4">
-      <t>フキン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Coroner</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Requested ~b~{0}~s~ unit to Dispatch.</t>
   </si>
   <si>
     <t>CoronerCheckPls</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>詳しい情報は~b~検視官レポート~s~を確認してください。</t>
-    <rPh sb="0" eb="1">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>You can check ~b~Coroner's Report~s~ for more information.</t>
   </si>
   <si>
     <t>CoronerBye</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>それではいい一日を!</t>
-    <rPh sb="6" eb="8">
-      <t>イチニチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Have a nice day! Officer!</t>
   </si>
   <si>
     <t>TeleportUnit</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>{0}で応援を近くにテレポートさせます。</t>
-    <rPh sb="4" eb="6">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Press {0} to teleport the backup unit nearby.</t>
   </si>
   <si>
     <t>CoronerMenu</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官メニュー</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+  </si>
+  <si>
+    <t>CoronerReport</t>
+  </si>
+  <si>
+    <t>検視官レポート</t>
+  </si>
+  <si>
+    <t>Coroner Report</t>
   </si>
   <si>
     <t>CoronerReportCount</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官レポート数: {0}</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Report Count: {0}</t>
+  </si>
+  <si>
+    <t>NoData</t>
+  </si>
+  <si>
+    <t>データなし</t>
+  </si>
+  <si>
+    <t>No Data</t>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sex</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CauseOfDeath</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死因</t>
-    <rPh sb="0" eb="2">
-      <t>シイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cause of Death</t>
   </si>
   <si>
     <t>DiedDay</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死亡日</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NoData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データなし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CoronerReport</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官レポート</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Died Day</t>
   </si>
   <si>
     <t>BackupVehicle</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援車両</t>
-    <rPh sb="0" eb="2">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シャリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Vehicle</t>
+  </si>
+  <si>
+    <t>BackupOfficer</t>
+  </si>
+  <si>
+    <t>応援警官</t>
+  </si>
+  <si>
+    <t>AllDismissItem</t>
+  </si>
+  <si>
+    <t>~r~全応援を解散~s~</t>
+  </si>
+  <si>
+    <t>~r~All Units Dismiss~s~</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -790,7 +731,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1126,20 +1067,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V46"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1230,7 +1166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1256,7 +1192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1282,7 +1218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1308,7 +1244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1334,7 +1270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1360,7 +1296,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1386,7 +1322,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1412,7 +1348,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1438,7 +1374,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1464,7 +1400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1490,7 +1426,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1516,7 +1452,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1542,7 +1478,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -1568,7 +1504,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1594,7 +1530,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -1620,7 +1556,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -1646,7 +1582,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1672,7 +1608,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -1698,7 +1634,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -1724,7 +1660,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -1750,129 +1686,192 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+      <c r="E26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="E29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+      <c r="E33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>202</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+      <c r="E38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+      <c r="E41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>216</v>
+      </c>
+      <c r="E43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D571BF4A-B709-456B-9C70-1ED35DF74F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="211">
   <si>
     <t>日本語</t>
   </si>
@@ -542,166 +546,256 @@
     <t>GMP</t>
   </si>
   <si>
+    <t>NoDeadBodies</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UnitRequested</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~{0}~s~の応援を要請しました。</t>
+    <rPh sb="10" eb="12">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この付近に~r~死体~s~はありません。</t>
+    <rPh sb="2" eb="4">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Coroner</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官</t>
-  </si>
-  <si>
-    <t>NoDeadBodies</t>
-  </si>
-  <si>
-    <t>この付近に~r~死体~s~はありません。</t>
-  </si>
-  <si>
-    <t>There is no ~r~dead bodies~s~ nearby you.</t>
-  </si>
-  <si>
-    <t>UnitRequested</t>
-  </si>
-  <si>
-    <t>~b~{0}~s~の応援を要請しました。</t>
-  </si>
-  <si>
-    <t>Requested ~b~{0}~s~ unit to Dispatch.</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerCheckPls</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>詳しい情報は~b~検視官レポート~s~を確認してください。</t>
-  </si>
-  <si>
-    <t>You can check ~b~Coroner's Report~s~ for more information.</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerBye</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>それではいい一日を!</t>
-  </si>
-  <si>
-    <t>Have a nice day! Officer!</t>
+    <rPh sb="6" eb="8">
+      <t>イチニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>TeleportUnit</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>{0}で応援を近くにテレポートさせます。</t>
-  </si>
-  <si>
-    <t>Press {0} to teleport the backup unit nearby.</t>
+    <rPh sb="4" eb="6">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerMenu</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官メニュー</t>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerReportCount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官レポート数: {0}</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CauseOfDeath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死因</t>
+    <rPh sb="0" eb="2">
+      <t>シイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DiedDay</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死亡日</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NoData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データなし</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerReport</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官レポート</t>
-  </si>
-  <si>
-    <t>Coroner Report</t>
-  </si>
-  <si>
-    <t>CoronerReportCount</t>
-  </si>
-  <si>
-    <t>検視官レポート数: {0}</t>
-  </si>
-  <si>
-    <t>Report Count: {0}</t>
-  </si>
-  <si>
-    <t>NoData</t>
-  </si>
-  <si>
-    <t>データなし</t>
-  </si>
-  <si>
-    <t>No Data</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>CauseOfDeath</t>
-  </si>
-  <si>
-    <t>死因</t>
-  </si>
-  <si>
-    <t>Cause of Death</t>
-  </si>
-  <si>
-    <t>DiedDay</t>
-  </si>
-  <si>
-    <t>死亡日</t>
-  </si>
-  <si>
-    <t>Died Day</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BackupVehicle</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援車両</t>
-  </si>
-  <si>
-    <t>Backup Vehicle</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BackupOfficer</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援警官</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>AllDismissItem</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~r~全応援を解散~s~</t>
+    <rPh sb="3" eb="4">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~r~All Units Dismiss~s~</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -731,7 +825,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1067,15 +1161,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V46"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1166,7 +1265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1192,7 +1291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1218,7 +1317,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1244,7 +1343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1270,7 +1369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1296,7 +1395,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1322,7 +1421,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1348,7 +1447,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1374,7 +1473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1400,7 +1499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1426,7 +1525,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1452,7 +1551,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1478,7 +1577,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -1504,7 +1603,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1530,7 +1629,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -1556,7 +1655,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -1582,7 +1681,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1608,7 +1707,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -1634,7 +1733,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -1660,7 +1759,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -1686,192 +1785,148 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>178</v>
       </c>
       <c r="B27" t="s">
         <v>179</v>
       </c>
-      <c r="E27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>182</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B29" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>184</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>185</v>
       </c>
-      <c r="E29" t="s">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
         <v>187</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>188</v>
       </c>
-      <c r="E30" t="s">
+      <c r="B33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>190</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>191</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B38" t="s">
         <v>193</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>194</v>
       </c>
-      <c r="E33" t="s">
+      <c r="B39" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>196</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B40" t="s">
         <v>197</v>
       </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B41" t="s">
         <v>199</v>
       </c>
-      <c r="B35" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B43" t="s">
         <v>205</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>206</v>
       </c>
-      <c r="E38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B44" t="s">
         <v>207</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>208</v>
       </c>
-      <c r="E39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B46" t="s">
         <v>209</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E46" t="s">
         <v>210</v>
       </c>
-      <c r="E40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>215</v>
-      </c>
-      <c r="B43" t="s">
-        <v>216</v>
-      </c>
-      <c r="E43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>220</v>
-      </c>
-      <c r="B46" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" t="s">
-        <v>222</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D571BF4A-B709-456B-9C70-1ED35DF74F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="224">
   <si>
     <t>日本語</t>
   </si>
@@ -546,256 +542,169 @@
     <t>GMP</t>
   </si>
   <si>
+    <t>Coroner</t>
+  </si>
+  <si>
+    <t>検視官</t>
+  </si>
+  <si>
     <t>NoDeadBodies</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この付近に~r~死体~s~はありません。</t>
+  </si>
+  <si>
+    <t>There is no ~r~dead bodies~s~ nearby you.</t>
   </si>
   <si>
     <t>UnitRequested</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~b~{0}~s~の応援を要請しました。</t>
-    <rPh sb="10" eb="12">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>この付近に~r~死体~s~はありません。</t>
-    <rPh sb="2" eb="4">
-      <t>フキン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Coroner</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Requested ~b~{0}~s~ unit to Dispatch.</t>
   </si>
   <si>
     <t>CoronerCheckPls</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>詳しい情報は~b~検視官レポート~s~を確認してください。</t>
-    <rPh sb="0" eb="1">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>You can check ~b~Coroner's Report~s~ for more information.</t>
   </si>
   <si>
     <t>CoronerBye</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>それではいい一日を!</t>
-    <rPh sb="6" eb="8">
-      <t>イチニチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Have a nice day! Officer!</t>
   </si>
   <si>
     <t>TeleportUnit</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>{0}で応援を近くにテレポートさせます。</t>
-    <rPh sb="4" eb="6">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Press {0} to teleport the backup unit nearby.</t>
   </si>
   <si>
     <t>CoronerMenu</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官メニュー</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+  </si>
+  <si>
+    <t>CoronerReport</t>
+  </si>
+  <si>
+    <t>検視官レポート</t>
+  </si>
+  <si>
+    <t>Coroner Report</t>
   </si>
   <si>
     <t>CoronerReportCount</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官レポート数: {0}</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Report Count: {0}</t>
+  </si>
+  <si>
+    <t>NoData</t>
+  </si>
+  <si>
+    <t>データなし</t>
+  </si>
+  <si>
+    <t>No Data</t>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sex</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CauseOfDeath</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死因</t>
-    <rPh sb="0" eb="2">
-      <t>シイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cause of Death</t>
   </si>
   <si>
     <t>DiedDay</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死亡日</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NoData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データなし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CoronerReport</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官レポート</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Died Day</t>
   </si>
   <si>
     <t>BackupVehicle</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援車両</t>
-    <rPh sb="0" eb="2">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シャリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Vehicle</t>
   </si>
   <si>
     <t>BackupOfficer</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援警官</t>
-    <rPh sb="0" eb="2">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Officer</t>
   </si>
   <si>
     <t>AllDismissItem</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~r~全応援を解散~s~</t>
-    <rPh sb="3" eb="4">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~r~All Units Dismiss~s~</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -825,7 +734,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1161,20 +1070,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1265,7 +1169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1291,7 +1195,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1317,7 +1221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1343,7 +1247,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1369,7 +1273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1395,7 +1299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1421,7 +1325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1447,7 +1351,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1473,7 +1377,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1499,7 +1403,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1525,7 +1429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1551,7 +1455,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1577,7 +1481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -1603,7 +1507,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1629,7 +1533,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -1655,7 +1559,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -1681,7 +1585,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1707,7 +1611,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -1733,7 +1637,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -1759,7 +1663,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -1785,148 +1689,195 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+      <c r="E26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="E29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+      <c r="E33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>202</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+      <c r="E38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+      <c r="E41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+      <c r="E43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D571BF4A-B709-456B-9C70-1ED35DF74F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="211">
   <si>
     <t>日本語</t>
   </si>
@@ -542,169 +546,256 @@
     <t>GMP</t>
   </si>
   <si>
+    <t>NoDeadBodies</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UnitRequested</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~b~{0}~s~の応援を要請しました。</t>
+    <rPh sb="10" eb="12">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この付近に~r~死体~s~はありません。</t>
+    <rPh sb="2" eb="4">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Coroner</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官</t>
-  </si>
-  <si>
-    <t>NoDeadBodies</t>
-  </si>
-  <si>
-    <t>この付近に~r~死体~s~はありません。</t>
-  </si>
-  <si>
-    <t>There is no ~r~dead bodies~s~ nearby you.</t>
-  </si>
-  <si>
-    <t>UnitRequested</t>
-  </si>
-  <si>
-    <t>~b~{0}~s~の応援を要請しました。</t>
-  </si>
-  <si>
-    <t>Requested ~b~{0}~s~ unit to Dispatch.</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerCheckPls</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>詳しい情報は~b~検視官レポート~s~を確認してください。</t>
-  </si>
-  <si>
-    <t>You can check ~b~Coroner's Report~s~ for more information.</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerBye</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>それではいい一日を!</t>
-  </si>
-  <si>
-    <t>Have a nice day! Officer!</t>
+    <rPh sb="6" eb="8">
+      <t>イチニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>TeleportUnit</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>{0}で応援を近くにテレポートさせます。</t>
-  </si>
-  <si>
-    <t>Press {0} to teleport the backup unit nearby.</t>
+    <rPh sb="4" eb="6">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerMenu</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官メニュー</t>
-  </si>
-  <si>
-    <t>Coroner Menu</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerReportCount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検視官レポート数: {0}</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CauseOfDeath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死因</t>
+    <rPh sb="0" eb="2">
+      <t>シイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DiedDay</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死亡日</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NoData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データなし</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerReport</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官レポート</t>
-  </si>
-  <si>
-    <t>Coroner Report</t>
-  </si>
-  <si>
-    <t>CoronerReportCount</t>
-  </si>
-  <si>
-    <t>検視官レポート数: {0}</t>
-  </si>
-  <si>
-    <t>Report Count: {0}</t>
-  </si>
-  <si>
-    <t>NoData</t>
-  </si>
-  <si>
-    <t>データなし</t>
-  </si>
-  <si>
-    <t>No Data</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>CauseOfDeath</t>
-  </si>
-  <si>
-    <t>死因</t>
-  </si>
-  <si>
-    <t>Cause of Death</t>
-  </si>
-  <si>
-    <t>DiedDay</t>
-  </si>
-  <si>
-    <t>死亡日</t>
-  </si>
-  <si>
-    <t>Died Day</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BackupVehicle</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援車両</t>
-  </si>
-  <si>
-    <t>Backup Vehicle</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BackupOfficer</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援警官</t>
-  </si>
-  <si>
-    <t>Backup Officer</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>AllDismissItem</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~r~全応援を解散~s~</t>
+    <rPh sb="3" eb="4">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~r~All Units Dismiss~s~</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -734,7 +825,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1070,15 +1161,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V46"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1169,7 +1265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1195,7 +1291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1221,7 +1317,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1247,7 +1343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1273,7 +1369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1299,7 +1395,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1325,7 +1421,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1351,7 +1447,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1377,7 +1473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1403,7 +1499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1429,7 +1525,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1455,7 +1551,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1481,7 +1577,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -1507,7 +1603,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1533,7 +1629,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -1559,7 +1655,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -1585,7 +1681,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1611,7 +1707,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -1637,7 +1733,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -1663,7 +1759,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -1689,195 +1785,148 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>178</v>
       </c>
       <c r="B27" t="s">
         <v>179</v>
       </c>
-      <c r="E27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>182</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B29" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>184</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>185</v>
       </c>
-      <c r="E29" t="s">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
         <v>187</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>188</v>
       </c>
-      <c r="E30" t="s">
+      <c r="B33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>190</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>191</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B38" t="s">
         <v>193</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>194</v>
       </c>
-      <c r="E33" t="s">
+      <c r="B39" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>196</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B40" t="s">
         <v>197</v>
       </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B41" t="s">
         <v>199</v>
       </c>
-      <c r="B35" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B43" t="s">
         <v>205</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>206</v>
       </c>
-      <c r="E38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B44" t="s">
         <v>207</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>208</v>
       </c>
-      <c r="E39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B46" t="s">
         <v>209</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E46" t="s">
         <v>210</v>
       </c>
-      <c r="E40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>215</v>
-      </c>
-      <c r="B43" t="s">
-        <v>216</v>
-      </c>
-      <c r="E43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" t="s">
-        <v>219</v>
-      </c>
-      <c r="E44" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>221</v>
-      </c>
-      <c r="B46" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" t="s">
-        <v>223</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A2FA19-355E-42EE-8CE8-3B1B1A5D42DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="289">
   <si>
     <t>日本語</t>
   </si>
@@ -684,27 +688,384 @@
   </si>
   <si>
     <t>~r~All Units Dismiss~s~</t>
+  </si>
+  <si>
+    <t>BackupResponseUnitType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>応援の種類</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Response</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>Drownding</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>Exhaustion</t>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODAnimal</t>
+  </si>
+  <si>
+    <t>CODKnife</t>
+  </si>
+  <si>
+    <t>CODShotPistol</t>
+  </si>
+  <si>
+    <t>CODElectricalShock</t>
+  </si>
+  <si>
+    <t>CODShotHeavyFirearm</t>
+  </si>
+  <si>
+    <t>CODShotShotgun</t>
+  </si>
+  <si>
+    <t>CODShotRifle</t>
+  </si>
+  <si>
+    <t>CODUnknown</t>
+  </si>
+  <si>
+    <t>強打</t>
+    <rPh sb="0" eb="2">
+      <t>キョウダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBang</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODRunOverByCar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>車に轢かれた</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODFall</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高所から落下</t>
+    <rPh sb="0" eb="2">
+      <t>コウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動物による傷害</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>爆発</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBleeding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大量出血</t>
+    <rPh sb="0" eb="4">
+      <t>タイリョウシュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBarbedWire</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有刺鉄線</t>
+    <rPh sb="0" eb="4">
+      <t>ユウシテッセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>溺死</t>
+    <rPh sb="0" eb="2">
+      <t>デキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBurn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火傷</t>
+    <rPh sb="0" eb="2">
+      <t>ヤケド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODExhaustion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過労死</t>
+    <rPh sb="0" eb="3">
+      <t>カロウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刃物で刺された</t>
+    <rPh sb="0" eb="2">
+      <t>ハモノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenSome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何かで殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手で殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenBlunt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鋭いもので殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拳銃で撃たれた</t>
+    <rPh sb="0" eb="2">
+      <t>ケンジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気ショック</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重火器で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウカキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>散弾銃で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>サンダンジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフルで撃たれた</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODChoking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窒息死</t>
+    <rPh sb="0" eb="3">
+      <t>チッソクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細不明</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run over by car</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fell from high place</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Injured by an animal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODExplosion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Barbed Wire</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODDrownding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Burn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenHand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with something</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with blunt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with hand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by pistol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Electrical Shock</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by heavy firearm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by shotgun</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by rifle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocking</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -734,7 +1095,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1070,15 +1431,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V46"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1143,741 +1509,981 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P5" t="s">
         <v>34</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K6" t="s">
         <v>38</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O6" t="s">
         <v>40</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P6" t="s">
         <v>41</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="V7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>62</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>63</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K10" t="s">
         <v>64</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O10" t="s">
         <v>65</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P10" t="s">
         <v>66</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>71</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K11" t="s">
         <v>72</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O11" t="s">
         <v>73</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P11" t="s">
         <v>74</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>78</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H12" t="s">
         <v>79</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K12" t="s">
         <v>80</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O12" t="s">
         <v>81</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P12" t="s">
         <v>82</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>86</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H13" t="s">
         <v>87</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K13" t="s">
         <v>88</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O13" t="s">
         <v>89</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P13" t="s">
         <v>90</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H15" t="s">
         <v>94</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K15" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O15" t="s">
         <v>96</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>99</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H16" t="s">
         <v>101</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K16" t="s">
         <v>102</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O16" t="s">
         <v>103</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P16" t="s">
         <v>104</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>106</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>107</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>108</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H17" t="s">
         <v>109</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K17" t="s">
         <v>110</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O17" t="s">
         <v>111</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P17" t="s">
         <v>112</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>114</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>115</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>114</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H18" t="s">
         <v>116</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K18" t="s">
         <v>117</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O18" t="s">
         <v>118</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P18" t="s">
         <v>119</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>121</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>122</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>123</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H20" t="s">
         <v>124</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K20" t="s">
         <v>125</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O20" t="s">
         <v>126</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P20" t="s">
         <v>127</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>129</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>130</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>131</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H21" t="s">
         <v>132</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K21" t="s">
         <v>133</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O21" t="s">
         <v>134</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P21" t="s">
         <v>135</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>137</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>138</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>139</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H22" t="s">
         <v>140</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K22" t="s">
         <v>141</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O22" t="s">
         <v>142</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P22" t="s">
         <v>143</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>145</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>146</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>147</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H23" t="s">
         <v>148</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K23" t="s">
         <v>149</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O23" t="s">
         <v>150</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P23" t="s">
         <v>151</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>153</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>154</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>155</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H24" t="s">
         <v>156</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K24" t="s">
         <v>157</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O24" t="s">
         <v>158</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P24" t="s">
         <v>159</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>161</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>162</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H25" t="s">
         <v>163</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K25" t="s">
         <v>164</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O25" t="s">
         <v>165</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P25" t="s">
         <v>166</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>168</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>169</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>170</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H26" t="s">
         <v>171</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K26" t="s">
         <v>172</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O26" t="s">
         <v>173</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P26" t="s">
         <v>174</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>176</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>178</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>179</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>181</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>182</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>184</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>185</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>187</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>188</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>190</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>191</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>193</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>194</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>196</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>197</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>199</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>200</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>203</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>205</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>206</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>207</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>208</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>209</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>210</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E42" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>212</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>213</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E43" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>215</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>216</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>218</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>219</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>221</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>222</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E48" t="s">
         <v>223</v>
       </c>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" t="s">
+        <v>245</v>
+      </c>
+      <c r="E52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" t="s">
+        <v>247</v>
+      </c>
+      <c r="E54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" t="s">
+        <v>249</v>
+      </c>
+      <c r="E55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" t="s">
+        <v>251</v>
+      </c>
+      <c r="E56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>252</v>
+      </c>
+      <c r="E57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" t="s">
+        <v>259</v>
+      </c>
+      <c r="E61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>279</v>
+      </c>
+      <c r="B62" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" t="s">
+        <v>262</v>
+      </c>
+      <c r="E63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" t="s">
+        <v>265</v>
+      </c>
+      <c r="E66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" t="s">
+        <v>269</v>
+      </c>
+      <c r="E69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D571BF4A-B709-456B-9C70-1ED35DF74F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="289">
   <si>
     <t>日本語</t>
   </si>
@@ -78,6 +74,15 @@
   </si>
   <si>
     <t>リトアニア語</t>
+  </si>
+  <si>
+    <t>BackupResponseUnitType</t>
+  </si>
+  <si>
+    <t>応援の種類</t>
+  </si>
+  <si>
+    <t>Backup Response</t>
   </si>
   <si>
     <t>BackupLocal</t>
@@ -546,256 +551,355 @@
     <t>GMP</t>
   </si>
   <si>
+    <t>Coroner</t>
+  </si>
+  <si>
+    <t>検視官</t>
+  </si>
+  <si>
     <t>NoDeadBodies</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この付近に~r~死体~s~はありません。</t>
+  </si>
+  <si>
+    <t>There is no ~r~dead bodies~s~ nearby you.</t>
   </si>
   <si>
     <t>UnitRequested</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~b~{0}~s~の応援を要請しました。</t>
-    <rPh sb="10" eb="12">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>この付近に~r~死体~s~はありません。</t>
-    <rPh sb="2" eb="4">
-      <t>フキン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Coroner</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Requested ~b~{0}~s~ unit to Dispatch.</t>
   </si>
   <si>
     <t>CoronerCheckPls</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>詳しい情報は~b~検視官レポート~s~を確認してください。</t>
-    <rPh sb="0" eb="1">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>You can check ~b~Coroner's Report~s~ for more information.</t>
   </si>
   <si>
     <t>CoronerBye</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>それではいい一日を!</t>
-    <rPh sb="6" eb="8">
-      <t>イチニチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Have a nice day! Officer!</t>
   </si>
   <si>
     <t>TeleportUnit</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>{0}で応援を近くにテレポートさせます。</t>
-    <rPh sb="4" eb="6">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Press {0} to teleport the backup unit nearby.</t>
   </si>
   <si>
     <t>CoronerMenu</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官メニュー</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coroner Menu</t>
+  </si>
+  <si>
+    <t>CoronerReport</t>
+  </si>
+  <si>
+    <t>検視官レポート</t>
+  </si>
+  <si>
+    <t>Coroner Report</t>
   </si>
   <si>
     <t>CoronerReportCount</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検視官レポート数: {0}</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Report Count: {0}</t>
+  </si>
+  <si>
+    <t>NoData</t>
+  </si>
+  <si>
+    <t>データなし</t>
+  </si>
+  <si>
+    <t>No Data</t>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sex</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CauseOfDeath</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死因</t>
-    <rPh sb="0" eb="2">
-      <t>シイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cause of Death</t>
   </si>
   <si>
     <t>DiedDay</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死亡日</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NoData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データなし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CoronerReport</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検視官レポート</t>
-    <rPh sb="0" eb="3">
-      <t>ケンシカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Died Day</t>
   </si>
   <si>
     <t>BackupVehicle</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援車両</t>
-    <rPh sb="0" eb="2">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シャリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Vehicle</t>
   </si>
   <si>
     <t>BackupOfficer</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>応援警官</t>
-    <rPh sb="0" eb="2">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Officer</t>
   </si>
   <si>
     <t>AllDismissItem</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~r~全応援を解散~s~</t>
-    <rPh sb="3" eb="4">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>~r~All Units Dismiss~s~</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBang</t>
+  </si>
+  <si>
+    <t>強打</t>
+  </si>
+  <si>
+    <t>CODRunOverByCar</t>
+  </si>
+  <si>
+    <t>車に轢かれた</t>
+  </si>
+  <si>
+    <t>Run over by car</t>
+  </si>
+  <si>
+    <t>CODFall</t>
+  </si>
+  <si>
+    <t>高所から落下</t>
+  </si>
+  <si>
+    <t>Fell from high place</t>
+  </si>
+  <si>
+    <t>CODAnimal</t>
+  </si>
+  <si>
+    <t>動物による傷害</t>
+  </si>
+  <si>
+    <t>Injured by an animal</t>
+  </si>
+  <si>
+    <t>CODExplosion</t>
+  </si>
+  <si>
+    <t>爆発</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>CODBleeding</t>
+  </si>
+  <si>
+    <t>大量出血</t>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>CODBarbedWire</t>
+  </si>
+  <si>
+    <t>有刺鉄線</t>
+  </si>
+  <si>
+    <t>Barbed Wire</t>
+  </si>
+  <si>
+    <t>CODDrownding</t>
+  </si>
+  <si>
+    <t>溺死</t>
+  </si>
+  <si>
+    <t>Drownding</t>
+  </si>
+  <si>
+    <t>CODBurn</t>
+  </si>
+  <si>
+    <t>火傷</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>CODExhaustion</t>
+  </si>
+  <si>
+    <t>過労死</t>
+  </si>
+  <si>
+    <t>Exhaustion</t>
+  </si>
+  <si>
+    <t>CODKnife</t>
+  </si>
+  <si>
+    <t>刃物で刺された</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>CODBeatenSome</t>
+  </si>
+  <si>
+    <t>何かで殴られた</t>
+  </si>
+  <si>
+    <t>Beaten with something</t>
+  </si>
+  <si>
+    <t>CODBeatenHand</t>
+  </si>
+  <si>
+    <t>手で殴られた</t>
+  </si>
+  <si>
+    <t>Beaten with hand</t>
+  </si>
+  <si>
+    <t>CODBeatenBlunt</t>
+  </si>
+  <si>
+    <t>鋭いもので殴られた</t>
+  </si>
+  <si>
+    <t>Beaten with blunt</t>
+  </si>
+  <si>
+    <t>CODShotPistol</t>
+  </si>
+  <si>
+    <t>拳銃で撃たれた</t>
+  </si>
+  <si>
+    <t>Shot by pistol</t>
+  </si>
+  <si>
+    <t>CODElectricalShock</t>
+  </si>
+  <si>
+    <t>電気ショック</t>
+  </si>
+  <si>
+    <t>Electrical Shock</t>
+  </si>
+  <si>
+    <t>CODShotHeavyFirearm</t>
+  </si>
+  <si>
+    <t>重火器で撃たれた</t>
+  </si>
+  <si>
+    <t>Shot by heavy firearm</t>
+  </si>
+  <si>
+    <t>CODShotShotgun</t>
+  </si>
+  <si>
+    <t>散弾銃で撃たれた</t>
+  </si>
+  <si>
+    <t>Shot by shotgun</t>
+  </si>
+  <si>
+    <t>CODShotRifle</t>
+  </si>
+  <si>
+    <t>ライフルで撃たれた</t>
+  </si>
+  <si>
+    <t>Shot by rifle</t>
+  </si>
+  <si>
+    <t>CODChoking</t>
+  </si>
+  <si>
+    <t>窒息死</t>
+  </si>
+  <si>
+    <t>Chocking</t>
+  </si>
+  <si>
+    <t>CODUnknown</t>
+  </si>
+  <si>
+    <t>詳細不明</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -825,7 +929,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1161,20 +1265,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V70"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1239,694 +1338,980 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V2" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="P4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="V4" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="V3" t="s">
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="O5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="P5" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="V5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="P4" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="V4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
+      <c r="P6" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="V6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="P5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="E7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" t="s">
         <v>50</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="O6" t="s">
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="P6" t="s">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
         <v>53</v>
       </c>
-      <c r="V6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="K8" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="O8" t="s">
         <v>55</v>
       </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="P8" t="s">
         <v>56</v>
       </c>
-      <c r="K7" t="s">
+      <c r="V8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c r="O7" t="s">
+      <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P7" t="s">
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
         <v>59</v>
       </c>
-      <c r="V7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="O9" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
+      <c r="P9" t="s">
         <v>62</v>
       </c>
-      <c r="H8" t="s">
+      <c r="V9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="K8" t="s">
+      <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O8" t="s">
+      <c r="E10" t="s">
         <v>65</v>
       </c>
-      <c r="P8" t="s">
+      <c r="H10" t="s">
         <v>66</v>
       </c>
-      <c r="V8" t="s">
+      <c r="K10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="O10" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="P10" t="s">
         <v>69</v>
       </c>
-      <c r="E9" t="s">
+      <c r="V10" t="s">
         <v>70</v>
       </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="K9" t="s">
+      <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="O9" t="s">
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="P9" t="s">
+      <c r="H11" t="s">
         <v>74</v>
       </c>
-      <c r="V9" t="s">
+      <c r="K11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="O11" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="P11" t="s">
         <v>77</v>
       </c>
-      <c r="E10" t="s">
+      <c r="V11" t="s">
         <v>78</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="12" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>79</v>
       </c>
-      <c r="K10" t="s">
+      <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O10" t="s">
+      <c r="E12" t="s">
         <v>81</v>
       </c>
-      <c r="P10" t="s">
+      <c r="H12" t="s">
         <v>82</v>
       </c>
-      <c r="V10" t="s">
+      <c r="K12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="O12" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="P12" t="s">
         <v>85</v>
       </c>
-      <c r="E11" t="s">
+      <c r="V12" t="s">
         <v>86</v>
       </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="K11" t="s">
+      <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O11" t="s">
+      <c r="E13" t="s">
         <v>89</v>
       </c>
-      <c r="P11" t="s">
+      <c r="H13" t="s">
         <v>90</v>
       </c>
-      <c r="V11" t="s">
+      <c r="K13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="O13" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="P13" t="s">
         <v>93</v>
       </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="V13" t="s">
         <v>94</v>
       </c>
-      <c r="K13" t="s">
+    </row>
+    <row r="15" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="B15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P13" t="s">
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
         <v>97</v>
       </c>
-      <c r="V13" t="s">
+      <c r="K15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="O15" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="P15" t="s">
         <v>100</v>
       </c>
-      <c r="E14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="V15" t="s">
         <v>101</v>
       </c>
-      <c r="K14" t="s">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>102</v>
       </c>
-      <c r="O14" t="s">
+      <c r="B16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P14" t="s">
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
         <v>104</v>
       </c>
-      <c r="V14" t="s">
+      <c r="K16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="O16" t="s">
         <v>106</v>
       </c>
-      <c r="B15" t="s">
+      <c r="P16" t="s">
         <v>107</v>
       </c>
-      <c r="E15" t="s">
+      <c r="V16" t="s">
         <v>108</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>109</v>
       </c>
-      <c r="K15" t="s">
+      <c r="B17" t="s">
         <v>110</v>
       </c>
-      <c r="O15" t="s">
+      <c r="E17" t="s">
         <v>111</v>
       </c>
-      <c r="P15" t="s">
+      <c r="H17" t="s">
         <v>112</v>
       </c>
-      <c r="V15" t="s">
+      <c r="K17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="O17" t="s">
         <v>114</v>
       </c>
-      <c r="B16" t="s">
+      <c r="P17" t="s">
         <v>115</v>
       </c>
-      <c r="E16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="V17" t="s">
         <v>116</v>
       </c>
-      <c r="K16" t="s">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>117</v>
       </c>
-      <c r="O16" t="s">
+      <c r="B18" t="s">
         <v>118</v>
       </c>
-      <c r="P16" t="s">
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" t="s">
         <v>119</v>
       </c>
-      <c r="V16" t="s">
+      <c r="K18" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="O18" t="s">
         <v>121</v>
       </c>
-      <c r="B18" t="s">
+      <c r="P18" t="s">
         <v>122</v>
       </c>
-      <c r="E18" t="s">
+      <c r="V18" t="s">
         <v>123</v>
       </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>124</v>
       </c>
-      <c r="K18" t="s">
+      <c r="B20" t="s">
         <v>125</v>
       </c>
-      <c r="O18" t="s">
+      <c r="E20" t="s">
         <v>126</v>
       </c>
-      <c r="P18" t="s">
+      <c r="H20" t="s">
         <v>127</v>
       </c>
-      <c r="V18" t="s">
+      <c r="K20" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="B19" t="s">
+      <c r="P20" t="s">
         <v>130</v>
       </c>
-      <c r="E19" t="s">
+      <c r="V20" t="s">
         <v>131</v>
       </c>
-      <c r="H19" t="s">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>132</v>
       </c>
-      <c r="K19" t="s">
+      <c r="B21" t="s">
         <v>133</v>
       </c>
-      <c r="O19" t="s">
+      <c r="E21" t="s">
         <v>134</v>
       </c>
-      <c r="P19" t="s">
+      <c r="H21" t="s">
         <v>135</v>
       </c>
-      <c r="V19" t="s">
+      <c r="K21" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="O21" t="s">
         <v>137</v>
       </c>
-      <c r="B20" t="s">
+      <c r="P21" t="s">
         <v>138</v>
       </c>
-      <c r="E20" t="s">
+      <c r="V21" t="s">
         <v>139</v>
       </c>
-      <c r="H20" t="s">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>140</v>
       </c>
-      <c r="K20" t="s">
+      <c r="B22" t="s">
         <v>141</v>
       </c>
-      <c r="O20" t="s">
+      <c r="E22" t="s">
         <v>142</v>
       </c>
-      <c r="P20" t="s">
+      <c r="H22" t="s">
         <v>143</v>
       </c>
-      <c r="V20" t="s">
+      <c r="K22" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="O22" t="s">
         <v>145</v>
       </c>
-      <c r="B21" t="s">
+      <c r="P22" t="s">
         <v>146</v>
       </c>
-      <c r="E21" t="s">
+      <c r="V22" t="s">
         <v>147</v>
       </c>
-      <c r="H21" t="s">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>148</v>
       </c>
-      <c r="K21" t="s">
+      <c r="B23" t="s">
         <v>149</v>
       </c>
-      <c r="O21" t="s">
+      <c r="E23" t="s">
         <v>150</v>
       </c>
-      <c r="P21" t="s">
+      <c r="H23" t="s">
         <v>151</v>
       </c>
-      <c r="V21" t="s">
+      <c r="K23" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="O23" t="s">
         <v>153</v>
       </c>
-      <c r="B22" t="s">
+      <c r="P23" t="s">
         <v>154</v>
       </c>
-      <c r="E22" t="s">
+      <c r="V23" t="s">
         <v>155</v>
       </c>
-      <c r="H22" t="s">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>156</v>
       </c>
-      <c r="K22" t="s">
+      <c r="B24" t="s">
         <v>157</v>
       </c>
-      <c r="O22" t="s">
+      <c r="E24" t="s">
         <v>158</v>
       </c>
-      <c r="P22" t="s">
+      <c r="H24" t="s">
         <v>159</v>
       </c>
-      <c r="V22" t="s">
+      <c r="K24" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="O24" t="s">
         <v>161</v>
       </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="P24" t="s">
         <v>162</v>
       </c>
-      <c r="H23" t="s">
+      <c r="V24" t="s">
         <v>163</v>
       </c>
-      <c r="K23" t="s">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>164</v>
       </c>
-      <c r="O23" t="s">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
         <v>165</v>
       </c>
-      <c r="P23" t="s">
+      <c r="H25" t="s">
         <v>166</v>
       </c>
-      <c r="V23" t="s">
+      <c r="K25" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="O25" t="s">
         <v>168</v>
       </c>
-      <c r="B24" t="s">
+      <c r="P25" t="s">
         <v>169</v>
       </c>
-      <c r="E24" t="s">
+      <c r="V25" t="s">
         <v>170</v>
       </c>
-      <c r="H24" t="s">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>171</v>
       </c>
-      <c r="K24" t="s">
+      <c r="B26" t="s">
         <v>172</v>
       </c>
-      <c r="O24" t="s">
+      <c r="E26" t="s">
         <v>173</v>
       </c>
-      <c r="P24" t="s">
+      <c r="H26" t="s">
         <v>174</v>
       </c>
-      <c r="V24" t="s">
+      <c r="K26" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="O26" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" t="s">
+        <v>177</v>
+      </c>
+      <c r="V26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
         <v>180</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>182</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E29" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>184</v>
       </c>
       <c r="B30" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+      <c r="E31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+      <c r="E38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+      <c r="E41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>206</v>
-      </c>
-      <c r="B44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+      <c r="E43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" t="s">
+        <v>242</v>
+      </c>
+      <c r="E55" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" t="s">
+        <v>245</v>
+      </c>
+      <c r="E56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" t="s">
+        <v>254</v>
+      </c>
+      <c r="E59" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" t="s">
+        <v>260</v>
+      </c>
+      <c r="E61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64" t="s">
+        <v>269</v>
+      </c>
+      <c r="E64" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>271</v>
+      </c>
+      <c r="B65" t="s">
+        <v>272</v>
+      </c>
+      <c r="E65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>274</v>
+      </c>
+      <c r="B66" t="s">
+        <v>275</v>
+      </c>
+      <c r="E66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>277</v>
+      </c>
+      <c r="B67" t="s">
+        <v>278</v>
+      </c>
+      <c r="E67" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68" t="s">
+        <v>281</v>
+      </c>
+      <c r="E68" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" t="s">
+        <v>284</v>
+      </c>
+      <c r="E69" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" t="s">
+        <v>287</v>
+      </c>
+      <c r="E70" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A2FA19-355E-42EE-8CE8-3B1B1A5D42DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -76,15 +80,6 @@
     <t>リトアニア語</t>
   </si>
   <si>
-    <t>BackupResponseUnitType</t>
-  </si>
-  <si>
-    <t>応援の種類</t>
-  </si>
-  <si>
-    <t>Backup Response</t>
-  </si>
-  <si>
     <t>BackupLocal</t>
   </si>
   <si>
@@ -695,211 +690,382 @@
     <t>~r~All Units Dismiss~s~</t>
   </si>
   <si>
+    <t>BackupResponseUnitType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>応援の種類</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Response</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>Drownding</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>Exhaustion</t>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODAnimal</t>
+  </si>
+  <si>
+    <t>CODKnife</t>
+  </si>
+  <si>
+    <t>CODShotPistol</t>
+  </si>
+  <si>
+    <t>CODElectricalShock</t>
+  </si>
+  <si>
+    <t>CODShotHeavyFirearm</t>
+  </si>
+  <si>
+    <t>CODShotShotgun</t>
+  </si>
+  <si>
+    <t>CODShotRifle</t>
+  </si>
+  <si>
+    <t>CODUnknown</t>
+  </si>
+  <si>
+    <t>強打</t>
+    <rPh sb="0" eb="2">
+      <t>キョウダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>CODBang</t>
-  </si>
-  <si>
-    <t>強打</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CODRunOverByCar</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>車に轢かれた</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODFall</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高所から落下</t>
+    <rPh sb="0" eb="2">
+      <t>コウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動物による傷害</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>爆発</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBleeding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大量出血</t>
+    <rPh sb="0" eb="4">
+      <t>タイリョウシュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBarbedWire</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有刺鉄線</t>
+    <rPh sb="0" eb="4">
+      <t>ユウシテッセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>溺死</t>
+    <rPh sb="0" eb="2">
+      <t>デキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBurn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火傷</t>
+    <rPh sb="0" eb="2">
+      <t>ヤケド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODExhaustion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過労死</t>
+    <rPh sb="0" eb="3">
+      <t>カロウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刃物で刺された</t>
+    <rPh sb="0" eb="2">
+      <t>ハモノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenSome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何かで殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手で殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenBlunt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鋭いもので殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拳銃で撃たれた</t>
+    <rPh sb="0" eb="2">
+      <t>ケンジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気ショック</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重火器で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウカキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>散弾銃で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>サンダンジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフルで撃たれた</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODChoking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窒息死</t>
+    <rPh sb="0" eb="3">
+      <t>チッソクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細不明</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Run over by car</t>
-  </si>
-  <si>
-    <t>CODFall</t>
-  </si>
-  <si>
-    <t>高所から落下</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Fell from high place</t>
-  </si>
-  <si>
-    <t>CODAnimal</t>
-  </si>
-  <si>
-    <t>動物による傷害</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Injured by an animal</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CODExplosion</t>
-  </si>
-  <si>
-    <t>爆発</t>
-  </si>
-  <si>
-    <t>Explosion</t>
-  </si>
-  <si>
-    <t>CODBleeding</t>
-  </si>
-  <si>
-    <t>大量出血</t>
-  </si>
-  <si>
-    <t>Bleeding</t>
-  </si>
-  <si>
-    <t>CODBarbedWire</t>
-  </si>
-  <si>
-    <t>有刺鉄線</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Barbed Wire</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CODDrownding</t>
-  </si>
-  <si>
-    <t>溺死</t>
-  </si>
-  <si>
-    <t>Drownding</t>
-  </si>
-  <si>
-    <t>CODBurn</t>
-  </si>
-  <si>
-    <t>火傷</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Burn</t>
-  </si>
-  <si>
-    <t>CODExhaustion</t>
-  </si>
-  <si>
-    <t>過労死</t>
-  </si>
-  <si>
-    <t>Exhaustion</t>
-  </si>
-  <si>
-    <t>CODKnife</t>
-  </si>
-  <si>
-    <t>刃物で刺された</t>
-  </si>
-  <si>
-    <t>Knife</t>
-  </si>
-  <si>
-    <t>CODBeatenSome</t>
-  </si>
-  <si>
-    <t>何かで殴られた</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenHand</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Beaten with something</t>
-  </si>
-  <si>
-    <t>CODBeatenHand</t>
-  </si>
-  <si>
-    <t>手で殴られた</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with blunt</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Beaten with hand</t>
-  </si>
-  <si>
-    <t>CODBeatenBlunt</t>
-  </si>
-  <si>
-    <t>鋭いもので殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with blunt</t>
-  </si>
-  <si>
-    <t>CODShotPistol</t>
-  </si>
-  <si>
-    <t>拳銃で撃たれた</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Shot by pistol</t>
-  </si>
-  <si>
-    <t>CODElectricalShock</t>
-  </si>
-  <si>
-    <t>電気ショック</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Electrical Shock</t>
-  </si>
-  <si>
-    <t>CODShotHeavyFirearm</t>
-  </si>
-  <si>
-    <t>重火器で撃たれた</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Shot by heavy firearm</t>
-  </si>
-  <si>
-    <t>CODShotShotgun</t>
-  </si>
-  <si>
-    <t>散弾銃で撃たれた</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Shot by shotgun</t>
-  </si>
-  <si>
-    <t>CODShotRifle</t>
-  </si>
-  <si>
-    <t>ライフルで撃たれた</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Shot by rifle</t>
-  </si>
-  <si>
-    <t>CODChoking</t>
-  </si>
-  <si>
-    <t>窒息死</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Chocking</t>
-  </si>
-  <si>
-    <t>CODUnknown</t>
-  </si>
-  <si>
-    <t>詳細不明</t>
-  </si>
-  <si>
-    <t>Unknown</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -929,7 +1095,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1265,15 +1431,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V70"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1338,980 +1509,981 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="V4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="V4" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="P5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
+      <c r="V5" t="s">
         <v>35</v>
       </c>
-      <c r="O5" t="s">
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="P5" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="V5" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="P6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="P6" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="V6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="K7" t="s">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
         <v>47</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s">
+        <v>82</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="s">
+        <v>97</v>
+      </c>
+      <c r="V15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" t="s">
+        <v>104</v>
+      </c>
+      <c r="V16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" t="s">
+        <v>119</v>
+      </c>
+      <c r="V18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" t="s">
+        <v>127</v>
+      </c>
+      <c r="V20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" t="s">
+        <v>135</v>
+      </c>
+      <c r="V21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" t="s">
+        <v>141</v>
+      </c>
+      <c r="O22" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" t="s">
+        <v>143</v>
+      </c>
+      <c r="V22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" t="s">
+        <v>150</v>
+      </c>
+      <c r="P23" t="s">
+        <v>151</v>
+      </c>
+      <c r="V23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" t="s">
+        <v>159</v>
+      </c>
+      <c r="V24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="P7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" t="s">
-        <v>56</v>
-      </c>
-      <c r="V8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" t="s">
-        <v>62</v>
-      </c>
-      <c r="V9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" t="s">
-        <v>69</v>
-      </c>
-      <c r="V10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" t="s">
-        <v>85</v>
-      </c>
-      <c r="V12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" t="s">
-        <v>93</v>
-      </c>
-      <c r="V13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" t="s">
-        <v>100</v>
-      </c>
-      <c r="V15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" t="s">
-        <v>105</v>
-      </c>
-      <c r="O16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" t="s">
-        <v>113</v>
-      </c>
-      <c r="O17" t="s">
-        <v>114</v>
-      </c>
-      <c r="P17" t="s">
-        <v>115</v>
-      </c>
-      <c r="V17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" t="s">
-        <v>120</v>
-      </c>
-      <c r="O18" t="s">
-        <v>121</v>
-      </c>
-      <c r="P18" t="s">
-        <v>122</v>
-      </c>
-      <c r="V18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" t="s">
-        <v>128</v>
-      </c>
-      <c r="O20" t="s">
-        <v>129</v>
-      </c>
-      <c r="P20" t="s">
-        <v>130</v>
-      </c>
-      <c r="V20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" t="s">
-        <v>136</v>
-      </c>
-      <c r="O21" t="s">
-        <v>137</v>
-      </c>
-      <c r="P21" t="s">
-        <v>138</v>
-      </c>
-      <c r="V21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" t="s">
-        <v>144</v>
-      </c>
-      <c r="O22" t="s">
-        <v>145</v>
-      </c>
-      <c r="P22" t="s">
-        <v>146</v>
-      </c>
-      <c r="V22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" t="s">
-        <v>151</v>
-      </c>
-      <c r="K23" t="s">
-        <v>152</v>
-      </c>
-      <c r="O23" t="s">
-        <v>153</v>
-      </c>
-      <c r="P23" t="s">
-        <v>154</v>
-      </c>
-      <c r="V23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" t="s">
-        <v>159</v>
-      </c>
-      <c r="K24" t="s">
-        <v>160</v>
-      </c>
-      <c r="O24" t="s">
-        <v>161</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="E25" t="s">
         <v>162</v>
       </c>
-      <c r="V24" t="s">
+      <c r="H25" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="K25" t="s">
         <v>164</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="O25" t="s">
         <v>165</v>
       </c>
-      <c r="H25" t="s">
+      <c r="P25" t="s">
         <v>166</v>
       </c>
-      <c r="K25" t="s">
+      <c r="V25" t="s">
         <v>167</v>
       </c>
-      <c r="O25" t="s">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>168</v>
       </c>
-      <c r="P25" t="s">
+      <c r="B26" t="s">
         <v>169</v>
       </c>
-      <c r="V25" t="s">
+      <c r="E26" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="H26" t="s">
         <v>171</v>
       </c>
-      <c r="B26" t="s">
+      <c r="K26" t="s">
         <v>172</v>
       </c>
-      <c r="E26" t="s">
+      <c r="O26" t="s">
         <v>173</v>
       </c>
-      <c r="H26" t="s">
+      <c r="P26" t="s">
         <v>174</v>
       </c>
-      <c r="K26" t="s">
+      <c r="V26" t="s">
         <v>175</v>
       </c>
-      <c r="O26" t="s">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>176</v>
       </c>
-      <c r="P26" t="s">
+      <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="V26" t="s">
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
         <v>179</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E29" t="s">
         <v>180</v>
       </c>
-      <c r="E28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>181</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>182</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>184</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>185</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>187</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>188</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>190</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>191</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>193</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>194</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>196</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>197</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>199</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>200</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>202</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>203</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>205</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>206</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
         <v>208</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>209</v>
       </c>
-      <c r="E40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
         <v>210</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E42" t="s">
         <v>211</v>
       </c>
-      <c r="E41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>212</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>213</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>215</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>216</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>218</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>219</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>221</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>222</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E48" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>224</v>
-      </c>
-      <c r="B48" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" t="s">
+        <v>245</v>
+      </c>
+      <c r="E52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" t="s">
+        <v>247</v>
+      </c>
+      <c r="E54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" t="s">
+        <v>249</v>
+      </c>
+      <c r="E55" t="s">
         <v>227</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" t="s">
+        <v>251</v>
+      </c>
+      <c r="E56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>252</v>
+      </c>
+      <c r="E57" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" t="s">
         <v>230</v>
       </c>
-      <c r="E51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>233</v>
-      </c>
-      <c r="E52" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>235</v>
-      </c>
-      <c r="B53" t="s">
-        <v>236</v>
-      </c>
-      <c r="E53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>238</v>
-      </c>
-      <c r="B54" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" t="s">
-        <v>242</v>
-      </c>
-      <c r="E55" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" t="s">
-        <v>245</v>
-      </c>
-      <c r="E56" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>247</v>
-      </c>
-      <c r="B57" t="s">
-        <v>248</v>
-      </c>
-      <c r="E57" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>250</v>
-      </c>
-      <c r="B58" t="s">
-        <v>251</v>
-      </c>
-      <c r="E58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>253</v>
-      </c>
-      <c r="B59" t="s">
-        <v>254</v>
-      </c>
-      <c r="E59" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>256</v>
       </c>
       <c r="B60" t="s">
         <v>257</v>
       </c>
       <c r="E60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>259</v>
       </c>
-      <c r="B61" t="s">
+      <c r="E61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>279</v>
+      </c>
+      <c r="B62" t="s">
         <v>260</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B63" t="s">
         <v>262</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64" t="s">
         <v>263</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="E65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" t="s">
         <v>265</v>
       </c>
-      <c r="B63" t="s">
+      <c r="E66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" t="s">
         <v>266</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="E68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>268</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B69" t="s">
         <v>269</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="E70" t="s">
         <v>271</v>
       </c>
-      <c r="B65" t="s">
-        <v>272</v>
-      </c>
-      <c r="E65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>274</v>
-      </c>
-      <c r="B66" t="s">
-        <v>275</v>
-      </c>
-      <c r="E66" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>277</v>
-      </c>
-      <c r="B67" t="s">
-        <v>278</v>
-      </c>
-      <c r="E67" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>280</v>
-      </c>
-      <c r="B68" t="s">
-        <v>281</v>
-      </c>
-      <c r="E68" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>283</v>
-      </c>
-      <c r="B69" t="s">
-        <v>284</v>
-      </c>
-      <c r="E69" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>286</v>
-      </c>
-      <c r="B70" t="s">
-        <v>287</v>
-      </c>
-      <c r="E70" t="s">
-        <v>288</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A2FA19-355E-42EE-8CE8-3B1B1A5D42DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D943850-66CE-4CEF-947B-93F603CC06EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,12 +684,6 @@
     <t>AllDismissItem</t>
   </si>
   <si>
-    <t>~r~全応援を解散~s~</t>
-  </si>
-  <si>
-    <t>~r~All Units Dismiss~s~</t>
-  </si>
-  <si>
     <t>BackupResponseUnitType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1037,6 +1031,14 @@
   </si>
   <si>
     <t>Chocking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全応援を解散</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>All Units Dismiss</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1434,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1511,13 +1513,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" t="s">
         <v>224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2247,238 +2249,238 @@
         <v>221</v>
       </c>
       <c r="B48" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="E48" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E52" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B57" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B60" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E60" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B61" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E61" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E62" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E63" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E64" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B65" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E65" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E68" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E69" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E70" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D943850-66CE-4CEF-947B-93F603CC06EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -76,15 +80,6 @@
     <t>リトアニア語</t>
   </si>
   <si>
-    <t>BackupResponseUnitType</t>
-  </si>
-  <si>
-    <t>応援の種類</t>
-  </si>
-  <si>
-    <t>Backup Response</t>
-  </si>
-  <si>
     <t>BackupLocal</t>
   </si>
   <si>
@@ -689,217 +684,390 @@
     <t>AllDismissItem</t>
   </si>
   <si>
-    <t>~r~全応援を解散~s~</t>
-  </si>
-  <si>
-    <t>~r~All Units Dismiss~s~</t>
+    <t>BackupResponseUnitType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>応援の種類</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Response</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>Drownding</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>Exhaustion</t>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODAnimal</t>
+  </si>
+  <si>
+    <t>CODKnife</t>
+  </si>
+  <si>
+    <t>CODShotPistol</t>
+  </si>
+  <si>
+    <t>CODElectricalShock</t>
+  </si>
+  <si>
+    <t>CODShotHeavyFirearm</t>
+  </si>
+  <si>
+    <t>CODShotShotgun</t>
+  </si>
+  <si>
+    <t>CODShotRifle</t>
+  </si>
+  <si>
+    <t>CODUnknown</t>
+  </si>
+  <si>
+    <t>強打</t>
+    <rPh sb="0" eb="2">
+      <t>キョウダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CODBang</t>
-  </si>
-  <si>
-    <t>強打</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CODRunOverByCar</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>車に轢かれた</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODFall</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高所から落下</t>
+    <rPh sb="0" eb="2">
+      <t>コウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動物による傷害</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>爆発</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBleeding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大量出血</t>
+    <rPh sb="0" eb="4">
+      <t>タイリョウシュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBarbedWire</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有刺鉄線</t>
+    <rPh sb="0" eb="4">
+      <t>ユウシテッセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>溺死</t>
+    <rPh sb="0" eb="2">
+      <t>デキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBurn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火傷</t>
+    <rPh sb="0" eb="2">
+      <t>ヤケド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODExhaustion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過労死</t>
+    <rPh sb="0" eb="3">
+      <t>カロウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刃物で刺された</t>
+    <rPh sb="0" eb="2">
+      <t>ハモノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenSome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何かで殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手で殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenBlunt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鋭いもので殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拳銃で撃たれた</t>
+    <rPh sb="0" eb="2">
+      <t>ケンジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気ショック</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重火器で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウカキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>散弾銃で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>サンダンジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフルで撃たれた</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODChoking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窒息死</t>
+    <rPh sb="0" eb="3">
+      <t>チッソクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細不明</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Run over by car</t>
-  </si>
-  <si>
-    <t>CODFall</t>
-  </si>
-  <si>
-    <t>高所から落下</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Fell from high place</t>
-  </si>
-  <si>
-    <t>CODAnimal</t>
-  </si>
-  <si>
-    <t>動物による傷害</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Injured by an animal</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CODExplosion</t>
-  </si>
-  <si>
-    <t>爆発</t>
-  </si>
-  <si>
-    <t>Explosion</t>
-  </si>
-  <si>
-    <t>CODBleeding</t>
-  </si>
-  <si>
-    <t>大量出血</t>
-  </si>
-  <si>
-    <t>Bleeding</t>
-  </si>
-  <si>
-    <t>CODBarbedWire</t>
-  </si>
-  <si>
-    <t>有刺鉄線</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Barbed Wire</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CODDrownding</t>
-  </si>
-  <si>
-    <t>溺死</t>
-  </si>
-  <si>
-    <t>Drownding</t>
-  </si>
-  <si>
-    <t>CODBurn</t>
-  </si>
-  <si>
-    <t>火傷</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Burn</t>
-  </si>
-  <si>
-    <t>CODExhaustion</t>
-  </si>
-  <si>
-    <t>過労死</t>
-  </si>
-  <si>
-    <t>Exhaustion</t>
-  </si>
-  <si>
-    <t>CODKnife</t>
-  </si>
-  <si>
-    <t>刃物で刺された</t>
-  </si>
-  <si>
-    <t>Knife</t>
-  </si>
-  <si>
-    <t>CODBeatenSome</t>
-  </si>
-  <si>
-    <t>何かで殴られた</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenHand</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Beaten with something</t>
-  </si>
-  <si>
-    <t>CODBeatenHand</t>
-  </si>
-  <si>
-    <t>手で殴られた</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with blunt</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Beaten with hand</t>
-  </si>
-  <si>
-    <t>CODBeatenBlunt</t>
-  </si>
-  <si>
-    <t>鋭いもので殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with blunt</t>
-  </si>
-  <si>
-    <t>CODShotPistol</t>
-  </si>
-  <si>
-    <t>拳銃で撃たれた</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Shot by pistol</t>
-  </si>
-  <si>
-    <t>CODElectricalShock</t>
-  </si>
-  <si>
-    <t>電気ショック</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Electrical Shock</t>
-  </si>
-  <si>
-    <t>CODShotHeavyFirearm</t>
-  </si>
-  <si>
-    <t>重火器で撃たれた</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Shot by heavy firearm</t>
-  </si>
-  <si>
-    <t>CODShotShotgun</t>
-  </si>
-  <si>
-    <t>散弾銃で撃たれた</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Shot by shotgun</t>
-  </si>
-  <si>
-    <t>CODShotRifle</t>
-  </si>
-  <si>
-    <t>ライフルで撃たれた</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Shot by rifle</t>
-  </si>
-  <si>
-    <t>CODChoking</t>
-  </si>
-  <si>
-    <t>窒息死</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Chocking</t>
-  </si>
-  <si>
-    <t>CODUnknown</t>
-  </si>
-  <si>
-    <t>詳細不明</t>
-  </si>
-  <si>
-    <t>Unknown</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全応援を解散</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>All Units Dismiss</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -929,7 +1097,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1265,15 +1433,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V70"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1338,847 +1511,847 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="V4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="V4" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="P5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
+      <c r="V5" t="s">
         <v>35</v>
       </c>
-      <c r="O5" t="s">
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="P5" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="V5" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="P6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="P6" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="V6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="K7" t="s">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
         <v>47</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s">
+        <v>82</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="s">
+        <v>97</v>
+      </c>
+      <c r="V15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" t="s">
+        <v>104</v>
+      </c>
+      <c r="V16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" t="s">
+        <v>119</v>
+      </c>
+      <c r="V18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" t="s">
+        <v>127</v>
+      </c>
+      <c r="V20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" t="s">
+        <v>135</v>
+      </c>
+      <c r="V21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" t="s">
+        <v>141</v>
+      </c>
+      <c r="O22" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" t="s">
+        <v>143</v>
+      </c>
+      <c r="V22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" t="s">
+        <v>150</v>
+      </c>
+      <c r="P23" t="s">
+        <v>151</v>
+      </c>
+      <c r="V23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" t="s">
+        <v>159</v>
+      </c>
+      <c r="V24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="P7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" t="s">
-        <v>56</v>
-      </c>
-      <c r="V8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" t="s">
-        <v>62</v>
-      </c>
-      <c r="V9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" t="s">
-        <v>69</v>
-      </c>
-      <c r="V10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" t="s">
-        <v>85</v>
-      </c>
-      <c r="V12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" t="s">
-        <v>93</v>
-      </c>
-      <c r="V13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" t="s">
-        <v>100</v>
-      </c>
-      <c r="V15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" t="s">
-        <v>105</v>
-      </c>
-      <c r="O16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" t="s">
-        <v>113</v>
-      </c>
-      <c r="O17" t="s">
-        <v>114</v>
-      </c>
-      <c r="P17" t="s">
-        <v>115</v>
-      </c>
-      <c r="V17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" t="s">
-        <v>120</v>
-      </c>
-      <c r="O18" t="s">
-        <v>121</v>
-      </c>
-      <c r="P18" t="s">
-        <v>122</v>
-      </c>
-      <c r="V18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" t="s">
-        <v>128</v>
-      </c>
-      <c r="O20" t="s">
-        <v>129</v>
-      </c>
-      <c r="P20" t="s">
-        <v>130</v>
-      </c>
-      <c r="V20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" t="s">
-        <v>136</v>
-      </c>
-      <c r="O21" t="s">
-        <v>137</v>
-      </c>
-      <c r="P21" t="s">
-        <v>138</v>
-      </c>
-      <c r="V21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" t="s">
-        <v>144</v>
-      </c>
-      <c r="O22" t="s">
-        <v>145</v>
-      </c>
-      <c r="P22" t="s">
-        <v>146</v>
-      </c>
-      <c r="V22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" t="s">
-        <v>151</v>
-      </c>
-      <c r="K23" t="s">
-        <v>152</v>
-      </c>
-      <c r="O23" t="s">
-        <v>153</v>
-      </c>
-      <c r="P23" t="s">
-        <v>154</v>
-      </c>
-      <c r="V23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" t="s">
-        <v>159</v>
-      </c>
-      <c r="K24" t="s">
-        <v>160</v>
-      </c>
-      <c r="O24" t="s">
-        <v>161</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="E25" t="s">
         <v>162</v>
       </c>
-      <c r="V24" t="s">
+      <c r="H25" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="K25" t="s">
         <v>164</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="O25" t="s">
         <v>165</v>
       </c>
-      <c r="H25" t="s">
+      <c r="P25" t="s">
         <v>166</v>
       </c>
-      <c r="K25" t="s">
+      <c r="V25" t="s">
         <v>167</v>
       </c>
-      <c r="O25" t="s">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>168</v>
       </c>
-      <c r="P25" t="s">
+      <c r="B26" t="s">
         <v>169</v>
       </c>
-      <c r="V25" t="s">
+      <c r="E26" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="H26" t="s">
         <v>171</v>
       </c>
-      <c r="B26" t="s">
+      <c r="K26" t="s">
         <v>172</v>
       </c>
-      <c r="E26" t="s">
+      <c r="O26" t="s">
         <v>173</v>
       </c>
-      <c r="H26" t="s">
+      <c r="P26" t="s">
         <v>174</v>
       </c>
-      <c r="K26" t="s">
+      <c r="V26" t="s">
         <v>175</v>
       </c>
-      <c r="O26" t="s">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>176</v>
       </c>
-      <c r="P26" t="s">
+      <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="V26" t="s">
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
         <v>179</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E29" t="s">
         <v>180</v>
       </c>
-      <c r="E28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>181</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>182</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>184</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>185</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>187</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>188</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>190</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>191</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>193</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>194</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>196</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>197</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>199</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>200</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>202</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>203</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>205</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>206</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
         <v>208</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>209</v>
       </c>
-      <c r="E40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
         <v>210</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E42" t="s">
         <v>211</v>
       </c>
-      <c r="E41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>212</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>213</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>215</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>216</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>218</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>219</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>221</v>
       </c>
-      <c r="B46" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>224</v>
-      </c>
       <c r="B48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" t="s">
+        <v>244</v>
+      </c>
+      <c r="E53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" t="s">
         <v>225</v>
       </c>
-      <c r="E48" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" t="s">
+        <v>250</v>
+      </c>
+      <c r="E57" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>227</v>
-      </c>
-      <c r="B50" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" t="s">
-        <v>233</v>
-      </c>
-      <c r="E52" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>235</v>
-      </c>
-      <c r="B53" t="s">
-        <v>236</v>
-      </c>
-      <c r="E53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>238</v>
-      </c>
-      <c r="B54" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" t="s">
-        <v>242</v>
-      </c>
-      <c r="E55" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" t="s">
-        <v>245</v>
-      </c>
-      <c r="E56" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>247</v>
-      </c>
-      <c r="B57" t="s">
-        <v>248</v>
-      </c>
-      <c r="E57" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>253</v>
       </c>
@@ -2186,132 +2359,133 @@
         <v>254</v>
       </c>
       <c r="E59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="E60" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>256</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>257</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="E62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>259</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>260</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E63" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="E64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" t="s">
         <v>262</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E65" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" t="s">
         <v>263</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E66" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="E67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>236</v>
+      </c>
+      <c r="B68" t="s">
         <v>265</v>
       </c>
-      <c r="B63" t="s">
+      <c r="E68" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>266</v>
       </c>
-      <c r="E63" t="s">
+      <c r="B69" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="E69" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" t="s">
         <v>268</v>
       </c>
-      <c r="B64" t="s">
+      <c r="E70" t="s">
         <v>269</v>
       </c>
-      <c r="E64" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>271</v>
-      </c>
-      <c r="B65" t="s">
-        <v>272</v>
-      </c>
-      <c r="E65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>274</v>
-      </c>
-      <c r="B66" t="s">
-        <v>275</v>
-      </c>
-      <c r="E66" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>277</v>
-      </c>
-      <c r="B67" t="s">
-        <v>278</v>
-      </c>
-      <c r="E67" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>280</v>
-      </c>
-      <c r="B68" t="s">
-        <v>281</v>
-      </c>
-      <c r="E68" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>283</v>
-      </c>
-      <c r="B69" t="s">
-        <v>284</v>
-      </c>
-      <c r="E69" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>286</v>
-      </c>
-      <c r="B70" t="s">
-        <v>287</v>
-      </c>
-      <c r="E70" t="s">
-        <v>288</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D943850-66CE-4CEF-947B-93F603CC06EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -76,15 +80,6 @@
     <t>リトアニア語</t>
   </si>
   <si>
-    <t>BackupResponseUnitType</t>
-  </si>
-  <si>
-    <t>応援の種類</t>
-  </si>
-  <si>
-    <t>Backup Response</t>
-  </si>
-  <si>
     <t>BackupLocal</t>
   </si>
   <si>
@@ -689,217 +684,390 @@
     <t>AllDismissItem</t>
   </si>
   <si>
+    <t>BackupResponseUnitType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>応援の種類</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Response</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>Drownding</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>Exhaustion</t>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODAnimal</t>
+  </si>
+  <si>
+    <t>CODKnife</t>
+  </si>
+  <si>
+    <t>CODShotPistol</t>
+  </si>
+  <si>
+    <t>CODElectricalShock</t>
+  </si>
+  <si>
+    <t>CODShotHeavyFirearm</t>
+  </si>
+  <si>
+    <t>CODShotShotgun</t>
+  </si>
+  <si>
+    <t>CODShotRifle</t>
+  </si>
+  <si>
+    <t>CODUnknown</t>
+  </si>
+  <si>
+    <t>強打</t>
+    <rPh sb="0" eb="2">
+      <t>キョウダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBang</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODRunOverByCar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>車に轢かれた</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODFall</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高所から落下</t>
+    <rPh sb="0" eb="2">
+      <t>コウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動物による傷害</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>爆発</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBleeding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大量出血</t>
+    <rPh sb="0" eb="4">
+      <t>タイリョウシュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBarbedWire</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有刺鉄線</t>
+    <rPh sb="0" eb="4">
+      <t>ユウシテッセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>溺死</t>
+    <rPh sb="0" eb="2">
+      <t>デキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBurn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火傷</t>
+    <rPh sb="0" eb="2">
+      <t>ヤケド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODExhaustion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過労死</t>
+    <rPh sb="0" eb="3">
+      <t>カロウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刃物で刺された</t>
+    <rPh sb="0" eb="2">
+      <t>ハモノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenSome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何かで殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手で殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenBlunt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鋭いもので殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拳銃で撃たれた</t>
+    <rPh sb="0" eb="2">
+      <t>ケンジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気ショック</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重火器で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウカキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>散弾銃で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>サンダンジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフルで撃たれた</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODChoking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窒息死</t>
+    <rPh sb="0" eb="3">
+      <t>チッソクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細不明</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run over by car</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fell from high place</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Injured by an animal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODExplosion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Barbed Wire</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODDrownding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Burn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenHand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with something</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with blunt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with hand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by pistol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Electrical Shock</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by heavy firearm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by shotgun</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by rifle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>全応援を解散</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>All Units Dismiss</t>
-  </si>
-  <si>
-    <t>CODBang</t>
-  </si>
-  <si>
-    <t>強打</t>
-  </si>
-  <si>
-    <t>CODRunOverByCar</t>
-  </si>
-  <si>
-    <t>車に轢かれた</t>
-  </si>
-  <si>
-    <t>Run over by car</t>
-  </si>
-  <si>
-    <t>CODFall</t>
-  </si>
-  <si>
-    <t>高所から落下</t>
-  </si>
-  <si>
-    <t>Fell from high place</t>
-  </si>
-  <si>
-    <t>CODAnimal</t>
-  </si>
-  <si>
-    <t>動物による傷害</t>
-  </si>
-  <si>
-    <t>Injured by an animal</t>
-  </si>
-  <si>
-    <t>CODExplosion</t>
-  </si>
-  <si>
-    <t>爆発</t>
-  </si>
-  <si>
-    <t>Explosion</t>
-  </si>
-  <si>
-    <t>CODBleeding</t>
-  </si>
-  <si>
-    <t>大量出血</t>
-  </si>
-  <si>
-    <t>Bleeding</t>
-  </si>
-  <si>
-    <t>CODBarbedWire</t>
-  </si>
-  <si>
-    <t>有刺鉄線</t>
-  </si>
-  <si>
-    <t>Barbed Wire</t>
-  </si>
-  <si>
-    <t>CODDrownding</t>
-  </si>
-  <si>
-    <t>溺死</t>
-  </si>
-  <si>
-    <t>Drownding</t>
-  </si>
-  <si>
-    <t>CODBurn</t>
-  </si>
-  <si>
-    <t>火傷</t>
-  </si>
-  <si>
-    <t>Burn</t>
-  </si>
-  <si>
-    <t>CODExhaustion</t>
-  </si>
-  <si>
-    <t>過労死</t>
-  </si>
-  <si>
-    <t>Exhaustion</t>
-  </si>
-  <si>
-    <t>CODKnife</t>
-  </si>
-  <si>
-    <t>刃物で刺された</t>
-  </si>
-  <si>
-    <t>Knife</t>
-  </si>
-  <si>
-    <t>CODBeatenSome</t>
-  </si>
-  <si>
-    <t>何かで殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with something</t>
-  </si>
-  <si>
-    <t>CODBeatenHand</t>
-  </si>
-  <si>
-    <t>手で殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with hand</t>
-  </si>
-  <si>
-    <t>CODBeatenBlunt</t>
-  </si>
-  <si>
-    <t>鋭いもので殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with blunt</t>
-  </si>
-  <si>
-    <t>CODShotPistol</t>
-  </si>
-  <si>
-    <t>拳銃で撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by pistol</t>
-  </si>
-  <si>
-    <t>CODElectricalShock</t>
-  </si>
-  <si>
-    <t>電気ショック</t>
-  </si>
-  <si>
-    <t>Electrical Shock</t>
-  </si>
-  <si>
-    <t>CODShotHeavyFirearm</t>
-  </si>
-  <si>
-    <t>重火器で撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by heavy firearm</t>
-  </si>
-  <si>
-    <t>CODShotShotgun</t>
-  </si>
-  <si>
-    <t>散弾銃で撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by shotgun</t>
-  </si>
-  <si>
-    <t>CODShotRifle</t>
-  </si>
-  <si>
-    <t>ライフルで撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by rifle</t>
-  </si>
-  <si>
-    <t>CODChoking</t>
-  </si>
-  <si>
-    <t>窒息死</t>
-  </si>
-  <si>
-    <t>Chocking</t>
-  </si>
-  <si>
-    <t>CODUnknown</t>
-  </si>
-  <si>
-    <t>詳細不明</t>
-  </si>
-  <si>
-    <t>Unknown</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -929,7 +1097,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1265,15 +1433,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V70"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1338,847 +1511,847 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="V4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="V4" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="P5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
+      <c r="V5" t="s">
         <v>35</v>
       </c>
-      <c r="O5" t="s">
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="P5" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="V5" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="P6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="P6" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="V6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="K7" t="s">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
         <v>47</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s">
+        <v>82</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="s">
+        <v>97</v>
+      </c>
+      <c r="V15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" t="s">
+        <v>104</v>
+      </c>
+      <c r="V16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" t="s">
+        <v>119</v>
+      </c>
+      <c r="V18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" t="s">
+        <v>127</v>
+      </c>
+      <c r="V20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" t="s">
+        <v>135</v>
+      </c>
+      <c r="V21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" t="s">
+        <v>141</v>
+      </c>
+      <c r="O22" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" t="s">
+        <v>143</v>
+      </c>
+      <c r="V22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" t="s">
+        <v>150</v>
+      </c>
+      <c r="P23" t="s">
+        <v>151</v>
+      </c>
+      <c r="V23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" t="s">
+        <v>159</v>
+      </c>
+      <c r="V24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="P7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" t="s">
-        <v>56</v>
-      </c>
-      <c r="V8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" t="s">
-        <v>62</v>
-      </c>
-      <c r="V9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" t="s">
-        <v>69</v>
-      </c>
-      <c r="V10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" t="s">
-        <v>85</v>
-      </c>
-      <c r="V12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" t="s">
-        <v>93</v>
-      </c>
-      <c r="V13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" t="s">
-        <v>100</v>
-      </c>
-      <c r="V15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" t="s">
-        <v>105</v>
-      </c>
-      <c r="O16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" t="s">
-        <v>113</v>
-      </c>
-      <c r="O17" t="s">
-        <v>114</v>
-      </c>
-      <c r="P17" t="s">
-        <v>115</v>
-      </c>
-      <c r="V17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" t="s">
-        <v>120</v>
-      </c>
-      <c r="O18" t="s">
-        <v>121</v>
-      </c>
-      <c r="P18" t="s">
-        <v>122</v>
-      </c>
-      <c r="V18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" t="s">
-        <v>128</v>
-      </c>
-      <c r="O20" t="s">
-        <v>129</v>
-      </c>
-      <c r="P20" t="s">
-        <v>130</v>
-      </c>
-      <c r="V20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" t="s">
-        <v>136</v>
-      </c>
-      <c r="O21" t="s">
-        <v>137</v>
-      </c>
-      <c r="P21" t="s">
-        <v>138</v>
-      </c>
-      <c r="V21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" t="s">
-        <v>144</v>
-      </c>
-      <c r="O22" t="s">
-        <v>145</v>
-      </c>
-      <c r="P22" t="s">
-        <v>146</v>
-      </c>
-      <c r="V22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" t="s">
-        <v>151</v>
-      </c>
-      <c r="K23" t="s">
-        <v>152</v>
-      </c>
-      <c r="O23" t="s">
-        <v>153</v>
-      </c>
-      <c r="P23" t="s">
-        <v>154</v>
-      </c>
-      <c r="V23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" t="s">
-        <v>159</v>
-      </c>
-      <c r="K24" t="s">
-        <v>160</v>
-      </c>
-      <c r="O24" t="s">
-        <v>161</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="E25" t="s">
         <v>162</v>
       </c>
-      <c r="V24" t="s">
+      <c r="H25" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="K25" t="s">
         <v>164</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="O25" t="s">
         <v>165</v>
       </c>
-      <c r="H25" t="s">
+      <c r="P25" t="s">
         <v>166</v>
       </c>
-      <c r="K25" t="s">
+      <c r="V25" t="s">
         <v>167</v>
       </c>
-      <c r="O25" t="s">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>168</v>
       </c>
-      <c r="P25" t="s">
+      <c r="B26" t="s">
         <v>169</v>
       </c>
-      <c r="V25" t="s">
+      <c r="E26" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="H26" t="s">
         <v>171</v>
       </c>
-      <c r="B26" t="s">
+      <c r="K26" t="s">
         <v>172</v>
       </c>
-      <c r="E26" t="s">
+      <c r="O26" t="s">
         <v>173</v>
       </c>
-      <c r="H26" t="s">
+      <c r="P26" t="s">
         <v>174</v>
       </c>
-      <c r="K26" t="s">
+      <c r="V26" t="s">
         <v>175</v>
       </c>
-      <c r="O26" t="s">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>176</v>
       </c>
-      <c r="P26" t="s">
+      <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="V26" t="s">
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
         <v>179</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E29" t="s">
         <v>180</v>
       </c>
-      <c r="E28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>181</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>182</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>184</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>185</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>187</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>188</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>190</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>191</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>193</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>194</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>196</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>197</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>199</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>200</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>202</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>203</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>205</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>206</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
         <v>208</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>209</v>
       </c>
-      <c r="E40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
         <v>210</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E42" t="s">
         <v>211</v>
       </c>
-      <c r="E41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>212</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>213</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>215</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>216</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>218</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>219</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>221</v>
       </c>
-      <c r="B46" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>224</v>
-      </c>
       <c r="B48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" t="s">
+        <v>244</v>
+      </c>
+      <c r="E53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" t="s">
         <v>225</v>
       </c>
-      <c r="E48" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" t="s">
+        <v>250</v>
+      </c>
+      <c r="E57" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>227</v>
-      </c>
-      <c r="B50" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" t="s">
-        <v>233</v>
-      </c>
-      <c r="E52" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>235</v>
-      </c>
-      <c r="B53" t="s">
-        <v>236</v>
-      </c>
-      <c r="E53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>238</v>
-      </c>
-      <c r="B54" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" t="s">
-        <v>242</v>
-      </c>
-      <c r="E55" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" t="s">
-        <v>245</v>
-      </c>
-      <c r="E56" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>247</v>
-      </c>
-      <c r="B57" t="s">
-        <v>248</v>
-      </c>
-      <c r="E57" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>253</v>
       </c>
@@ -2186,132 +2359,133 @@
         <v>254</v>
       </c>
       <c r="E59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="E60" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>256</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>257</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="E62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>259</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>260</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E63" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="E64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" t="s">
         <v>262</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E65" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" t="s">
         <v>263</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E66" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="E67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>236</v>
+      </c>
+      <c r="B68" t="s">
         <v>265</v>
       </c>
-      <c r="B63" t="s">
+      <c r="E68" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>266</v>
       </c>
-      <c r="E63" t="s">
+      <c r="B69" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="E69" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" t="s">
         <v>268</v>
       </c>
-      <c r="B64" t="s">
+      <c r="E70" t="s">
         <v>269</v>
       </c>
-      <c r="E64" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>271</v>
-      </c>
-      <c r="B65" t="s">
-        <v>272</v>
-      </c>
-      <c r="E65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>274</v>
-      </c>
-      <c r="B66" t="s">
-        <v>275</v>
-      </c>
-      <c r="E66" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>277</v>
-      </c>
-      <c r="B67" t="s">
-        <v>278</v>
-      </c>
-      <c r="E67" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>280</v>
-      </c>
-      <c r="B68" t="s">
-        <v>281</v>
-      </c>
-      <c r="E68" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>283</v>
-      </c>
-      <c r="B69" t="s">
-        <v>284</v>
-      </c>
-      <c r="E69" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>286</v>
-      </c>
-      <c r="B70" t="s">
-        <v>287</v>
-      </c>
-      <c r="E70" t="s">
-        <v>288</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D943850-66CE-4CEF-947B-93F603CC06EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="388">
   <si>
     <t>日本語</t>
   </si>
@@ -80,6 +76,21 @@
     <t>リトアニア語</t>
   </si>
   <si>
+    <t>BackupResponseUnitType</t>
+  </si>
+  <si>
+    <t>応援の種類</t>
+  </si>
+  <si>
+    <t>Backup Response</t>
+  </si>
+  <si>
+    <t>기관 지원요청 종류</t>
+  </si>
+  <si>
+    <t>Typ zalozni odezvy</t>
+  </si>
+  <si>
     <t>BackupLocal</t>
   </si>
   <si>
@@ -90,6 +101,9 @@
   </si>
   <si>
     <t>Locale</t>
+  </si>
+  <si>
+    <t>인근 순찰차 지원요청</t>
   </si>
   <si>
     <t xml:space="preserve">Asayiş
@@ -114,6 +128,9 @@
     <t xml:space="preserve">Statale </t>
   </si>
   <si>
+    <t>본청 지원요청</t>
+  </si>
+  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -138,6 +155,9 @@
     <t xml:space="preserve">Squadre Speciali </t>
   </si>
   <si>
+    <t>경찰기동대(POSS)</t>
+  </si>
+  <si>
     <t>Polis Özel Harekat</t>
   </si>
   <si>
@@ -156,6 +176,9 @@
     <t xml:space="preserve">Squadre speciale </t>
   </si>
   <si>
+    <t>경찰특공대(SOU)</t>
+  </si>
+  <si>
     <t>Jandarma Özel Harekat</t>
   </si>
   <si>
@@ -171,6 +194,9 @@
     <t xml:space="preserve">Elicottero </t>
   </si>
   <si>
+    <t>본서 항공지원</t>
+  </si>
+  <si>
     <t>Helicóptero Local</t>
   </si>
   <si>
@@ -189,6 +215,9 @@
     <t xml:space="preserve">Elicottero squadra speciale </t>
   </si>
   <si>
+    <t>경찰특공대 항공지원</t>
+  </si>
+  <si>
     <t>Helicóptero Noose</t>
   </si>
   <si>
@@ -210,6 +239,9 @@
     <t xml:space="preserve">Vigili del fuoco </t>
   </si>
   <si>
+    <t>119 화재 지원요청</t>
+  </si>
+  <si>
     <t>Bombeiros</t>
   </si>
   <si>
@@ -234,6 +266,9 @@
     <t>Ambulanza</t>
   </si>
   <si>
+    <t>119 구급 지원요청</t>
+  </si>
+  <si>
     <t>Ambulância</t>
   </si>
   <si>
@@ -258,6 +293,9 @@
     <t>Sesso Maschio</t>
   </si>
   <si>
+    <t>성별-남성</t>
+  </si>
+  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -282,6 +320,9 @@
     <t>Sesso Femmina</t>
   </si>
   <si>
+    <t>성별-여성</t>
+  </si>
+  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -303,6 +344,9 @@
     <t>Codice 2</t>
   </si>
   <si>
+    <t>비 긴급출동- 코드2</t>
+  </si>
+  <si>
     <t>Código 2</t>
   </si>
   <si>
@@ -324,6 +368,9 @@
     <t>Codice 3</t>
   </si>
   <si>
+    <t>긴급출동- 코드1</t>
+  </si>
+  <si>
     <t>Código 3</t>
   </si>
   <si>
@@ -348,6 +395,9 @@
     <t xml:space="preserve">Posto di blocco </t>
   </si>
   <si>
+    <t>교통통제</t>
+  </si>
+  <si>
     <t>Parada de Trânsito</t>
   </si>
   <si>
@@ -369,6 +419,9 @@
     <t>Inseguimento</t>
   </si>
   <si>
+    <t>차량도주</t>
+  </si>
+  <si>
     <t>Perseguição</t>
   </si>
   <si>
@@ -393,6 +446,9 @@
     <t xml:space="preserve">Unità di pattuglia </t>
   </si>
   <si>
+    <t>교통경찰</t>
+  </si>
+  <si>
     <t>Unidade de Patrulha</t>
   </si>
   <si>
@@ -417,6 +473,9 @@
     <t>Unità pattuglia uomo</t>
   </si>
   <si>
+    <t>남경</t>
+  </si>
+  <si>
     <t>Unidade de Patrulha Masculina</t>
   </si>
   <si>
@@ -441,6 +500,9 @@
     <t>Unità pattuglia donna</t>
   </si>
   <si>
+    <t>여경</t>
+  </si>
+  <si>
     <t>Unidade de Patrulha Feminina</t>
   </si>
   <si>
@@ -465,6 +527,9 @@
     <t>Unità motorizzata</t>
   </si>
   <si>
+    <t>자전거 순경</t>
+  </si>
+  <si>
     <t>Unidade de Motocicleta</t>
   </si>
   <si>
@@ -489,6 +554,9 @@
     <t xml:space="preserve">Unità speciale </t>
   </si>
   <si>
+    <t>특수 작전병력</t>
+  </si>
+  <si>
     <t>Unidade Especial</t>
   </si>
   <si>
@@ -510,6 +578,9 @@
     <t>Supporto aereo</t>
   </si>
   <si>
+    <t>항공대</t>
+  </si>
+  <si>
     <t>Unidade de Helicóptero</t>
   </si>
   <si>
@@ -534,6 +605,9 @@
     <t>Servizio Di Emergenza</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>Serviço de Emergência</t>
   </si>
   <si>
@@ -552,6 +626,12 @@
     <t>検視官</t>
   </si>
   <si>
+    <t>과학수사관리관(KCSI)</t>
+  </si>
+  <si>
+    <t>Koroner</t>
+  </si>
+  <si>
     <t>NoDeadBodies</t>
   </si>
   <si>
@@ -561,6 +641,12 @@
     <t>There is no ~r~dead bodies~s~ nearby you.</t>
   </si>
   <si>
+    <t>시체 미발견</t>
+  </si>
+  <si>
+    <t>V tve blizkosti nejsou zadna ~r~mrtva tela~~~.</t>
+  </si>
+  <si>
     <t>UnitRequested</t>
   </si>
   <si>
@@ -570,6 +656,12 @@
     <t>Requested ~b~{0}~s~ unit to Dispatch.</t>
   </si>
   <si>
+    <t>지원병력 요청</t>
+  </si>
+  <si>
+    <t>Pozadovana jednotka ~b~{0}~s~ se odesila do akce.</t>
+  </si>
+  <si>
     <t>CoronerCheckPls</t>
   </si>
   <si>
@@ -579,6 +671,12 @@
     <t>You can check ~b~Coroner's Report~s~ for more information.</t>
   </si>
   <si>
+    <t>자세한 정보는 과학수사관리관(KCSI)의 현장 감식 보고서를 확인해주세요.</t>
+  </si>
+  <si>
+    <t>Dalsi informace najdete v ~b~Koroner zprave~s~.</t>
+  </si>
+  <si>
     <t>CoronerBye</t>
   </si>
   <si>
@@ -588,6 +686,12 @@
     <t>Have a nice day! Officer!</t>
   </si>
   <si>
+    <t>과학수사관리관(KCSI) 현장 감식 종료</t>
+  </si>
+  <si>
+    <t>Hezky den! Dustojniku!</t>
+  </si>
+  <si>
     <t>TeleportUnit</t>
   </si>
   <si>
@@ -597,6 +701,12 @@
     <t>Press {0} to teleport the backup unit nearby.</t>
   </si>
   <si>
+    <t>지원병력을 근처로 이동 시킵니다.</t>
+  </si>
+  <si>
+    <t>Stisknutim tlacitka {0} teleportujete zalozni jednotku pobliz k vam.</t>
+  </si>
+  <si>
     <t>CoronerMenu</t>
   </si>
   <si>
@@ -606,6 +716,12 @@
     <t>Coroner Menu</t>
   </si>
   <si>
+    <t>과학수사관리관(KCSI) 메뉴</t>
+  </si>
+  <si>
+    <t>Koroner Menu</t>
+  </si>
+  <si>
     <t>CoronerReport</t>
   </si>
   <si>
@@ -615,6 +731,12 @@
     <t>Coroner Report</t>
   </si>
   <si>
+    <t>과학수사관리관(KCSI) 현장 감식 보고서</t>
+  </si>
+  <si>
+    <t>Koroner Zprava</t>
+  </si>
+  <si>
     <t>CoronerReportCount</t>
   </si>
   <si>
@@ -624,6 +746,12 @@
     <t>Report Count: {0}</t>
   </si>
   <si>
+    <t>과학수사관리관(KCSI) 현장 감식 보고서 건수</t>
+  </si>
+  <si>
+    <t>Pocet prehledu: {0}</t>
+  </si>
+  <si>
     <t>NoData</t>
   </si>
   <si>
@@ -633,18 +761,36 @@
     <t>No Data</t>
   </si>
   <si>
+    <t>정보없음</t>
+  </si>
+  <si>
+    <t>Zadna data</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>名前</t>
   </si>
   <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>Nazev</t>
+  </si>
+  <si>
     <t>Sex</t>
   </si>
   <si>
     <t>性別</t>
   </si>
   <si>
+    <t>성별</t>
+  </si>
+  <si>
+    <t>Pohlavi</t>
+  </si>
+  <si>
     <t>CauseOfDeath</t>
   </si>
   <si>
@@ -654,6 +800,12 @@
     <t>Cause of Death</t>
   </si>
   <si>
+    <t>사인</t>
+  </si>
+  <si>
+    <t>Pricina smrti</t>
+  </si>
+  <si>
     <t>DiedDay</t>
   </si>
   <si>
@@ -663,6 +815,12 @@
     <t>Died Day</t>
   </si>
   <si>
+    <t>사망시각</t>
+  </si>
+  <si>
+    <t>Den smrti</t>
+  </si>
+  <si>
     <t>BackupVehicle</t>
   </si>
   <si>
@@ -672,6 +830,12 @@
     <t>Backup Vehicle</t>
   </si>
   <si>
+    <t>차량지원 요청</t>
+  </si>
+  <si>
+    <t>Zalozni vozidlo</t>
+  </si>
+  <si>
     <t>BackupOfficer</t>
   </si>
   <si>
@@ -681,393 +845,358 @@
     <t>Backup Officer</t>
   </si>
   <si>
+    <t>순경 지원요청</t>
+  </si>
+  <si>
+    <t>Zalozni dustojnik</t>
+  </si>
+  <si>
     <t>AllDismissItem</t>
   </si>
   <si>
-    <t>BackupResponseUnitType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>応援の種類</t>
-    <rPh sb="0" eb="2">
-      <t>オウエン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Backup Response</t>
-    <phoneticPr fontId="2"/>
+    <t>全応援を解散</t>
+  </si>
+  <si>
+    <t>All Units Dismiss</t>
+  </si>
+  <si>
+    <t>모두 해산</t>
+  </si>
+  <si>
+    <t>Vsechny jednotky propusteny</t>
+  </si>
+  <si>
+    <t>CODBang</t>
+  </si>
+  <si>
+    <t>強打</t>
+  </si>
+  <si>
+    <t>강타</t>
+  </si>
+  <si>
+    <t>Byl/a uderen/a neznamim predmetem</t>
+  </si>
+  <si>
+    <t>CODRunOverByCar</t>
+  </si>
+  <si>
+    <t>車に轢かれた</t>
+  </si>
+  <si>
+    <t>Run over by car</t>
+  </si>
+  <si>
+    <t>교통사고가 발생함</t>
+  </si>
+  <si>
+    <t>Byl/a prejet/a autem</t>
+  </si>
+  <si>
+    <t>CODFall</t>
+  </si>
+  <si>
+    <t>高所から落下</t>
+  </si>
+  <si>
+    <t>Fell from high place</t>
+  </si>
+  <si>
+    <t>낙상사고</t>
+  </si>
+  <si>
+    <t>Spadl/a z vysokeho mista</t>
+  </si>
+  <si>
+    <t>CODAnimal</t>
+  </si>
+  <si>
+    <t>動物による傷害</t>
+  </si>
+  <si>
+    <t>Injured by an animal</t>
+  </si>
+  <si>
+    <t>동물</t>
+  </si>
+  <si>
+    <t>Byl/a zranen/a zveri</t>
+  </si>
+  <si>
+    <t>CODExplosion</t>
+  </si>
+  <si>
+    <t>爆発</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>폭발</t>
+  </si>
+  <si>
+    <t>Byla exploze</t>
+  </si>
+  <si>
+    <t>CODBleeding</t>
+  </si>
+  <si>
+    <t>大量出血</t>
   </si>
   <si>
     <t>Bleeding</t>
   </si>
   <si>
+    <t>과다출혈</t>
+  </si>
+  <si>
+    <t>Bylo vykrvaceni</t>
+  </si>
+  <si>
+    <t>CODBarbedWire</t>
+  </si>
+  <si>
+    <t>有刺鉄線</t>
+  </si>
+  <si>
+    <t>Barbed Wire</t>
+  </si>
+  <si>
+    <t>철책</t>
+  </si>
+  <si>
+    <t>Byl ostnaty drat</t>
+  </si>
+  <si>
+    <t>CODDrownding</t>
+  </si>
+  <si>
+    <t>溺死</t>
+  </si>
+  <si>
     <t>Drownding</t>
   </si>
   <si>
-    <t>Explosion</t>
+    <t>익사사고</t>
+  </si>
+  <si>
+    <t>Bylo utopeni</t>
+  </si>
+  <si>
+    <t>CODBurn</t>
+  </si>
+  <si>
+    <t>火傷</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>화상</t>
+  </si>
+  <si>
+    <t>Bylo uhoreni</t>
+  </si>
+  <si>
+    <t>CODExhaustion</t>
+  </si>
+  <si>
+    <t>過労死</t>
   </si>
   <si>
     <t>Exhaustion</t>
   </si>
   <si>
+    <t>과로사</t>
+  </si>
+  <si>
+    <t>Bylo vycerpani</t>
+  </si>
+  <si>
+    <t>CODKnife</t>
+  </si>
+  <si>
+    <t>刃物で刺された</t>
+  </si>
+  <si>
     <t>Knife</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODAnimal</t>
-  </si>
-  <si>
-    <t>CODKnife</t>
+  </si>
+  <si>
+    <t>칼에 찔림</t>
+  </si>
+  <si>
+    <t>Bylo bodnuti nozem</t>
+  </si>
+  <si>
+    <t>CODBeatenSome</t>
+  </si>
+  <si>
+    <t>何かで殴られた</t>
+  </si>
+  <si>
+    <t>Beaten with something</t>
+  </si>
+  <si>
+    <t>묻지마 폭행</t>
+  </si>
+  <si>
+    <t>Bylo mlacenim neznamym predmetem</t>
+  </si>
+  <si>
+    <t>CODBeatenHand</t>
+  </si>
+  <si>
+    <t>手で殴られた</t>
+  </si>
+  <si>
+    <t>Beaten with hand</t>
+  </si>
+  <si>
+    <t>폭행을 당함</t>
+  </si>
+  <si>
+    <t>Bylo utluceny rukou</t>
+  </si>
+  <si>
+    <t>CODBeatenBlunt</t>
+  </si>
+  <si>
+    <t>鋭いもので殴られた</t>
+  </si>
+  <si>
+    <t>Beaten with blunt</t>
+  </si>
+  <si>
+    <t>날카로운 흉기에 찔림</t>
+  </si>
+  <si>
+    <t>Bylo utluceny tupym predmetem</t>
   </si>
   <si>
     <t>CODShotPistol</t>
   </si>
   <si>
+    <t>拳銃で撃たれた</t>
+  </si>
+  <si>
+    <t>Shot by pistol</t>
+  </si>
+  <si>
+    <t>권총으로 피격당함</t>
+  </si>
+  <si>
+    <t>Byl vystrel z pistole</t>
+  </si>
+  <si>
     <t>CODElectricalShock</t>
   </si>
   <si>
+    <t>電気ショック</t>
+  </si>
+  <si>
+    <t>Electrical Shock</t>
+  </si>
+  <si>
+    <t>감전사고</t>
+  </si>
+  <si>
+    <t>Byl elektricky sok</t>
+  </si>
+  <si>
     <t>CODShotHeavyFirearm</t>
   </si>
   <si>
+    <t>重火器で撃たれた</t>
+  </si>
+  <si>
+    <t>Shot by heavy firearm</t>
+  </si>
+  <si>
+    <t>중화기에 피격당함</t>
+  </si>
+  <si>
+    <t>Byl/a strelen/a tezkou strelnou zbrani</t>
+  </si>
+  <si>
     <t>CODShotShotgun</t>
   </si>
   <si>
+    <t>散弾銃で撃たれた</t>
+  </si>
+  <si>
+    <t>Shot by shotgun</t>
+  </si>
+  <si>
+    <t>샷건으로 피격당함</t>
+  </si>
+  <si>
+    <t>Byl vystrel z brokovnice</t>
+  </si>
+  <si>
     <t>CODShotRifle</t>
   </si>
   <si>
+    <t>ライフルで撃たれた</t>
+  </si>
+  <si>
+    <t>Shot by rifle</t>
+  </si>
+  <si>
+    <t>돌격소총으로 피격당함</t>
+  </si>
+  <si>
+    <t>Byl vystrel z pusky</t>
+  </si>
+  <si>
+    <t>CODChoking</t>
+  </si>
+  <si>
+    <t>窒息死</t>
+  </si>
+  <si>
+    <t>Chocking</t>
+  </si>
+  <si>
+    <t>확인 중</t>
+  </si>
+  <si>
+    <t>Bylo skrceni osoby</t>
+  </si>
+  <si>
     <t>CODUnknown</t>
   </si>
   <si>
-    <t>強打</t>
-    <rPh sb="0" eb="2">
-      <t>キョウダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODBang</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODRunOverByCar</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>車に轢かれた</t>
-    <rPh sb="0" eb="1">
-      <t>クルマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODFall</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>高所から落下</t>
-    <rPh sb="0" eb="2">
-      <t>コウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ラッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>動物による傷害</t>
-    <rPh sb="0" eb="2">
-      <t>ドウブツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>爆発</t>
-    <rPh sb="0" eb="2">
-      <t>バクハツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODBleeding</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大量出血</t>
-    <rPh sb="0" eb="4">
-      <t>タイリョウシュッケツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODBarbedWire</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>有刺鉄線</t>
-    <rPh sb="0" eb="4">
-      <t>ユウシテッセン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>溺死</t>
-    <rPh sb="0" eb="2">
-      <t>デキシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODBurn</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>火傷</t>
-    <rPh sb="0" eb="2">
-      <t>ヤケド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODExhaustion</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>過労死</t>
-    <rPh sb="0" eb="3">
-      <t>カロウシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>刃物で刺された</t>
-    <rPh sb="0" eb="2">
-      <t>ハモノ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODBeatenSome</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>何かで殴られた</t>
-    <rPh sb="0" eb="1">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナグ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>手で殴られた</t>
-    <rPh sb="0" eb="1">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナグ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODBeatenBlunt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>鋭いもので殴られた</t>
-    <rPh sb="0" eb="1">
-      <t>スルド</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナグ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>拳銃で撃たれた</t>
-    <rPh sb="0" eb="2">
-      <t>ケンジュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>電気ショック</t>
-    <rPh sb="0" eb="2">
-      <t>デンキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重火器で撃たれた</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウカキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>散弾銃で撃たれた</t>
-    <rPh sb="0" eb="3">
-      <t>サンダンジュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ライフルで撃たれた</t>
-    <rPh sb="5" eb="6">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODChoking</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>窒息死</t>
-    <rPh sb="0" eb="3">
-      <t>チッソクシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>詳細不明</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Unknown</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Run over by car</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Fell from high place</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Injured by an animal</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODExplosion</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Barbed Wire</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODDrownding</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Burn</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CODBeatenHand</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Beaten with something</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Beaten with blunt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Beaten with hand</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Shot by pistol</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Electrical Shock</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Shot by heavy firearm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Shot by shotgun</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Shot by rifle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Chocking</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全応援を解散</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>All Units Dismiss</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>알 수 없음</t>
+  </si>
+  <si>
+    <t>Je neznama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1097,7 +1226,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1433,20 +1562,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V70"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1511,981 +1635,1277 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s">
+        <v>63</v>
+      </c>
+      <c r="V8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" t="s">
+        <v>96</v>
+      </c>
+      <c r="V12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" t="s">
+        <v>105</v>
+      </c>
+      <c r="V13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" t="s">
+        <v>113</v>
+      </c>
+      <c r="V15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" t="s">
+        <v>121</v>
+      </c>
+      <c r="V16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" t="s">
+        <v>130</v>
+      </c>
+      <c r="V17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P18" t="s">
+        <v>138</v>
+      </c>
+      <c r="V18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" t="s">
+        <v>147</v>
+      </c>
+      <c r="V20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" t="s">
+        <v>156</v>
+      </c>
+      <c r="V21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" t="s">
+        <v>165</v>
+      </c>
+      <c r="V22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" t="s">
+        <v>173</v>
+      </c>
+      <c r="P23" t="s">
+        <v>174</v>
+      </c>
+      <c r="V23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" t="s">
+        <v>182</v>
+      </c>
+      <c r="P24" t="s">
+        <v>183</v>
+      </c>
+      <c r="V24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" t="s">
+        <v>190</v>
+      </c>
+      <c r="P25" t="s">
+        <v>191</v>
+      </c>
+      <c r="V25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" t="s">
+        <v>199</v>
+      </c>
+      <c r="P26" t="s">
+        <v>200</v>
+      </c>
+      <c r="V26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="P28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" t="s">
+        <v>208</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" t="s">
+        <v>214</v>
+      </c>
+      <c r="P30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" t="s">
+        <v>218</v>
+      </c>
+      <c r="I31" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
         <v>222</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E32" t="s">
         <v>223</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I32" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" t="s">
-        <v>53</v>
-      </c>
-      <c r="V8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" t="s">
-        <v>74</v>
-      </c>
-      <c r="V11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" t="s">
-        <v>82</v>
-      </c>
-      <c r="V12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O13" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" t="s">
-        <v>90</v>
-      </c>
-      <c r="V13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15" t="s">
-        <v>96</v>
-      </c>
-      <c r="P15" t="s">
-        <v>97</v>
-      </c>
-      <c r="V15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" t="s">
-        <v>104</v>
-      </c>
-      <c r="V16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17" t="s">
-        <v>110</v>
-      </c>
-      <c r="O17" t="s">
-        <v>111</v>
-      </c>
-      <c r="P17" t="s">
-        <v>112</v>
-      </c>
-      <c r="V17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" t="s">
-        <v>117</v>
-      </c>
-      <c r="O18" t="s">
-        <v>118</v>
-      </c>
-      <c r="P18" t="s">
-        <v>119</v>
-      </c>
-      <c r="V18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" t="s">
-        <v>126</v>
-      </c>
-      <c r="P20" t="s">
-        <v>127</v>
-      </c>
-      <c r="V20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" t="s">
-        <v>133</v>
-      </c>
-      <c r="O21" t="s">
-        <v>134</v>
-      </c>
-      <c r="P21" t="s">
-        <v>135</v>
-      </c>
-      <c r="V21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" t="s">
-        <v>141</v>
-      </c>
-      <c r="O22" t="s">
-        <v>142</v>
-      </c>
-      <c r="P22" t="s">
-        <v>143</v>
-      </c>
-      <c r="V22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" t="s">
-        <v>148</v>
-      </c>
-      <c r="K23" t="s">
-        <v>149</v>
-      </c>
-      <c r="O23" t="s">
-        <v>150</v>
-      </c>
-      <c r="P23" t="s">
-        <v>151</v>
-      </c>
-      <c r="V23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" t="s">
-        <v>155</v>
-      </c>
-      <c r="H24" t="s">
-        <v>156</v>
-      </c>
-      <c r="K24" t="s">
-        <v>157</v>
-      </c>
-      <c r="O24" t="s">
-        <v>158</v>
-      </c>
-      <c r="P24" t="s">
-        <v>159</v>
-      </c>
-      <c r="V24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" t="s">
-        <v>164</v>
-      </c>
-      <c r="O25" t="s">
-        <v>165</v>
-      </c>
-      <c r="P25" t="s">
-        <v>166</v>
-      </c>
-      <c r="V25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" t="s">
-        <v>172</v>
-      </c>
-      <c r="O26" t="s">
-        <v>173</v>
-      </c>
-      <c r="P26" t="s">
-        <v>174</v>
-      </c>
-      <c r="V26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="P32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+      <c r="I33" t="s">
+        <v>229</v>
+      </c>
+      <c r="P33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+      <c r="I35" t="s">
+        <v>234</v>
+      </c>
+      <c r="P35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+      <c r="I36" t="s">
+        <v>239</v>
+      </c>
+      <c r="P36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+      <c r="I37" t="s">
+        <v>244</v>
+      </c>
+      <c r="P37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+      <c r="I38" t="s">
+        <v>249</v>
+      </c>
+      <c r="P38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+      <c r="I40" t="s">
+        <v>253</v>
+      </c>
+      <c r="P40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+      <c r="I41" t="s">
+        <v>257</v>
+      </c>
+      <c r="P41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="E42" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+      <c r="I42" t="s">
+        <v>262</v>
+      </c>
+      <c r="P42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+      <c r="I43" t="s">
+        <v>267</v>
+      </c>
+      <c r="P43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="E45" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+      <c r="I45" t="s">
+        <v>272</v>
+      </c>
+      <c r="P45" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="E46" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+      <c r="I46" t="s">
+        <v>277</v>
+      </c>
+      <c r="P46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="B48" t="s">
+        <v>280</v>
+      </c>
+      <c r="E48" t="s">
+        <v>281</v>
+      </c>
+      <c r="I48" t="s">
+        <v>282</v>
+      </c>
+      <c r="P48" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>284</v>
+      </c>
+      <c r="B50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I50" t="s">
+        <v>286</v>
+      </c>
+      <c r="P50" t="s">
         <v>287</v>
       </c>
-      <c r="E48" t="s">
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>239</v>
-      </c>
-      <c r="B50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>240</v>
-      </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="E51" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+      <c r="I51" t="s">
+        <v>291</v>
+      </c>
+      <c r="P51" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="E52" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+      <c r="I52" t="s">
+        <v>296</v>
+      </c>
+      <c r="P52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="E53" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+      <c r="I53" t="s">
+        <v>301</v>
+      </c>
+      <c r="P53" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+      <c r="I54" t="s">
+        <v>306</v>
+      </c>
+      <c r="P54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="B55" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="E55" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+      <c r="I55" t="s">
+        <v>311</v>
+      </c>
+      <c r="P55" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B56" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="E56" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+      <c r="I56" t="s">
+        <v>316</v>
+      </c>
+      <c r="P56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="E57" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+      <c r="I57" t="s">
+        <v>321</v>
+      </c>
+      <c r="P57" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="B58" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
       <c r="E58" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+      <c r="I58" t="s">
+        <v>326</v>
+      </c>
+      <c r="P58" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="E59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+      <c r="I59" t="s">
+        <v>331</v>
+      </c>
+      <c r="P59" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c r="B60" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="E60" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+      <c r="I60" t="s">
+        <v>336</v>
+      </c>
+      <c r="P60" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="B61" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="E61" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+      <c r="I61" t="s">
+        <v>341</v>
+      </c>
+      <c r="P61" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="B62" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+      <c r="I62" t="s">
+        <v>346</v>
+      </c>
+      <c r="P62" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="E63" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="I63" t="s">
+        <v>351</v>
+      </c>
+      <c r="P63" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>354</v>
       </c>
       <c r="E64" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+      <c r="I64" t="s">
+        <v>356</v>
+      </c>
+      <c r="P64" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>233</v>
+        <v>358</v>
       </c>
       <c r="B65" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="E65" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+        <v>360</v>
+      </c>
+      <c r="I65" t="s">
+        <v>361</v>
+      </c>
+      <c r="P65" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>363</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>364</v>
       </c>
       <c r="E66" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+      <c r="I66" t="s">
+        <v>366</v>
+      </c>
+      <c r="P66" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>235</v>
+        <v>368</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="E67" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+      <c r="I67" t="s">
+        <v>371</v>
+      </c>
+      <c r="P67" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>236</v>
+        <v>373</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>374</v>
       </c>
       <c r="E68" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+      <c r="I68" t="s">
+        <v>376</v>
+      </c>
+      <c r="P68" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="B69" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="E69" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+      <c r="I69" t="s">
+        <v>381</v>
+      </c>
+      <c r="P69" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>383</v>
       </c>
       <c r="B70" t="s">
-        <v>268</v>
+        <v>384</v>
       </c>
       <c r="E70" t="s">
-        <v>269</v>
+        <v>385</v>
+      </c>
+      <c r="I70" t="s">
+        <v>386</v>
+      </c>
+      <c r="P70" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D943850-66CE-4CEF-947B-93F603CC06EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="289">
   <si>
     <t>日本語</t>
   </si>
@@ -76,21 +80,6 @@
     <t>リトアニア語</t>
   </si>
   <si>
-    <t>BackupResponseUnitType</t>
-  </si>
-  <si>
-    <t>応援の種類</t>
-  </si>
-  <si>
-    <t>Backup Response</t>
-  </si>
-  <si>
-    <t>기관 지원요청 종류</t>
-  </si>
-  <si>
-    <t>Typ zalozni odezvy</t>
-  </si>
-  <si>
     <t>BackupLocal</t>
   </si>
   <si>
@@ -101,9 +90,6 @@
   </si>
   <si>
     <t>Locale</t>
-  </si>
-  <si>
-    <t>인근 순찰차 지원요청</t>
   </si>
   <si>
     <t xml:space="preserve">Asayiş
@@ -128,9 +114,6 @@
     <t xml:space="preserve">Statale </t>
   </si>
   <si>
-    <t>본청 지원요청</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -155,9 +138,6 @@
     <t xml:space="preserve">Squadre Speciali </t>
   </si>
   <si>
-    <t>경찰기동대(POSS)</t>
-  </si>
-  <si>
     <t>Polis Özel Harekat</t>
   </si>
   <si>
@@ -176,9 +156,6 @@
     <t xml:space="preserve">Squadre speciale </t>
   </si>
   <si>
-    <t>경찰특공대(SOU)</t>
-  </si>
-  <si>
     <t>Jandarma Özel Harekat</t>
   </si>
   <si>
@@ -194,9 +171,6 @@
     <t xml:space="preserve">Elicottero </t>
   </si>
   <si>
-    <t>본서 항공지원</t>
-  </si>
-  <si>
     <t>Helicóptero Local</t>
   </si>
   <si>
@@ -215,9 +189,6 @@
     <t xml:space="preserve">Elicottero squadra speciale </t>
   </si>
   <si>
-    <t>경찰특공대 항공지원</t>
-  </si>
-  <si>
     <t>Helicóptero Noose</t>
   </si>
   <si>
@@ -239,9 +210,6 @@
     <t xml:space="preserve">Vigili del fuoco </t>
   </si>
   <si>
-    <t>119 화재 지원요청</t>
-  </si>
-  <si>
     <t>Bombeiros</t>
   </si>
   <si>
@@ -266,9 +234,6 @@
     <t>Ambulanza</t>
   </si>
   <si>
-    <t>119 구급 지원요청</t>
-  </si>
-  <si>
     <t>Ambulância</t>
   </si>
   <si>
@@ -293,9 +258,6 @@
     <t>Sesso Maschio</t>
   </si>
   <si>
-    <t>성별-남성</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -320,9 +282,6 @@
     <t>Sesso Femmina</t>
   </si>
   <si>
-    <t>성별-여성</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -344,9 +303,6 @@
     <t>Codice 2</t>
   </si>
   <si>
-    <t>비 긴급출동- 코드2</t>
-  </si>
-  <si>
     <t>Código 2</t>
   </si>
   <si>
@@ -368,9 +324,6 @@
     <t>Codice 3</t>
   </si>
   <si>
-    <t>긴급출동- 코드1</t>
-  </si>
-  <si>
     <t>Código 3</t>
   </si>
   <si>
@@ -395,9 +348,6 @@
     <t xml:space="preserve">Posto di blocco </t>
   </si>
   <si>
-    <t>교통통제</t>
-  </si>
-  <si>
     <t>Parada de Trânsito</t>
   </si>
   <si>
@@ -419,9 +369,6 @@
     <t>Inseguimento</t>
   </si>
   <si>
-    <t>차량도주</t>
-  </si>
-  <si>
     <t>Perseguição</t>
   </si>
   <si>
@@ -446,9 +393,6 @@
     <t xml:space="preserve">Unità di pattuglia </t>
   </si>
   <si>
-    <t>교통경찰</t>
-  </si>
-  <si>
     <t>Unidade de Patrulha</t>
   </si>
   <si>
@@ -473,9 +417,6 @@
     <t>Unità pattuglia uomo</t>
   </si>
   <si>
-    <t>남경</t>
-  </si>
-  <si>
     <t>Unidade de Patrulha Masculina</t>
   </si>
   <si>
@@ -500,9 +441,6 @@
     <t>Unità pattuglia donna</t>
   </si>
   <si>
-    <t>여경</t>
-  </si>
-  <si>
     <t>Unidade de Patrulha Feminina</t>
   </si>
   <si>
@@ -527,9 +465,6 @@
     <t>Unità motorizzata</t>
   </si>
   <si>
-    <t>자전거 순경</t>
-  </si>
-  <si>
     <t>Unidade de Motocicleta</t>
   </si>
   <si>
@@ -554,9 +489,6 @@
     <t xml:space="preserve">Unità speciale </t>
   </si>
   <si>
-    <t>특수 작전병력</t>
-  </si>
-  <si>
     <t>Unidade Especial</t>
   </si>
   <si>
@@ -578,9 +510,6 @@
     <t>Supporto aereo</t>
   </si>
   <si>
-    <t>항공대</t>
-  </si>
-  <si>
     <t>Unidade de Helicóptero</t>
   </si>
   <si>
@@ -605,9 +534,6 @@
     <t>Servizio Di Emergenza</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>Serviço de Emergência</t>
   </si>
   <si>
@@ -626,12 +552,6 @@
     <t>検視官</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI)</t>
-  </si>
-  <si>
-    <t>Koroner</t>
-  </si>
-  <si>
     <t>NoDeadBodies</t>
   </si>
   <si>
@@ -641,12 +561,6 @@
     <t>There is no ~r~dead bodies~s~ nearby you.</t>
   </si>
   <si>
-    <t>시체 미발견</t>
-  </si>
-  <si>
-    <t>V tve blizkosti nejsou zadna ~r~mrtva tela~~~.</t>
-  </si>
-  <si>
     <t>UnitRequested</t>
   </si>
   <si>
@@ -656,12 +570,6 @@
     <t>Requested ~b~{0}~s~ unit to Dispatch.</t>
   </si>
   <si>
-    <t>지원병력 요청</t>
-  </si>
-  <si>
-    <t>Pozadovana jednotka ~b~{0}~s~ se odesila do akce.</t>
-  </si>
-  <si>
     <t>CoronerCheckPls</t>
   </si>
   <si>
@@ -671,12 +579,6 @@
     <t>You can check ~b~Coroner's Report~s~ for more information.</t>
   </si>
   <si>
-    <t>자세한 정보는 과학수사관리관(KCSI)의 현장 감식 보고서를 확인해주세요.</t>
-  </si>
-  <si>
-    <t>Dalsi informace najdete v ~b~Koroner zprave~s~.</t>
-  </si>
-  <si>
     <t>CoronerBye</t>
   </si>
   <si>
@@ -686,12 +588,6 @@
     <t>Have a nice day! Officer!</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI) 현장 감식 종료</t>
-  </si>
-  <si>
-    <t>Hezky den! Dustojniku!</t>
-  </si>
-  <si>
     <t>TeleportUnit</t>
   </si>
   <si>
@@ -701,12 +597,6 @@
     <t>Press {0} to teleport the backup unit nearby.</t>
   </si>
   <si>
-    <t>지원병력을 근처로 이동 시킵니다.</t>
-  </si>
-  <si>
-    <t>Stisknutim tlacitka {0} teleportujete zalozni jednotku pobliz k vam.</t>
-  </si>
-  <si>
     <t>CoronerMenu</t>
   </si>
   <si>
@@ -716,12 +606,6 @@
     <t>Coroner Menu</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI) 메뉴</t>
-  </si>
-  <si>
-    <t>Koroner Menu</t>
-  </si>
-  <si>
     <t>CoronerReport</t>
   </si>
   <si>
@@ -731,12 +615,6 @@
     <t>Coroner Report</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI) 현장 감식 보고서</t>
-  </si>
-  <si>
-    <t>Koroner Zprava</t>
-  </si>
-  <si>
     <t>CoronerReportCount</t>
   </si>
   <si>
@@ -746,12 +624,6 @@
     <t>Report Count: {0}</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI) 현장 감식 보고서 건수</t>
-  </si>
-  <si>
-    <t>Pocet prehledu: {0}</t>
-  </si>
-  <si>
     <t>NoData</t>
   </si>
   <si>
@@ -761,36 +633,18 @@
     <t>No Data</t>
   </si>
   <si>
-    <t>정보없음</t>
-  </si>
-  <si>
-    <t>Zadna data</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>名前</t>
   </si>
   <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>Nazev</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
     <t>性別</t>
   </si>
   <si>
-    <t>성별</t>
-  </si>
-  <si>
-    <t>Pohlavi</t>
-  </si>
-  <si>
     <t>CauseOfDeath</t>
   </si>
   <si>
@@ -800,12 +654,6 @@
     <t>Cause of Death</t>
   </si>
   <si>
-    <t>사인</t>
-  </si>
-  <si>
-    <t>Pricina smrti</t>
-  </si>
-  <si>
     <t>DiedDay</t>
   </si>
   <si>
@@ -815,12 +663,6 @@
     <t>Died Day</t>
   </si>
   <si>
-    <t>사망시각</t>
-  </si>
-  <si>
-    <t>Den smrti</t>
-  </si>
-  <si>
     <t>BackupVehicle</t>
   </si>
   <si>
@@ -830,12 +672,6 @@
     <t>Backup Vehicle</t>
   </si>
   <si>
-    <t>차량지원 요청</t>
-  </si>
-  <si>
-    <t>Zalozni vozidlo</t>
-  </si>
-  <si>
     <t>BackupOfficer</t>
   </si>
   <si>
@@ -845,358 +681,393 @@
     <t>Backup Officer</t>
   </si>
   <si>
-    <t>순경 지원요청</t>
-  </si>
-  <si>
-    <t>Zalozni dustojnik</t>
-  </si>
-  <si>
     <t>AllDismissItem</t>
   </si>
   <si>
+    <t>BackupResponseUnitType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>応援の種類</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Response</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>Drownding</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>Exhaustion</t>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODAnimal</t>
+  </si>
+  <si>
+    <t>CODKnife</t>
+  </si>
+  <si>
+    <t>CODShotPistol</t>
+  </si>
+  <si>
+    <t>CODElectricalShock</t>
+  </si>
+  <si>
+    <t>CODShotHeavyFirearm</t>
+  </si>
+  <si>
+    <t>CODShotShotgun</t>
+  </si>
+  <si>
+    <t>CODShotRifle</t>
+  </si>
+  <si>
+    <t>CODUnknown</t>
+  </si>
+  <si>
+    <t>強打</t>
+    <rPh sb="0" eb="2">
+      <t>キョウダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBang</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODRunOverByCar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>車に轢かれた</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODFall</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高所から落下</t>
+    <rPh sb="0" eb="2">
+      <t>コウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動物による傷害</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>爆発</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBleeding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大量出血</t>
+    <rPh sb="0" eb="4">
+      <t>タイリョウシュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBarbedWire</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有刺鉄線</t>
+    <rPh sb="0" eb="4">
+      <t>ユウシテッセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>溺死</t>
+    <rPh sb="0" eb="2">
+      <t>デキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBurn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火傷</t>
+    <rPh sb="0" eb="2">
+      <t>ヤケド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODExhaustion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過労死</t>
+    <rPh sb="0" eb="3">
+      <t>カロウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刃物で刺された</t>
+    <rPh sb="0" eb="2">
+      <t>ハモノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenSome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何かで殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手で殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenBlunt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鋭いもので殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拳銃で撃たれた</t>
+    <rPh sb="0" eb="2">
+      <t>ケンジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気ショック</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重火器で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウカキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>散弾銃で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>サンダンジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフルで撃たれた</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODChoking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窒息死</t>
+    <rPh sb="0" eb="3">
+      <t>チッソクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細不明</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run over by car</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fell from high place</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Injured by an animal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODExplosion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Barbed Wire</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODDrownding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Burn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenHand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with something</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with blunt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with hand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by pistol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Electrical Shock</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by heavy firearm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by shotgun</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by rifle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>全応援を解散</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>All Units Dismiss</t>
-  </si>
-  <si>
-    <t>모두 해산</t>
-  </si>
-  <si>
-    <t>Vsechny jednotky propusteny</t>
-  </si>
-  <si>
-    <t>CODBang</t>
-  </si>
-  <si>
-    <t>強打</t>
-  </si>
-  <si>
-    <t>강타</t>
-  </si>
-  <si>
-    <t>Byl/a uderen/a neznamim predmetem</t>
-  </si>
-  <si>
-    <t>CODRunOverByCar</t>
-  </si>
-  <si>
-    <t>車に轢かれた</t>
-  </si>
-  <si>
-    <t>Run over by car</t>
-  </si>
-  <si>
-    <t>교통사고가 발생함</t>
-  </si>
-  <si>
-    <t>Byl/a prejet/a autem</t>
-  </si>
-  <si>
-    <t>CODFall</t>
-  </si>
-  <si>
-    <t>高所から落下</t>
-  </si>
-  <si>
-    <t>Fell from high place</t>
-  </si>
-  <si>
-    <t>낙상사고</t>
-  </si>
-  <si>
-    <t>Spadl/a z vysokeho mista</t>
-  </si>
-  <si>
-    <t>CODAnimal</t>
-  </si>
-  <si>
-    <t>動物による傷害</t>
-  </si>
-  <si>
-    <t>Injured by an animal</t>
-  </si>
-  <si>
-    <t>동물</t>
-  </si>
-  <si>
-    <t>Byl/a zranen/a zveri</t>
-  </si>
-  <si>
-    <t>CODExplosion</t>
-  </si>
-  <si>
-    <t>爆発</t>
-  </si>
-  <si>
-    <t>Explosion</t>
-  </si>
-  <si>
-    <t>폭발</t>
-  </si>
-  <si>
-    <t>Byla exploze</t>
-  </si>
-  <si>
-    <t>CODBleeding</t>
-  </si>
-  <si>
-    <t>大量出血</t>
-  </si>
-  <si>
-    <t>Bleeding</t>
-  </si>
-  <si>
-    <t>과다출혈</t>
-  </si>
-  <si>
-    <t>Bylo vykrvaceni</t>
-  </si>
-  <si>
-    <t>CODBarbedWire</t>
-  </si>
-  <si>
-    <t>有刺鉄線</t>
-  </si>
-  <si>
-    <t>Barbed Wire</t>
-  </si>
-  <si>
-    <t>철책</t>
-  </si>
-  <si>
-    <t>Byl ostnaty drat</t>
-  </si>
-  <si>
-    <t>CODDrownding</t>
-  </si>
-  <si>
-    <t>溺死</t>
-  </si>
-  <si>
-    <t>Drownding</t>
-  </si>
-  <si>
-    <t>익사사고</t>
-  </si>
-  <si>
-    <t>Bylo utopeni</t>
-  </si>
-  <si>
-    <t>CODBurn</t>
-  </si>
-  <si>
-    <t>火傷</t>
-  </si>
-  <si>
-    <t>Burn</t>
-  </si>
-  <si>
-    <t>화상</t>
-  </si>
-  <si>
-    <t>Bylo uhoreni</t>
-  </si>
-  <si>
-    <t>CODExhaustion</t>
-  </si>
-  <si>
-    <t>過労死</t>
-  </si>
-  <si>
-    <t>Exhaustion</t>
-  </si>
-  <si>
-    <t>과로사</t>
-  </si>
-  <si>
-    <t>Bylo vycerpani</t>
-  </si>
-  <si>
-    <t>CODKnife</t>
-  </si>
-  <si>
-    <t>刃物で刺された</t>
-  </si>
-  <si>
-    <t>Knife</t>
-  </si>
-  <si>
-    <t>칼에 찔림</t>
-  </si>
-  <si>
-    <t>Bylo bodnuti nozem</t>
-  </si>
-  <si>
-    <t>CODBeatenSome</t>
-  </si>
-  <si>
-    <t>何かで殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with something</t>
-  </si>
-  <si>
-    <t>묻지마 폭행</t>
-  </si>
-  <si>
-    <t>Bylo mlacenim neznamym predmetem</t>
-  </si>
-  <si>
-    <t>CODBeatenHand</t>
-  </si>
-  <si>
-    <t>手で殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with hand</t>
-  </si>
-  <si>
-    <t>폭행을 당함</t>
-  </si>
-  <si>
-    <t>Bylo utluceny rukou</t>
-  </si>
-  <si>
-    <t>CODBeatenBlunt</t>
-  </si>
-  <si>
-    <t>鋭いもので殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with blunt</t>
-  </si>
-  <si>
-    <t>날카로운 흉기에 찔림</t>
-  </si>
-  <si>
-    <t>Bylo utluceny tupym predmetem</t>
-  </si>
-  <si>
-    <t>CODShotPistol</t>
-  </si>
-  <si>
-    <t>拳銃で撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by pistol</t>
-  </si>
-  <si>
-    <t>권총으로 피격당함</t>
-  </si>
-  <si>
-    <t>Byl vystrel z pistole</t>
-  </si>
-  <si>
-    <t>CODElectricalShock</t>
-  </si>
-  <si>
-    <t>電気ショック</t>
-  </si>
-  <si>
-    <t>Electrical Shock</t>
-  </si>
-  <si>
-    <t>감전사고</t>
-  </si>
-  <si>
-    <t>Byl elektricky sok</t>
-  </si>
-  <si>
-    <t>CODShotHeavyFirearm</t>
-  </si>
-  <si>
-    <t>重火器で撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by heavy firearm</t>
-  </si>
-  <si>
-    <t>중화기에 피격당함</t>
-  </si>
-  <si>
-    <t>Byl/a strelen/a tezkou strelnou zbrani</t>
-  </si>
-  <si>
-    <t>CODShotShotgun</t>
-  </si>
-  <si>
-    <t>散弾銃で撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by shotgun</t>
-  </si>
-  <si>
-    <t>샷건으로 피격당함</t>
-  </si>
-  <si>
-    <t>Byl vystrel z brokovnice</t>
-  </si>
-  <si>
-    <t>CODShotRifle</t>
-  </si>
-  <si>
-    <t>ライフルで撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by rifle</t>
-  </si>
-  <si>
-    <t>돌격소총으로 피격당함</t>
-  </si>
-  <si>
-    <t>Byl vystrel z pusky</t>
-  </si>
-  <si>
-    <t>CODChoking</t>
-  </si>
-  <si>
-    <t>窒息死</t>
-  </si>
-  <si>
-    <t>Chocking</t>
-  </si>
-  <si>
-    <t>확인 중</t>
-  </si>
-  <si>
-    <t>Bylo skrceni osoby</t>
-  </si>
-  <si>
-    <t>CODUnknown</t>
-  </si>
-  <si>
-    <t>詳細不明</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>알 수 없음</t>
-  </si>
-  <si>
-    <t>Je neznama</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1226,7 +1097,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1562,15 +1433,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V70"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1635,1277 +1511,981 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="V4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="P4" t="s">
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="V4" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="P5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="V5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="O5" t="s">
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
         <v>40</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P6" t="s">
         <v>41</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
         <v>46</v>
       </c>
-      <c r="I6" t="s">
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" t="s">
         <v>47</v>
       </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" t="s">
+    </row>
+    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="P6" t="s">
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="V6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
+      <c r="O8" t="s">
         <v>52</v>
       </c>
-      <c r="H7" t="s">
+      <c r="P8" t="s">
         <v>53</v>
       </c>
-      <c r="I7" t="s">
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P7" t="s">
-        <v>52</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="K9" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="O9" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="P9" t="s">
         <v>59</v>
       </c>
-      <c r="I8" t="s">
+      <c r="V9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="K8" t="s">
+      <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O8" t="s">
+      <c r="E10" t="s">
         <v>62</v>
       </c>
-      <c r="P8" t="s">
+      <c r="H10" t="s">
         <v>63</v>
       </c>
-      <c r="V8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="K10" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="O10" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="P10" t="s">
         <v>66</v>
       </c>
-      <c r="I9" t="s">
+      <c r="V10" t="s">
         <v>67</v>
       </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="O9" t="s">
+      <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="P9" t="s">
+      <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="V9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H11" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="K11" t="s">
         <v>72</v>
       </c>
-      <c r="E10" t="s">
+      <c r="O11" t="s">
         <v>73</v>
       </c>
-      <c r="H10" t="s">
+      <c r="P11" t="s">
         <v>74</v>
       </c>
-      <c r="I10" t="s">
+      <c r="V11" t="s">
         <v>75</v>
       </c>
-      <c r="K10" t="s">
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="O10" t="s">
+      <c r="B12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P10" t="s">
+      <c r="E12" t="s">
         <v>78</v>
       </c>
-      <c r="V10" t="s">
+      <c r="H12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="K12" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
+      <c r="O12" t="s">
         <v>81</v>
       </c>
-      <c r="E11" t="s">
+      <c r="P12" t="s">
         <v>82</v>
       </c>
-      <c r="H11" t="s">
+      <c r="V12" t="s">
         <v>83</v>
       </c>
-      <c r="I11" t="s">
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>84</v>
       </c>
-      <c r="K11" t="s">
+      <c r="B13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O11" t="s">
+      <c r="E13" t="s">
         <v>86</v>
       </c>
-      <c r="P11" t="s">
+      <c r="H13" t="s">
         <v>87</v>
       </c>
-      <c r="V11" t="s">
+      <c r="K13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="O13" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="P13" t="s">
         <v>90</v>
       </c>
-      <c r="E12" t="s">
+      <c r="V13" t="s">
         <v>91</v>
       </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>92</v>
       </c>
-      <c r="I12" t="s">
+      <c r="B15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K12" t="s">
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
         <v>94</v>
       </c>
-      <c r="O12" t="s">
+      <c r="K15" t="s">
         <v>95</v>
       </c>
-      <c r="P12" t="s">
+      <c r="O15" t="s">
         <v>96</v>
       </c>
-      <c r="V12" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="V15" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>99</v>
       </c>
-      <c r="E13" t="s">
+      <c r="B16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H13" t="s">
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
         <v>101</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K16" t="s">
         <v>102</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O16" t="s">
         <v>103</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P16" t="s">
         <v>104</v>
       </c>
-      <c r="P13" t="s">
+      <c r="V16" t="s">
         <v>105</v>
       </c>
-      <c r="V13" t="s">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B17" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="E17" t="s">
         <v>108</v>
       </c>
-      <c r="E15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="H17" t="s">
         <v>109</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K17" t="s">
         <v>110</v>
       </c>
-      <c r="K15" t="s">
+      <c r="O17" t="s">
         <v>111</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P17" t="s">
         <v>112</v>
       </c>
-      <c r="P15" t="s">
+      <c r="V17" t="s">
         <v>113</v>
       </c>
-      <c r="V15" t="s">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B18" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
         <v>116</v>
       </c>
-      <c r="E16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="K18" t="s">
         <v>117</v>
       </c>
-      <c r="I16" t="s">
+      <c r="O18" t="s">
         <v>118</v>
       </c>
-      <c r="K16" t="s">
+      <c r="P18" t="s">
         <v>119</v>
       </c>
-      <c r="O16" t="s">
+      <c r="V18" t="s">
         <v>120</v>
       </c>
-      <c r="P16" t="s">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>121</v>
       </c>
-      <c r="V16" t="s">
+      <c r="B20" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E20" t="s">
         <v>123</v>
       </c>
-      <c r="B17" t="s">
+      <c r="H20" t="s">
         <v>124</v>
       </c>
-      <c r="E17" t="s">
+      <c r="K20" t="s">
         <v>125</v>
       </c>
-      <c r="H17" t="s">
+      <c r="O20" t="s">
         <v>126</v>
       </c>
-      <c r="I17" t="s">
+      <c r="P20" t="s">
         <v>127</v>
       </c>
-      <c r="K17" t="s">
+      <c r="V20" t="s">
         <v>128</v>
       </c>
-      <c r="O17" t="s">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>129</v>
       </c>
-      <c r="P17" t="s">
+      <c r="B21" t="s">
         <v>130</v>
       </c>
-      <c r="V17" t="s">
+      <c r="E21" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="H21" t="s">
         <v>132</v>
       </c>
-      <c r="B18" t="s">
+      <c r="K21" t="s">
         <v>133</v>
       </c>
-      <c r="E18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="O21" t="s">
         <v>134</v>
       </c>
-      <c r="I18" t="s">
+      <c r="P21" t="s">
         <v>135</v>
       </c>
-      <c r="K18" t="s">
+      <c r="V21" t="s">
         <v>136</v>
       </c>
-      <c r="O18" t="s">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>137</v>
       </c>
-      <c r="P18" t="s">
+      <c r="B22" t="s">
         <v>138</v>
       </c>
-      <c r="V18" t="s">
+      <c r="E22" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="H22" t="s">
         <v>140</v>
       </c>
-      <c r="B20" t="s">
+      <c r="K22" t="s">
         <v>141</v>
       </c>
-      <c r="E20" t="s">
+      <c r="O22" t="s">
         <v>142</v>
       </c>
-      <c r="H20" t="s">
+      <c r="P22" t="s">
         <v>143</v>
       </c>
-      <c r="I20" t="s">
+      <c r="V22" t="s">
         <v>144</v>
       </c>
-      <c r="K20" t="s">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>145</v>
       </c>
-      <c r="O20" t="s">
+      <c r="B23" t="s">
         <v>146</v>
       </c>
-      <c r="P20" t="s">
+      <c r="E23" t="s">
         <v>147</v>
       </c>
-      <c r="V20" t="s">
+      <c r="H23" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="K23" t="s">
         <v>149</v>
       </c>
-      <c r="B21" t="s">
+      <c r="O23" t="s">
         <v>150</v>
       </c>
-      <c r="E21" t="s">
+      <c r="P23" t="s">
         <v>151</v>
       </c>
-      <c r="H21" t="s">
+      <c r="V23" t="s">
         <v>152</v>
       </c>
-      <c r="I21" t="s">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>153</v>
       </c>
-      <c r="K21" t="s">
+      <c r="B24" t="s">
         <v>154</v>
       </c>
-      <c r="O21" t="s">
+      <c r="E24" t="s">
         <v>155</v>
       </c>
-      <c r="P21" t="s">
+      <c r="H24" t="s">
         <v>156</v>
       </c>
-      <c r="V21" t="s">
+      <c r="K24" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="O24" t="s">
         <v>158</v>
       </c>
-      <c r="B22" t="s">
+      <c r="P24" t="s">
         <v>159</v>
       </c>
-      <c r="E22" t="s">
+      <c r="V24" t="s">
         <v>160</v>
       </c>
-      <c r="H22" t="s">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>161</v>
       </c>
-      <c r="I22" t="s">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
         <v>162</v>
       </c>
-      <c r="K22" t="s">
+      <c r="H25" t="s">
         <v>163</v>
       </c>
-      <c r="O22" t="s">
+      <c r="K25" t="s">
         <v>164</v>
       </c>
-      <c r="P22" t="s">
+      <c r="O25" t="s">
         <v>165</v>
       </c>
-      <c r="V22" t="s">
+      <c r="P25" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="V25" t="s">
         <v>167</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>168</v>
       </c>
-      <c r="E23" t="s">
+      <c r="B26" t="s">
         <v>169</v>
       </c>
-      <c r="H23" t="s">
+      <c r="E26" t="s">
         <v>170</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H26" t="s">
         <v>171</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K26" t="s">
         <v>172</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O26" t="s">
         <v>173</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P26" t="s">
         <v>174</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>176</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>178</v>
       </c>
-      <c r="H24" t="s">
+      <c r="B29" t="s">
         <v>179</v>
       </c>
-      <c r="I24" t="s">
+      <c r="E29" t="s">
         <v>180</v>
       </c>
-      <c r="K24" t="s">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>181</v>
       </c>
-      <c r="O24" t="s">
+      <c r="B30" t="s">
         <v>182</v>
       </c>
-      <c r="P24" t="s">
+      <c r="E30" t="s">
         <v>183</v>
       </c>
-      <c r="V24" t="s">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B31" t="s">
         <v>185</v>
       </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E31" t="s">
         <v>186</v>
       </c>
-      <c r="H25" t="s">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>187</v>
       </c>
-      <c r="I25" t="s">
+      <c r="B32" t="s">
         <v>188</v>
       </c>
-      <c r="K25" t="s">
+      <c r="E32" t="s">
         <v>189</v>
       </c>
-      <c r="O25" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>190</v>
       </c>
-      <c r="P25" t="s">
+      <c r="B33" t="s">
         <v>191</v>
       </c>
-      <c r="V25" t="s">
+      <c r="E33" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>193</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B35" t="s">
         <v>194</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E35" t="s">
         <v>195</v>
       </c>
-      <c r="H26" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>196</v>
       </c>
-      <c r="I26" t="s">
+      <c r="B36" t="s">
         <v>197</v>
       </c>
-      <c r="K26" t="s">
+      <c r="E36" t="s">
         <v>198</v>
       </c>
-      <c r="O26" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>199</v>
       </c>
-      <c r="P26" t="s">
+      <c r="B37" t="s">
         <v>200</v>
       </c>
-      <c r="V26" t="s">
+      <c r="E37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>202</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B38" t="s">
         <v>203</v>
       </c>
-      <c r="E28" t="s">
-        <v>202</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="E38" t="s">
         <v>204</v>
       </c>
-      <c r="P28" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B40" t="s">
         <v>206</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>207</v>
       </c>
-      <c r="E29" t="s">
+      <c r="B41" t="s">
         <v>208</v>
       </c>
-      <c r="I29" t="s">
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>209</v>
       </c>
-      <c r="P29" t="s">
+      <c r="B42" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E42" t="s">
         <v>211</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>212</v>
       </c>
-      <c r="E30" t="s">
+      <c r="B43" t="s">
         <v>213</v>
       </c>
-      <c r="I30" t="s">
+      <c r="E43" t="s">
         <v>214</v>
       </c>
-      <c r="P30" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B45" t="s">
         <v>216</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E45" t="s">
         <v>217</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>218</v>
       </c>
-      <c r="I31" t="s">
+      <c r="B46" t="s">
         <v>219</v>
       </c>
-      <c r="P31" t="s">
+      <c r="E46" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>221</v>
       </c>
-      <c r="B32" t="s">
-        <v>222</v>
-      </c>
-      <c r="E32" t="s">
-        <v>223</v>
-      </c>
-      <c r="I32" t="s">
-        <v>224</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="B48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" t="s">
+        <v>244</v>
+      </c>
+      <c r="E53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" t="s">
+        <v>250</v>
+      </c>
+      <c r="E57" t="s">
         <v>226</v>
       </c>
-      <c r="B33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" t="s">
+        <v>254</v>
+      </c>
+      <c r="E59" t="s">
         <v>228</v>
       </c>
-      <c r="I33" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" t="s">
         <v>229</v>
       </c>
-      <c r="P33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>231</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" t="s">
+        <v>258</v>
+      </c>
+      <c r="E62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>232</v>
       </c>
-      <c r="E35" t="s">
+      <c r="B64" t="s">
+        <v>261</v>
+      </c>
+      <c r="E64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>233</v>
       </c>
-      <c r="I35" t="s">
+      <c r="B65" t="s">
+        <v>262</v>
+      </c>
+      <c r="E65" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>234</v>
       </c>
-      <c r="P35" t="s">
+      <c r="B66" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>236</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B68" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>266</v>
+      </c>
+      <c r="B69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>237</v>
       </c>
-      <c r="E36" t="s">
-        <v>238</v>
-      </c>
-      <c r="I36" t="s">
-        <v>239</v>
-      </c>
-      <c r="P36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>241</v>
-      </c>
-      <c r="B37" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" t="s">
-        <v>243</v>
-      </c>
-      <c r="I37" t="s">
-        <v>244</v>
-      </c>
-      <c r="P37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>246</v>
-      </c>
-      <c r="B38" t="s">
-        <v>247</v>
-      </c>
-      <c r="E38" t="s">
-        <v>248</v>
-      </c>
-      <c r="I38" t="s">
-        <v>249</v>
-      </c>
-      <c r="P38" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" t="s">
-        <v>252</v>
-      </c>
-      <c r="E40" t="s">
-        <v>251</v>
-      </c>
-      <c r="I40" t="s">
-        <v>253</v>
-      </c>
-      <c r="P40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>255</v>
-      </c>
-      <c r="B41" t="s">
-        <v>256</v>
-      </c>
-      <c r="E41" t="s">
-        <v>255</v>
-      </c>
-      <c r="I41" t="s">
-        <v>257</v>
-      </c>
-      <c r="P41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>259</v>
-      </c>
-      <c r="B42" t="s">
-        <v>260</v>
-      </c>
-      <c r="E42" t="s">
-        <v>261</v>
-      </c>
-      <c r="I42" t="s">
-        <v>262</v>
-      </c>
-      <c r="P42" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>264</v>
-      </c>
-      <c r="B43" t="s">
-        <v>265</v>
-      </c>
-      <c r="E43" t="s">
-        <v>266</v>
-      </c>
-      <c r="I43" t="s">
-        <v>267</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="B70" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="E70" t="s">
         <v>269</v>
       </c>
-      <c r="B45" t="s">
-        <v>270</v>
-      </c>
-      <c r="E45" t="s">
-        <v>271</v>
-      </c>
-      <c r="I45" t="s">
-        <v>272</v>
-      </c>
-      <c r="P45" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>274</v>
-      </c>
-      <c r="B46" t="s">
-        <v>275</v>
-      </c>
-      <c r="E46" t="s">
-        <v>276</v>
-      </c>
-      <c r="I46" t="s">
-        <v>277</v>
-      </c>
-      <c r="P46" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>279</v>
-      </c>
-      <c r="B48" t="s">
-        <v>280</v>
-      </c>
-      <c r="E48" t="s">
-        <v>281</v>
-      </c>
-      <c r="I48" t="s">
-        <v>282</v>
-      </c>
-      <c r="P48" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B50" t="s">
-        <v>285</v>
-      </c>
-      <c r="I50" t="s">
-        <v>286</v>
-      </c>
-      <c r="P50" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>288</v>
-      </c>
-      <c r="B51" t="s">
-        <v>289</v>
-      </c>
-      <c r="E51" t="s">
-        <v>290</v>
-      </c>
-      <c r="I51" t="s">
-        <v>291</v>
-      </c>
-      <c r="P51" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>293</v>
-      </c>
-      <c r="B52" t="s">
-        <v>294</v>
-      </c>
-      <c r="E52" t="s">
-        <v>295</v>
-      </c>
-      <c r="I52" t="s">
-        <v>296</v>
-      </c>
-      <c r="P52" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>298</v>
-      </c>
-      <c r="B53" t="s">
-        <v>299</v>
-      </c>
-      <c r="E53" t="s">
-        <v>300</v>
-      </c>
-      <c r="I53" t="s">
-        <v>301</v>
-      </c>
-      <c r="P53" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>303</v>
-      </c>
-      <c r="B54" t="s">
-        <v>304</v>
-      </c>
-      <c r="E54" t="s">
-        <v>305</v>
-      </c>
-      <c r="I54" t="s">
-        <v>306</v>
-      </c>
-      <c r="P54" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>308</v>
-      </c>
-      <c r="B55" t="s">
-        <v>309</v>
-      </c>
-      <c r="E55" t="s">
-        <v>310</v>
-      </c>
-      <c r="I55" t="s">
-        <v>311</v>
-      </c>
-      <c r="P55" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>313</v>
-      </c>
-      <c r="B56" t="s">
-        <v>314</v>
-      </c>
-      <c r="E56" t="s">
-        <v>315</v>
-      </c>
-      <c r="I56" t="s">
-        <v>316</v>
-      </c>
-      <c r="P56" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>318</v>
-      </c>
-      <c r="B57" t="s">
-        <v>319</v>
-      </c>
-      <c r="E57" t="s">
-        <v>320</v>
-      </c>
-      <c r="I57" t="s">
-        <v>321</v>
-      </c>
-      <c r="P57" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>323</v>
-      </c>
-      <c r="B58" t="s">
-        <v>324</v>
-      </c>
-      <c r="E58" t="s">
-        <v>325</v>
-      </c>
-      <c r="I58" t="s">
-        <v>326</v>
-      </c>
-      <c r="P58" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>328</v>
-      </c>
-      <c r="B59" t="s">
-        <v>329</v>
-      </c>
-      <c r="E59" t="s">
-        <v>330</v>
-      </c>
-      <c r="I59" t="s">
-        <v>331</v>
-      </c>
-      <c r="P59" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>333</v>
-      </c>
-      <c r="B60" t="s">
-        <v>334</v>
-      </c>
-      <c r="E60" t="s">
-        <v>335</v>
-      </c>
-      <c r="I60" t="s">
-        <v>336</v>
-      </c>
-      <c r="P60" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>338</v>
-      </c>
-      <c r="B61" t="s">
-        <v>339</v>
-      </c>
-      <c r="E61" t="s">
-        <v>340</v>
-      </c>
-      <c r="I61" t="s">
-        <v>341</v>
-      </c>
-      <c r="P61" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>343</v>
-      </c>
-      <c r="B62" t="s">
-        <v>344</v>
-      </c>
-      <c r="E62" t="s">
-        <v>345</v>
-      </c>
-      <c r="I62" t="s">
-        <v>346</v>
-      </c>
-      <c r="P62" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>348</v>
-      </c>
-      <c r="B63" t="s">
-        <v>349</v>
-      </c>
-      <c r="E63" t="s">
-        <v>350</v>
-      </c>
-      <c r="I63" t="s">
-        <v>351</v>
-      </c>
-      <c r="P63" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>353</v>
-      </c>
-      <c r="B64" t="s">
-        <v>354</v>
-      </c>
-      <c r="E64" t="s">
-        <v>355</v>
-      </c>
-      <c r="I64" t="s">
-        <v>356</v>
-      </c>
-      <c r="P64" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>358</v>
-      </c>
-      <c r="B65" t="s">
-        <v>359</v>
-      </c>
-      <c r="E65" t="s">
-        <v>360</v>
-      </c>
-      <c r="I65" t="s">
-        <v>361</v>
-      </c>
-      <c r="P65" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>363</v>
-      </c>
-      <c r="B66" t="s">
-        <v>364</v>
-      </c>
-      <c r="E66" t="s">
-        <v>365</v>
-      </c>
-      <c r="I66" t="s">
-        <v>366</v>
-      </c>
-      <c r="P66" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>368</v>
-      </c>
-      <c r="B67" t="s">
-        <v>369</v>
-      </c>
-      <c r="E67" t="s">
-        <v>370</v>
-      </c>
-      <c r="I67" t="s">
-        <v>371</v>
-      </c>
-      <c r="P67" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>373</v>
-      </c>
-      <c r="B68" t="s">
-        <v>374</v>
-      </c>
-      <c r="E68" t="s">
-        <v>375</v>
-      </c>
-      <c r="I68" t="s">
-        <v>376</v>
-      </c>
-      <c r="P68" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>378</v>
-      </c>
-      <c r="B69" t="s">
-        <v>379</v>
-      </c>
-      <c r="E69" t="s">
-        <v>380</v>
-      </c>
-      <c r="I69" t="s">
-        <v>381</v>
-      </c>
-      <c r="P69" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>383</v>
-      </c>
-      <c r="B70" t="s">
-        <v>384</v>
-      </c>
-      <c r="E70" t="s">
-        <v>385</v>
-      </c>
-      <c r="I70" t="s">
-        <v>386</v>
-      </c>
-      <c r="P70" t="s">
-        <v>387</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D943850-66CE-4CEF-947B-93F603CC06EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B40E72-6B03-4E27-98A7-F7171E337839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="292">
   <si>
     <t>日本語</t>
   </si>
@@ -1039,6 +1039,21 @@
   </si>
   <si>
     <t>All Units Dismiss</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PoliceOfficer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>警察官</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサツカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Police Officer</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1434,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1513,973 +1528,984 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>222</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>223</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="V5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s">
+        <v>82</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>87</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K14" t="s">
         <v>88</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O14" t="s">
         <v>89</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P14" t="s">
         <v>90</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>92</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>94</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>95</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O16" t="s">
         <v>96</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P16" t="s">
         <v>97</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V16" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" t="s">
-        <v>104</v>
-      </c>
-      <c r="V16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="O17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="V17" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" t="s">
+        <v>112</v>
+      </c>
+      <c r="V18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>114</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>115</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>114</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>116</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K19" t="s">
         <v>117</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O19" t="s">
         <v>118</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P19" t="s">
         <v>119</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V19" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" t="s">
-        <v>126</v>
-      </c>
-      <c r="P20" t="s">
-        <v>127</v>
-      </c>
-      <c r="V20" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K21" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V21" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O22" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O23" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="V23" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="O24" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="V24" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H25" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O25" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="V25" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" t="s">
+        <v>164</v>
+      </c>
+      <c r="O26" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" t="s">
+        <v>166</v>
+      </c>
+      <c r="V26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>168</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>169</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>170</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
         <v>171</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K27" t="s">
         <v>172</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O27" t="s">
         <v>173</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P27" t="s">
         <v>174</v>
       </c>
-      <c r="V26" t="s">
+      <c r="V27" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>190</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>191</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>202</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>203</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" t="s">
-        <v>206</v>
-      </c>
-      <c r="E40" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E42" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>212</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>213</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>218</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>219</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>221</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>287</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>239</v>
-      </c>
-      <c r="B50" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E51" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="B55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E56" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E57" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E58" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B61" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E61" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E63" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E64" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="B69" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>266</v>
+      </c>
+      <c r="B70" t="s">
+        <v>267</v>
+      </c>
+      <c r="E70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>237</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>268</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>269</v>
       </c>
     </row>

--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B40E72-6B03-4E27-98A7-F7171E337839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F23C16-57A6-499E-BD19-65799F3F17E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="313">
   <si>
     <t>日本語</t>
   </si>
@@ -1054,6 +1054,153 @@
   </si>
   <si>
     <t>Police Officer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerComment0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerComment1</t>
+  </si>
+  <si>
+    <t>CoronerComment2</t>
+  </si>
+  <si>
+    <t>CoronerComment3</t>
+  </si>
+  <si>
+    <t>CoronerComment4</t>
+  </si>
+  <si>
+    <t>CoronerComment5</t>
+  </si>
+  <si>
+    <t>CoronerComment6</t>
+  </si>
+  <si>
+    <t>今日も大変な一日だな。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>疲れたよ。家に帰りたい。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>股下以下… 今日で5件目だぞ?</t>
+    <rPh sb="0" eb="2">
+      <t>マタシタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お疲れ様です。さて、仕事仕事。</t>
+    <rPh sb="1" eb="2">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サービス残業突入！ふざけるな！</t>
+    <rPh sb="4" eb="6">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トツニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>俺らみたいに死体の専門家にはなるなよ。</t>
+    <rPh sb="0" eb="1">
+      <t>オレ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>センモンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次会う時、あなたは死体かもしれませんね。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Today is another tough day.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I'm tired. I want to go home!</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Another dead body... it's the 5th one today, huh?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Thank you for your hard work.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This city is full of many dead bodies! Don't be silly!</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Don't be a cadavers expert like us.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The next time we meet, you may be a dead body. hehe</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1449,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2509,6 +2656,83 @@
         <v>269</v>
       </c>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74" t="s">
+        <v>300</v>
+      </c>
+      <c r="E74" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" t="s">
+        <v>305</v>
+      </c>
+      <c r="E79" t="s">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F23C16-57A6-499E-BD19-65799F3F17E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="313">
   <si>
     <t>日本語</t>
   </si>
@@ -76,30 +80,6 @@
     <t>リトアニア語</t>
   </si>
   <si>
-    <t>PoliceOfficer</t>
-  </si>
-  <si>
-    <t>警察官</t>
-  </si>
-  <si>
-    <t>Police Officer</t>
-  </si>
-  <si>
-    <t>BackupResponseUnitType</t>
-  </si>
-  <si>
-    <t>応援の種類</t>
-  </si>
-  <si>
-    <t>Backup Response</t>
-  </si>
-  <si>
-    <t>기관 지원요청 종류</t>
-  </si>
-  <si>
-    <t>Typ zalozni odezvy</t>
-  </si>
-  <si>
     <t>BackupLocal</t>
   </si>
   <si>
@@ -110,9 +90,6 @@
   </si>
   <si>
     <t>Locale</t>
-  </si>
-  <si>
-    <t>인근 순찰차 지원요청</t>
   </si>
   <si>
     <t xml:space="preserve">Asayiş
@@ -137,9 +114,6 @@
     <t xml:space="preserve">Statale </t>
   </si>
   <si>
-    <t>본청 지원요청</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -164,9 +138,6 @@
     <t xml:space="preserve">Squadre Speciali </t>
   </si>
   <si>
-    <t>경찰기동대(POSS)</t>
-  </si>
-  <si>
     <t>Polis Özel Harekat</t>
   </si>
   <si>
@@ -185,9 +156,6 @@
     <t xml:space="preserve">Squadre speciale </t>
   </si>
   <si>
-    <t>경찰특공대(SOU)</t>
-  </si>
-  <si>
     <t>Jandarma Özel Harekat</t>
   </si>
   <si>
@@ -203,9 +171,6 @@
     <t xml:space="preserve">Elicottero </t>
   </si>
   <si>
-    <t>본서 항공지원</t>
-  </si>
-  <si>
     <t>Helicóptero Local</t>
   </si>
   <si>
@@ -224,9 +189,6 @@
     <t xml:space="preserve">Elicottero squadra speciale </t>
   </si>
   <si>
-    <t>경찰특공대 항공지원</t>
-  </si>
-  <si>
     <t>Helicóptero Noose</t>
   </si>
   <si>
@@ -248,9 +210,6 @@
     <t xml:space="preserve">Vigili del fuoco </t>
   </si>
   <si>
-    <t>119 화재 지원요청</t>
-  </si>
-  <si>
     <t>Bombeiros</t>
   </si>
   <si>
@@ -275,9 +234,6 @@
     <t>Ambulanza</t>
   </si>
   <si>
-    <t>119 구급 지원요청</t>
-  </si>
-  <si>
     <t>Ambulância</t>
   </si>
   <si>
@@ -302,9 +258,6 @@
     <t>Sesso Maschio</t>
   </si>
   <si>
-    <t>성별-남성</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -329,9 +282,6 @@
     <t>Sesso Femmina</t>
   </si>
   <si>
-    <t>성별-여성</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -353,9 +303,6 @@
     <t>Codice 2</t>
   </si>
   <si>
-    <t>비 긴급출동- 코드2</t>
-  </si>
-  <si>
     <t>Código 2</t>
   </si>
   <si>
@@ -377,9 +324,6 @@
     <t>Codice 3</t>
   </si>
   <si>
-    <t>긴급출동- 코드1</t>
-  </si>
-  <si>
     <t>Código 3</t>
   </si>
   <si>
@@ -404,9 +348,6 @@
     <t xml:space="preserve">Posto di blocco </t>
   </si>
   <si>
-    <t>교통통제</t>
-  </si>
-  <si>
     <t>Parada de Trânsito</t>
   </si>
   <si>
@@ -428,9 +369,6 @@
     <t>Inseguimento</t>
   </si>
   <si>
-    <t>차량도주</t>
-  </si>
-  <si>
     <t>Perseguição</t>
   </si>
   <si>
@@ -446,15 +384,15 @@
     <t>PatrolUnit</t>
   </si>
   <si>
+    <t>警察官</t>
+  </si>
+  <si>
     <t>Patrol Unit</t>
   </si>
   <si>
     <t xml:space="preserve">Unità di pattuglia </t>
   </si>
   <si>
-    <t>교통경찰</t>
-  </si>
-  <si>
     <t>Unidade de Patrulha</t>
   </si>
   <si>
@@ -479,9 +417,6 @@
     <t>Unità pattuglia uomo</t>
   </si>
   <si>
-    <t>남경</t>
-  </si>
-  <si>
     <t>Unidade de Patrulha Masculina</t>
   </si>
   <si>
@@ -506,9 +441,6 @@
     <t>Unità pattuglia donna</t>
   </si>
   <si>
-    <t>여경</t>
-  </si>
-  <si>
     <t>Unidade de Patrulha Feminina</t>
   </si>
   <si>
@@ -533,9 +465,6 @@
     <t>Unità motorizzata</t>
   </si>
   <si>
-    <t>자전거 순경</t>
-  </si>
-  <si>
     <t>Unidade de Motocicleta</t>
   </si>
   <si>
@@ -560,9 +489,6 @@
     <t xml:space="preserve">Unità speciale </t>
   </si>
   <si>
-    <t>특수 작전병력</t>
-  </si>
-  <si>
     <t>Unidade Especial</t>
   </si>
   <si>
@@ -584,9 +510,6 @@
     <t>Supporto aereo</t>
   </si>
   <si>
-    <t>항공대</t>
-  </si>
-  <si>
     <t>Unidade de Helicóptero</t>
   </si>
   <si>
@@ -611,9 +534,6 @@
     <t>Servizio Di Emergenza</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>Serviço de Emergência</t>
   </si>
   <si>
@@ -632,12 +552,6 @@
     <t>検視官</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI)</t>
-  </si>
-  <si>
-    <t>Koroner</t>
-  </si>
-  <si>
     <t>NoDeadBodies</t>
   </si>
   <si>
@@ -647,12 +561,6 @@
     <t>There is no ~r~dead bodies~s~ nearby you.</t>
   </si>
   <si>
-    <t>시체 미발견</t>
-  </si>
-  <si>
-    <t>V tve blizkosti nejsou zadna ~r~mrtva tela~~~.</t>
-  </si>
-  <si>
     <t>UnitRequested</t>
   </si>
   <si>
@@ -662,12 +570,6 @@
     <t>Requested ~b~{0}~s~ unit to Dispatch.</t>
   </si>
   <si>
-    <t>지원병력 요청</t>
-  </si>
-  <si>
-    <t>Pozadovana jednotka ~b~{0}~s~ se odesila do akce.</t>
-  </si>
-  <si>
     <t>CoronerCheckPls</t>
   </si>
   <si>
@@ -677,12 +579,6 @@
     <t>You can check ~b~Coroner's Report~s~ for more information.</t>
   </si>
   <si>
-    <t>자세한 정보는 과학수사관리관(KCSI)의 현장 감식 보고서를 확인해주세요.</t>
-  </si>
-  <si>
-    <t>Dalsi informace najdete v ~b~Koroner zprave~s~.</t>
-  </si>
-  <si>
     <t>CoronerBye</t>
   </si>
   <si>
@@ -692,12 +588,6 @@
     <t>Have a nice day! Officer!</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI) 현장 감식 종료</t>
-  </si>
-  <si>
-    <t>Hezky den! Dustojniku!</t>
-  </si>
-  <si>
     <t>TeleportUnit</t>
   </si>
   <si>
@@ -707,12 +597,6 @@
     <t>Press {0} to teleport the backup unit nearby.</t>
   </si>
   <si>
-    <t>지원병력을 근처로 이동 시킵니다.</t>
-  </si>
-  <si>
-    <t>Stisknutim tlacitka {0} teleportujete zalozni jednotku pobliz k vam.</t>
-  </si>
-  <si>
     <t>CoronerMenu</t>
   </si>
   <si>
@@ -722,12 +606,6 @@
     <t>Coroner Menu</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI) 메뉴</t>
-  </si>
-  <si>
-    <t>Koroner Menu</t>
-  </si>
-  <si>
     <t>CoronerReport</t>
   </si>
   <si>
@@ -737,12 +615,6 @@
     <t>Coroner Report</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI) 현장 감식 보고서</t>
-  </si>
-  <si>
-    <t>Koroner Zprava</t>
-  </si>
-  <si>
     <t>CoronerReportCount</t>
   </si>
   <si>
@@ -752,12 +624,6 @@
     <t>Report Count: {0}</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI) 현장 감식 보고서 건수</t>
-  </si>
-  <si>
-    <t>Pocet prehledu: {0}</t>
-  </si>
-  <si>
     <t>NoData</t>
   </si>
   <si>
@@ -767,36 +633,18 @@
     <t>No Data</t>
   </si>
   <si>
-    <t>정보없음</t>
-  </si>
-  <si>
-    <t>Zadna data</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>名前</t>
   </si>
   <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>Nazev</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
     <t>性別</t>
   </si>
   <si>
-    <t>성별</t>
-  </si>
-  <si>
-    <t>Pohlavi</t>
-  </si>
-  <si>
     <t>CauseOfDeath</t>
   </si>
   <si>
@@ -806,12 +654,6 @@
     <t>Cause of Death</t>
   </si>
   <si>
-    <t>사인</t>
-  </si>
-  <si>
-    <t>Pricina smrti</t>
-  </si>
-  <si>
     <t>DiedDay</t>
   </si>
   <si>
@@ -821,12 +663,6 @@
     <t>Died Day</t>
   </si>
   <si>
-    <t>사망시각</t>
-  </si>
-  <si>
-    <t>Den smrti</t>
-  </si>
-  <si>
     <t>BackupVehicle</t>
   </si>
   <si>
@@ -836,12 +672,6 @@
     <t>Backup Vehicle</t>
   </si>
   <si>
-    <t>차량지원 요청</t>
-  </si>
-  <si>
-    <t>Zalozni vozidlo</t>
-  </si>
-  <si>
     <t>BackupOfficer</t>
   </si>
   <si>
@@ -851,361 +681,555 @@
     <t>Backup Officer</t>
   </si>
   <si>
-    <t>순경 지원요청</t>
-  </si>
-  <si>
-    <t>Zalozni dustojnik</t>
-  </si>
-  <si>
     <t>AllDismissItem</t>
   </si>
   <si>
+    <t>BackupResponseUnitType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>応援の種類</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Response</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>Drownding</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>Exhaustion</t>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODAnimal</t>
+  </si>
+  <si>
+    <t>CODKnife</t>
+  </si>
+  <si>
+    <t>CODShotPistol</t>
+  </si>
+  <si>
+    <t>CODElectricalShock</t>
+  </si>
+  <si>
+    <t>CODShotHeavyFirearm</t>
+  </si>
+  <si>
+    <t>CODShotShotgun</t>
+  </si>
+  <si>
+    <t>CODShotRifle</t>
+  </si>
+  <si>
+    <t>CODUnknown</t>
+  </si>
+  <si>
+    <t>強打</t>
+    <rPh sb="0" eb="2">
+      <t>キョウダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBang</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODRunOverByCar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>車に轢かれた</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODFall</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高所から落下</t>
+    <rPh sb="0" eb="2">
+      <t>コウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動物による傷害</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>爆発</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBleeding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大量出血</t>
+    <rPh sb="0" eb="4">
+      <t>タイリョウシュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBarbedWire</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有刺鉄線</t>
+    <rPh sb="0" eb="4">
+      <t>ユウシテッセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>溺死</t>
+    <rPh sb="0" eb="2">
+      <t>デキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBurn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火傷</t>
+    <rPh sb="0" eb="2">
+      <t>ヤケド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODExhaustion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過労死</t>
+    <rPh sb="0" eb="3">
+      <t>カロウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刃物で刺された</t>
+    <rPh sb="0" eb="2">
+      <t>ハモノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenSome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何かで殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手で殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenBlunt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鋭いもので殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拳銃で撃たれた</t>
+    <rPh sb="0" eb="2">
+      <t>ケンジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気ショック</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重火器で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウカキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>散弾銃で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>サンダンジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフルで撃たれた</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODChoking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窒息死</t>
+    <rPh sb="0" eb="3">
+      <t>チッソクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細不明</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run over by car</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fell from high place</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Injured by an animal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODExplosion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Barbed Wire</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODDrownding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Burn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenHand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with something</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with blunt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with hand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by pistol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Electrical Shock</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by heavy firearm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by shotgun</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by rifle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>全応援を解散</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>All Units Dismiss</t>
-  </si>
-  <si>
-    <t>모두 해산</t>
-  </si>
-  <si>
-    <t>Vsechny jednotky propusteny</t>
-  </si>
-  <si>
-    <t>CODBang</t>
-  </si>
-  <si>
-    <t>強打</t>
-  </si>
-  <si>
-    <t>Hit Somebody Hard</t>
-  </si>
-  <si>
-    <t>강타</t>
-  </si>
-  <si>
-    <t>Byl/a uderen/a neznamim predmetem</t>
-  </si>
-  <si>
-    <t>CODRunOverByCar</t>
-  </si>
-  <si>
-    <t>車に轢かれた</t>
-  </si>
-  <si>
-    <t>Run over by car</t>
-  </si>
-  <si>
-    <t>교통사고가 발생함</t>
-  </si>
-  <si>
-    <t>Byl/a prejet/a autem</t>
-  </si>
-  <si>
-    <t>CODFall</t>
-  </si>
-  <si>
-    <t>高所から落下</t>
-  </si>
-  <si>
-    <t>Fell from high place</t>
-  </si>
-  <si>
-    <t>낙상사고</t>
-  </si>
-  <si>
-    <t>Spadl/a z vysokeho mista</t>
-  </si>
-  <si>
-    <t>CODAnimal</t>
-  </si>
-  <si>
-    <t>動物による傷害</t>
-  </si>
-  <si>
-    <t>Injured by an animal</t>
-  </si>
-  <si>
-    <t>동물</t>
-  </si>
-  <si>
-    <t>Byl/a zranen/a zveri</t>
-  </si>
-  <si>
-    <t>CODExplosion</t>
-  </si>
-  <si>
-    <t>爆発</t>
-  </si>
-  <si>
-    <t>Explosion</t>
-  </si>
-  <si>
-    <t>폭발</t>
-  </si>
-  <si>
-    <t>Byla exploze</t>
-  </si>
-  <si>
-    <t>CODBleeding</t>
-  </si>
-  <si>
-    <t>大量出血</t>
-  </si>
-  <si>
-    <t>Bleeding</t>
-  </si>
-  <si>
-    <t>과다출혈</t>
-  </si>
-  <si>
-    <t>Bylo vykrvaceni</t>
-  </si>
-  <si>
-    <t>CODBarbedWire</t>
-  </si>
-  <si>
-    <t>有刺鉄線</t>
-  </si>
-  <si>
-    <t>Barbed Wire</t>
-  </si>
-  <si>
-    <t>철책</t>
-  </si>
-  <si>
-    <t>Byl ostnaty drat</t>
-  </si>
-  <si>
-    <t>CODDrownding</t>
-  </si>
-  <si>
-    <t>溺死</t>
-  </si>
-  <si>
-    <t>Drownding</t>
-  </si>
-  <si>
-    <t>익사사고</t>
-  </si>
-  <si>
-    <t>Bylo utopeni</t>
-  </si>
-  <si>
-    <t>CODBurn</t>
-  </si>
-  <si>
-    <t>火傷</t>
-  </si>
-  <si>
-    <t>Burn</t>
-  </si>
-  <si>
-    <t>화상</t>
-  </si>
-  <si>
-    <t>Bylo uhoreni</t>
-  </si>
-  <si>
-    <t>CODExhaustion</t>
-  </si>
-  <si>
-    <t>過労死</t>
-  </si>
-  <si>
-    <t>Exhaustion</t>
-  </si>
-  <si>
-    <t>과로사</t>
-  </si>
-  <si>
-    <t>Bylo vycerpani</t>
-  </si>
-  <si>
-    <t>CODKnife</t>
-  </si>
-  <si>
-    <t>刃物で刺された</t>
-  </si>
-  <si>
-    <t>Knife</t>
-  </si>
-  <si>
-    <t>칼에 찔림</t>
-  </si>
-  <si>
-    <t>Bylo bodnuti nozem</t>
-  </si>
-  <si>
-    <t>CODBeatenSome</t>
-  </si>
-  <si>
-    <t>何かで殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with something</t>
-  </si>
-  <si>
-    <t>묻지마 폭행</t>
-  </si>
-  <si>
-    <t>Bylo mlacenim neznamym predmetem</t>
-  </si>
-  <si>
-    <t>CODBeatenHand</t>
-  </si>
-  <si>
-    <t>手で殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with hand</t>
-  </si>
-  <si>
-    <t>폭행을 당함</t>
-  </si>
-  <si>
-    <t>Bylo utluceny rukou</t>
-  </si>
-  <si>
-    <t>CODBeatenBlunt</t>
-  </si>
-  <si>
-    <t>鋭いもので殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with blunt</t>
-  </si>
-  <si>
-    <t>날카로운 흉기에 찔림</t>
-  </si>
-  <si>
-    <t>Bylo utluceny tupym predmetem</t>
-  </si>
-  <si>
-    <t>CODShotPistol</t>
-  </si>
-  <si>
-    <t>拳銃で撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by pistol</t>
-  </si>
-  <si>
-    <t>권총으로 피격당함</t>
-  </si>
-  <si>
-    <t>Byl vystrel z pistole</t>
-  </si>
-  <si>
-    <t>CODElectricalShock</t>
-  </si>
-  <si>
-    <t>電気ショック</t>
-  </si>
-  <si>
-    <t>Electrical Shock</t>
-  </si>
-  <si>
-    <t>감전사고</t>
-  </si>
-  <si>
-    <t>Byl elektricky sok</t>
-  </si>
-  <si>
-    <t>CODShotHeavyFirearm</t>
-  </si>
-  <si>
-    <t>重火器で撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by heavy firearm</t>
-  </si>
-  <si>
-    <t>중화기에 피격당함</t>
-  </si>
-  <si>
-    <t>Byl/a strelen/a tezkou strelnou zbrani</t>
-  </si>
-  <si>
-    <t>CODShotShotgun</t>
-  </si>
-  <si>
-    <t>散弾銃で撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by shotgun</t>
-  </si>
-  <si>
-    <t>샷건으로 피격당함</t>
-  </si>
-  <si>
-    <t>Byl vystrel z brokovnice</t>
-  </si>
-  <si>
-    <t>CODShotRifle</t>
-  </si>
-  <si>
-    <t>ライフルで撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by rifle</t>
-  </si>
-  <si>
-    <t>돌격소총으로 피격당함</t>
-  </si>
-  <si>
-    <t>Byl vystrel z pusky</t>
-  </si>
-  <si>
-    <t>CODChoking</t>
-  </si>
-  <si>
-    <t>窒息死</t>
-  </si>
-  <si>
-    <t>Chocking</t>
-  </si>
-  <si>
-    <t>확인 중</t>
-  </si>
-  <si>
-    <t>Bylo skrceni osoby</t>
-  </si>
-  <si>
-    <t>CODUnknown</t>
-  </si>
-  <si>
-    <t>詳細不明</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>알 수 없음</t>
-  </si>
-  <si>
-    <t>Je neznama</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PoliceOfficer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>警察官</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサツカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Police Officer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerComment0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerComment1</t>
+  </si>
+  <si>
+    <t>CoronerComment2</t>
+  </si>
+  <si>
+    <t>CoronerComment3</t>
+  </si>
+  <si>
+    <t>CoronerComment4</t>
+  </si>
+  <si>
+    <t>CoronerComment5</t>
+  </si>
+  <si>
+    <t>CoronerComment6</t>
+  </si>
+  <si>
+    <t>今日も大変な一日だな。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>疲れたよ。家に帰りたい。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>股下以下… 今日で5件目だぞ?</t>
+    <rPh sb="0" eb="2">
+      <t>マタシタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お疲れ様です。さて、仕事仕事。</t>
+    <rPh sb="1" eb="2">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サービス残業突入！ふざけるな！</t>
+    <rPh sb="4" eb="6">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トツニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>俺らみたいに死体の専門家にはなるなよ。</t>
+    <rPh sb="0" eb="1">
+      <t>オレ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>センモンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次会う時、あなたは死体かもしれませんね。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Today is another tough day.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I'm tired. I want to go home!</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Another dead body... it's the 5th one today, huh?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Thank you for your hard work.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This city is full of many dead bodies! Don't be silly!</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Don't be a cadavers expert like us.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The next time we meet, you may be a dead body. hehe</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1235,7 +1259,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1571,15 +1595,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V71"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1644,1291 +1673,1069 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="P5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="V5" t="s">
         <v>27</v>
       </c>
-      <c r="P3" t="s">
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K6" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P6" t="s">
         <v>34</v>
       </c>
-      <c r="P5" t="s">
+      <c r="V6" t="s">
         <v>35</v>
       </c>
-      <c r="V5" t="s">
+    </row>
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
         <v>40</v>
       </c>
-      <c r="I6" t="s">
+      <c r="P7" t="s">
         <v>41</v>
       </c>
-      <c r="K6" t="s">
+      <c r="V7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="O6" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="P6" t="s">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="V6" t="s">
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="I7" t="s">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
         <v>50</v>
       </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="K9" t="s">
         <v>51</v>
       </c>
-      <c r="P7" t="s">
+      <c r="O9" t="s">
         <v>52</v>
       </c>
-      <c r="V7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="P9" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s">
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" t="s">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K10" t="s">
         <v>57</v>
       </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="O10" t="s">
         <v>58</v>
       </c>
-      <c r="P8" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="P10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="V10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H11" t="s">
         <v>63</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K11" t="s">
         <v>64</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O11" t="s">
         <v>65</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P11" t="s">
         <v>66</v>
       </c>
-      <c r="V9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="V11" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="I10" t="s">
+      <c r="E12" t="s">
         <v>70</v>
       </c>
-      <c r="K10" t="s">
+      <c r="H12" t="s">
         <v>71</v>
       </c>
-      <c r="O10" t="s">
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="P10" t="s">
+      <c r="O12" t="s">
         <v>73</v>
       </c>
-      <c r="V10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="P12" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="V12" t="s">
         <v>75</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>76</v>
       </c>
-      <c r="H11" t="s">
+      <c r="B13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I11" t="s">
+      <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="K11" t="s">
+      <c r="H13" t="s">
         <v>79</v>
       </c>
-      <c r="O11" t="s">
+      <c r="K13" t="s">
         <v>80</v>
       </c>
-      <c r="P11" t="s">
+      <c r="O13" t="s">
         <v>81</v>
       </c>
-      <c r="V11" t="s">
+      <c r="P13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="V13" t="s">
         <v>83</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>84</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H12" t="s">
+      <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H14" t="s">
         <v>87</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K14" t="s">
         <v>88</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O14" t="s">
         <v>89</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P14" t="s">
         <v>90</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
         <v>94</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K16" t="s">
         <v>95</v>
       </c>
-      <c r="I13" t="s">
+      <c r="O16" t="s">
         <v>96</v>
       </c>
-      <c r="K13" t="s">
+      <c r="P16" t="s">
         <v>97</v>
       </c>
-      <c r="O13" t="s">
+      <c r="V16" t="s">
         <v>98</v>
       </c>
-      <c r="P13" t="s">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>99</v>
       </c>
-      <c r="V13" t="s">
+      <c r="B17" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="K17" t="s">
         <v>102</v>
       </c>
-      <c r="E14" t="s">
+      <c r="O17" t="s">
         <v>103</v>
       </c>
-      <c r="H14" t="s">
+      <c r="P17" t="s">
         <v>104</v>
       </c>
-      <c r="I14" t="s">
+      <c r="V17" t="s">
         <v>105</v>
       </c>
-      <c r="K14" t="s">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>106</v>
       </c>
-      <c r="O14" t="s">
+      <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="P14" t="s">
+      <c r="E18" t="s">
         <v>108</v>
       </c>
-      <c r="V14" t="s">
+      <c r="H18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="K18" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="O18" t="s">
         <v>111</v>
       </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="P18" t="s">
         <v>112</v>
       </c>
-      <c r="I16" t="s">
+      <c r="V18" t="s">
         <v>113</v>
       </c>
-      <c r="K16" t="s">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>114</v>
       </c>
-      <c r="O16" t="s">
+      <c r="B19" t="s">
         <v>115</v>
       </c>
-      <c r="P16" t="s">
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="s">
         <v>116</v>
       </c>
-      <c r="V16" t="s">
+      <c r="K19" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="O19" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="P19" t="s">
         <v>119</v>
       </c>
-      <c r="E17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="V19" t="s">
         <v>120</v>
       </c>
-      <c r="I17" t="s">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>121</v>
       </c>
-      <c r="K17" t="s">
+      <c r="B21" t="s">
         <v>122</v>
       </c>
-      <c r="O17" t="s">
+      <c r="E21" t="s">
         <v>123</v>
       </c>
-      <c r="P17" t="s">
+      <c r="H21" t="s">
         <v>124</v>
       </c>
-      <c r="V17" t="s">
+      <c r="K21" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="O21" t="s">
         <v>126</v>
       </c>
-      <c r="B18" t="s">
+      <c r="P21" t="s">
         <v>127</v>
       </c>
-      <c r="E18" t="s">
+      <c r="V21" t="s">
         <v>128</v>
       </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>129</v>
       </c>
-      <c r="I18" t="s">
+      <c r="B22" t="s">
         <v>130</v>
       </c>
-      <c r="K18" t="s">
+      <c r="E22" t="s">
         <v>131</v>
       </c>
-      <c r="O18" t="s">
+      <c r="H22" t="s">
         <v>132</v>
       </c>
-      <c r="P18" t="s">
+      <c r="K22" t="s">
         <v>133</v>
       </c>
-      <c r="V18" t="s">
+      <c r="O22" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="P22" t="s">
         <v>135</v>
       </c>
-      <c r="B19" t="s">
+      <c r="V22" t="s">
         <v>136</v>
       </c>
-      <c r="E19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" t="s">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>137</v>
       </c>
-      <c r="I19" t="s">
+      <c r="B23" t="s">
         <v>138</v>
       </c>
-      <c r="K19" t="s">
+      <c r="E23" t="s">
         <v>139</v>
       </c>
-      <c r="O19" t="s">
+      <c r="H23" t="s">
         <v>140</v>
       </c>
-      <c r="P19" t="s">
+      <c r="K23" t="s">
         <v>141</v>
       </c>
-      <c r="V19" t="s">
+      <c r="O23" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="P23" t="s">
         <v>143</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="V23" t="s">
         <v>144</v>
       </c>
-      <c r="H21" t="s">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>145</v>
       </c>
-      <c r="I21" t="s">
+      <c r="B24" t="s">
         <v>146</v>
       </c>
-      <c r="K21" t="s">
+      <c r="E24" t="s">
         <v>147</v>
       </c>
-      <c r="O21" t="s">
+      <c r="H24" t="s">
         <v>148</v>
       </c>
-      <c r="P21" t="s">
+      <c r="K24" t="s">
         <v>149</v>
       </c>
-      <c r="V21" t="s">
+      <c r="O24" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="P24" t="s">
         <v>151</v>
       </c>
-      <c r="B22" t="s">
+      <c r="V24" t="s">
         <v>152</v>
       </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>153</v>
       </c>
-      <c r="H22" t="s">
+      <c r="B25" t="s">
         <v>154</v>
       </c>
-      <c r="I22" t="s">
+      <c r="E25" t="s">
         <v>155</v>
       </c>
-      <c r="K22" t="s">
+      <c r="H25" t="s">
         <v>156</v>
       </c>
-      <c r="O22" t="s">
+      <c r="K25" t="s">
         <v>157</v>
       </c>
-      <c r="P22" t="s">
+      <c r="O25" t="s">
         <v>158</v>
       </c>
-      <c r="V22" t="s">
+      <c r="P25" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="V25" t="s">
         <v>160</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>161</v>
       </c>
-      <c r="E23" t="s">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
         <v>162</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H26" t="s">
         <v>163</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K26" t="s">
         <v>164</v>
       </c>
-      <c r="K23" t="s">
+      <c r="O26" t="s">
         <v>165</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P26" t="s">
         <v>166</v>
       </c>
-      <c r="P23" t="s">
+      <c r="V26" t="s">
         <v>167</v>
       </c>
-      <c r="V23" t="s">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B27" t="s">
         <v>169</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E27" t="s">
         <v>170</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H27" t="s">
         <v>171</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K27" t="s">
         <v>172</v>
       </c>
-      <c r="I24" t="s">
+      <c r="O27" t="s">
         <v>173</v>
       </c>
-      <c r="K24" t="s">
+      <c r="P27" t="s">
         <v>174</v>
       </c>
-      <c r="O24" t="s">
+      <c r="V27" t="s">
         <v>175</v>
       </c>
-      <c r="P24" t="s">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>176</v>
       </c>
-      <c r="V24" t="s">
+      <c r="B29" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>178</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>179</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E30" t="s">
         <v>180</v>
       </c>
-      <c r="H25" t="s">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>181</v>
       </c>
-      <c r="I25" t="s">
+      <c r="B31" t="s">
         <v>182</v>
       </c>
-      <c r="K25" t="s">
+      <c r="E31" t="s">
         <v>183</v>
       </c>
-      <c r="O25" t="s">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>184</v>
       </c>
-      <c r="P25" t="s">
+      <c r="B32" t="s">
         <v>185</v>
       </c>
-      <c r="V25" t="s">
+      <c r="E32" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>187</v>
       </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="B33" t="s">
         <v>188</v>
       </c>
-      <c r="H26" t="s">
+      <c r="E33" t="s">
         <v>189</v>
       </c>
-      <c r="I26" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>190</v>
       </c>
-      <c r="K26" t="s">
+      <c r="B34" t="s">
         <v>191</v>
       </c>
-      <c r="O26" t="s">
+      <c r="E34" t="s">
         <v>192</v>
       </c>
-      <c r="P26" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>193</v>
       </c>
-      <c r="V26" t="s">
+      <c r="B36" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="E36" t="s">
         <v>195</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>196</v>
       </c>
-      <c r="E27" t="s">
+      <c r="B37" t="s">
         <v>197</v>
       </c>
-      <c r="H27" t="s">
+      <c r="E37" t="s">
         <v>198</v>
       </c>
-      <c r="I27" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>199</v>
       </c>
-      <c r="K27" t="s">
+      <c r="B38" t="s">
         <v>200</v>
       </c>
-      <c r="O27" t="s">
+      <c r="E38" t="s">
         <v>201</v>
       </c>
-      <c r="P27" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>202</v>
       </c>
-      <c r="V27" t="s">
+      <c r="B39" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E39" t="s">
         <v>204</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>205</v>
       </c>
-      <c r="E29" t="s">
-        <v>204</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="B41" t="s">
         <v>206</v>
       </c>
-      <c r="P29" t="s">
+      <c r="E41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B42" t="s">
         <v>208</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>209</v>
       </c>
-      <c r="E30" t="s">
+      <c r="B43" t="s">
         <v>210</v>
       </c>
-      <c r="I30" t="s">
+      <c r="E43" t="s">
         <v>211</v>
       </c>
-      <c r="P30" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B44" t="s">
         <v>213</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E44" t="s">
         <v>214</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>215</v>
       </c>
-      <c r="I31" t="s">
+      <c r="B46" t="s">
         <v>216</v>
       </c>
-      <c r="P31" t="s">
+      <c r="E46" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>218</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B47" t="s">
         <v>219</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E47" t="s">
         <v>220</v>
       </c>
-      <c r="I32" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>221</v>
       </c>
-      <c r="P32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" t="s">
-        <v>224</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B49" t="s">
+        <v>287</v>
+      </c>
+      <c r="E49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>230</v>
+      </c>
+      <c r="B54" t="s">
+        <v>244</v>
+      </c>
+      <c r="E54" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" t="s">
         <v>225</v>
       </c>
-      <c r="I33" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" t="s">
+        <v>249</v>
+      </c>
+      <c r="E57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" t="s">
         <v>226</v>
       </c>
-      <c r="P33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" t="s">
         <v>228</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61" t="s">
+        <v>255</v>
+      </c>
+      <c r="E61" t="s">
         <v>229</v>
       </c>
-      <c r="E34" t="s">
-        <v>230</v>
-      </c>
-      <c r="I34" t="s">
-        <v>231</v>
-      </c>
-      <c r="P34" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" t="s">
+        <v>260</v>
+      </c>
+      <c r="E64" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B65" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>233</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B66" t="s">
+        <v>262</v>
+      </c>
+      <c r="E66" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>234</v>
       </c>
-      <c r="E36" t="s">
+      <c r="B67" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>235</v>
       </c>
-      <c r="I36" t="s">
+      <c r="B68" t="s">
+        <v>264</v>
+      </c>
+      <c r="E68" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>236</v>
       </c>
-      <c r="P36" t="s">
+      <c r="B69" t="s">
+        <v>265</v>
+      </c>
+      <c r="E69" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>266</v>
+      </c>
+      <c r="B70" t="s">
+        <v>267</v>
+      </c>
+      <c r="E70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" t="s">
-        <v>239</v>
-      </c>
-      <c r="E37" t="s">
-        <v>240</v>
-      </c>
-      <c r="I37" t="s">
-        <v>241</v>
-      </c>
-      <c r="P37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B38" t="s">
-        <v>244</v>
-      </c>
-      <c r="E38" t="s">
-        <v>245</v>
-      </c>
-      <c r="I38" t="s">
-        <v>246</v>
-      </c>
-      <c r="P38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>248</v>
-      </c>
-      <c r="B39" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" t="s">
-        <v>250</v>
-      </c>
-      <c r="I39" t="s">
-        <v>251</v>
-      </c>
-      <c r="P39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>253</v>
-      </c>
-      <c r="B41" t="s">
-        <v>254</v>
-      </c>
-      <c r="E41" t="s">
-        <v>253</v>
-      </c>
-      <c r="I41" t="s">
-        <v>255</v>
-      </c>
-      <c r="P41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>257</v>
-      </c>
-      <c r="B42" t="s">
-        <v>258</v>
-      </c>
-      <c r="E42" t="s">
-        <v>257</v>
-      </c>
-      <c r="I42" t="s">
-        <v>259</v>
-      </c>
-      <c r="P42" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>261</v>
-      </c>
-      <c r="B43" t="s">
-        <v>262</v>
-      </c>
-      <c r="E43" t="s">
-        <v>263</v>
-      </c>
-      <c r="I43" t="s">
-        <v>264</v>
-      </c>
-      <c r="P43" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>266</v>
-      </c>
-      <c r="B44" t="s">
-        <v>267</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="B71" t="s">
         <v>268</v>
       </c>
-      <c r="I44" t="s">
+      <c r="E71" t="s">
         <v>269</v>
       </c>
-      <c r="P44" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>271</v>
-      </c>
-      <c r="B46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E46" t="s">
-        <v>273</v>
-      </c>
-      <c r="I46" t="s">
-        <v>274</v>
-      </c>
-      <c r="P46" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>276</v>
-      </c>
-      <c r="B47" t="s">
-        <v>277</v>
-      </c>
-      <c r="E47" t="s">
-        <v>278</v>
-      </c>
-      <c r="I47" t="s">
-        <v>279</v>
-      </c>
-      <c r="P47" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>281</v>
-      </c>
-      <c r="B49" t="s">
-        <v>282</v>
-      </c>
-      <c r="E49" t="s">
-        <v>283</v>
-      </c>
-      <c r="I49" t="s">
-        <v>284</v>
-      </c>
-      <c r="P49" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>286</v>
-      </c>
-      <c r="B51" t="s">
-        <v>287</v>
-      </c>
-      <c r="E51" t="s">
-        <v>288</v>
-      </c>
-      <c r="I51" t="s">
-        <v>289</v>
-      </c>
-      <c r="P51" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>291</v>
-      </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>292</v>
       </c>
-      <c r="E52" t="s">
+      <c r="B73" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>293</v>
       </c>
-      <c r="I52" t="s">
+      <c r="B74" t="s">
+        <v>300</v>
+      </c>
+      <c r="E74" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>294</v>
       </c>
-      <c r="P52" t="s">
+      <c r="B75" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B76" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>296</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B77" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>297</v>
       </c>
-      <c r="E53" t="s">
+      <c r="B78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>298</v>
       </c>
-      <c r="I53" t="s">
-        <v>299</v>
-      </c>
-      <c r="P53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>301</v>
-      </c>
-      <c r="B54" t="s">
-        <v>302</v>
-      </c>
-      <c r="E54" t="s">
-        <v>303</v>
-      </c>
-      <c r="I54" t="s">
-        <v>304</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="B79" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>306</v>
-      </c>
-      <c r="B55" t="s">
-        <v>307</v>
-      </c>
-      <c r="E55" t="s">
-        <v>308</v>
-      </c>
-      <c r="I55" t="s">
-        <v>309</v>
-      </c>
-      <c r="P55" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>311</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="E79" t="s">
         <v>312</v>
       </c>
-      <c r="E56" t="s">
-        <v>313</v>
-      </c>
-      <c r="I56" t="s">
-        <v>314</v>
-      </c>
-      <c r="P56" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>316</v>
-      </c>
-      <c r="B57" t="s">
-        <v>317</v>
-      </c>
-      <c r="E57" t="s">
-        <v>318</v>
-      </c>
-      <c r="I57" t="s">
-        <v>319</v>
-      </c>
-      <c r="P57" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>321</v>
-      </c>
-      <c r="B58" t="s">
-        <v>322</v>
-      </c>
-      <c r="E58" t="s">
-        <v>323</v>
-      </c>
-      <c r="I58" t="s">
-        <v>324</v>
-      </c>
-      <c r="P58" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>326</v>
-      </c>
-      <c r="B59" t="s">
-        <v>327</v>
-      </c>
-      <c r="E59" t="s">
-        <v>328</v>
-      </c>
-      <c r="I59" t="s">
-        <v>329</v>
-      </c>
-      <c r="P59" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>331</v>
-      </c>
-      <c r="B60" t="s">
-        <v>332</v>
-      </c>
-      <c r="E60" t="s">
-        <v>333</v>
-      </c>
-      <c r="I60" t="s">
-        <v>334</v>
-      </c>
-      <c r="P60" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>336</v>
-      </c>
-      <c r="B61" t="s">
-        <v>337</v>
-      </c>
-      <c r="E61" t="s">
-        <v>338</v>
-      </c>
-      <c r="I61" t="s">
-        <v>339</v>
-      </c>
-      <c r="P61" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>341</v>
-      </c>
-      <c r="B62" t="s">
-        <v>342</v>
-      </c>
-      <c r="E62" t="s">
-        <v>343</v>
-      </c>
-      <c r="I62" t="s">
-        <v>344</v>
-      </c>
-      <c r="P62" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>346</v>
-      </c>
-      <c r="B63" t="s">
-        <v>347</v>
-      </c>
-      <c r="E63" t="s">
-        <v>348</v>
-      </c>
-      <c r="I63" t="s">
-        <v>349</v>
-      </c>
-      <c r="P63" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>351</v>
-      </c>
-      <c r="B64" t="s">
-        <v>352</v>
-      </c>
-      <c r="E64" t="s">
-        <v>353</v>
-      </c>
-      <c r="I64" t="s">
-        <v>354</v>
-      </c>
-      <c r="P64" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>356</v>
-      </c>
-      <c r="B65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E65" t="s">
-        <v>358</v>
-      </c>
-      <c r="I65" t="s">
-        <v>359</v>
-      </c>
-      <c r="P65" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>361</v>
-      </c>
-      <c r="B66" t="s">
-        <v>362</v>
-      </c>
-      <c r="E66" t="s">
-        <v>363</v>
-      </c>
-      <c r="I66" t="s">
-        <v>364</v>
-      </c>
-      <c r="P66" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>366</v>
-      </c>
-      <c r="B67" t="s">
-        <v>367</v>
-      </c>
-      <c r="E67" t="s">
-        <v>368</v>
-      </c>
-      <c r="I67" t="s">
-        <v>369</v>
-      </c>
-      <c r="P67" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>371</v>
-      </c>
-      <c r="B68" t="s">
-        <v>372</v>
-      </c>
-      <c r="E68" t="s">
-        <v>373</v>
-      </c>
-      <c r="I68" t="s">
-        <v>374</v>
-      </c>
-      <c r="P68" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>376</v>
-      </c>
-      <c r="B69" t="s">
-        <v>377</v>
-      </c>
-      <c r="E69" t="s">
-        <v>378</v>
-      </c>
-      <c r="I69" t="s">
-        <v>379</v>
-      </c>
-      <c r="P69" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>381</v>
-      </c>
-      <c r="B70" t="s">
-        <v>382</v>
-      </c>
-      <c r="E70" t="s">
-        <v>383</v>
-      </c>
-      <c r="I70" t="s">
-        <v>384</v>
-      </c>
-      <c r="P70" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>386</v>
-      </c>
-      <c r="B71" t="s">
-        <v>387</v>
-      </c>
-      <c r="E71" t="s">
-        <v>388</v>
-      </c>
-      <c r="I71" t="s">
-        <v>389</v>
-      </c>
-      <c r="P71" t="s">
-        <v>390</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/Backup.xlsx
+++ b/ja/Backup.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F23C16-57A6-499E-BD19-65799F3F17E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="313">
   <si>
     <t>日本語</t>
   </si>
@@ -76,30 +80,6 @@
     <t>リトアニア語</t>
   </si>
   <si>
-    <t>PoliceOfficer</t>
-  </si>
-  <si>
-    <t>警察官</t>
-  </si>
-  <si>
-    <t>Police Officer</t>
-  </si>
-  <si>
-    <t>BackupResponseUnitType</t>
-  </si>
-  <si>
-    <t>応援の種類</t>
-  </si>
-  <si>
-    <t>Backup Response</t>
-  </si>
-  <si>
-    <t>기관 지원요청 종류</t>
-  </si>
-  <si>
-    <t>Typ zalozni odezvy</t>
-  </si>
-  <si>
     <t>BackupLocal</t>
   </si>
   <si>
@@ -110,9 +90,6 @@
   </si>
   <si>
     <t>Locale</t>
-  </si>
-  <si>
-    <t>인근 순찰차 지원요청</t>
   </si>
   <si>
     <t xml:space="preserve">Asayiş
@@ -137,9 +114,6 @@
     <t xml:space="preserve">Statale </t>
   </si>
   <si>
-    <t>본청 지원요청</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -164,9 +138,6 @@
     <t xml:space="preserve">Squadre Speciali </t>
   </si>
   <si>
-    <t>경찰기동대(POSS)</t>
-  </si>
-  <si>
     <t>Polis Özel Harekat</t>
   </si>
   <si>
@@ -185,9 +156,6 @@
     <t xml:space="preserve">Squadre speciale </t>
   </si>
   <si>
-    <t>경찰특공대(SOU)</t>
-  </si>
-  <si>
     <t>Jandarma Özel Harekat</t>
   </si>
   <si>
@@ -203,9 +171,6 @@
     <t xml:space="preserve">Elicottero </t>
   </si>
   <si>
-    <t>본서 항공지원</t>
-  </si>
-  <si>
     <t>Helicóptero Local</t>
   </si>
   <si>
@@ -224,9 +189,6 @@
     <t xml:space="preserve">Elicottero squadra speciale </t>
   </si>
   <si>
-    <t>경찰특공대 항공지원</t>
-  </si>
-  <si>
     <t>Helicóptero Noose</t>
   </si>
   <si>
@@ -248,9 +210,6 @@
     <t xml:space="preserve">Vigili del fuoco </t>
   </si>
   <si>
-    <t>119 화재 지원요청</t>
-  </si>
-  <si>
     <t>Bombeiros</t>
   </si>
   <si>
@@ -275,9 +234,6 @@
     <t>Ambulanza</t>
   </si>
   <si>
-    <t>119 구급 지원요청</t>
-  </si>
-  <si>
     <t>Ambulância</t>
   </si>
   <si>
@@ -302,9 +258,6 @@
     <t>Sesso Maschio</t>
   </si>
   <si>
-    <t>성별-남성</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -329,9 +282,6 @@
     <t>Sesso Femmina</t>
   </si>
   <si>
-    <t>성별-여성</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -353,9 +303,6 @@
     <t>Codice 2</t>
   </si>
   <si>
-    <t>비 긴급출동- 코드2</t>
-  </si>
-  <si>
     <t>Código 2</t>
   </si>
   <si>
@@ -377,9 +324,6 @@
     <t>Codice 3</t>
   </si>
   <si>
-    <t>긴급출동- 코드1</t>
-  </si>
-  <si>
     <t>Código 3</t>
   </si>
   <si>
@@ -404,9 +348,6 @@
     <t xml:space="preserve">Posto di blocco </t>
   </si>
   <si>
-    <t>교통통제</t>
-  </si>
-  <si>
     <t>Parada de Trânsito</t>
   </si>
   <si>
@@ -428,9 +369,6 @@
     <t>Inseguimento</t>
   </si>
   <si>
-    <t>차량도주</t>
-  </si>
-  <si>
     <t>Perseguição</t>
   </si>
   <si>
@@ -446,15 +384,15 @@
     <t>PatrolUnit</t>
   </si>
   <si>
+    <t>警察官</t>
+  </si>
+  <si>
     <t>Patrol Unit</t>
   </si>
   <si>
     <t xml:space="preserve">Unità di pattuglia </t>
   </si>
   <si>
-    <t>교통경찰</t>
-  </si>
-  <si>
     <t>Unidade de Patrulha</t>
   </si>
   <si>
@@ -479,9 +417,6 @@
     <t>Unità pattuglia uomo</t>
   </si>
   <si>
-    <t>남경</t>
-  </si>
-  <si>
     <t>Unidade de Patrulha Masculina</t>
   </si>
   <si>
@@ -506,9 +441,6 @@
     <t>Unità pattuglia donna</t>
   </si>
   <si>
-    <t>여경</t>
-  </si>
-  <si>
     <t>Unidade de Patrulha Feminina</t>
   </si>
   <si>
@@ -533,9 +465,6 @@
     <t>Unità motorizzata</t>
   </si>
   <si>
-    <t>자전거 순경</t>
-  </si>
-  <si>
     <t>Unidade de Motocicleta</t>
   </si>
   <si>
@@ -560,9 +489,6 @@
     <t xml:space="preserve">Unità speciale </t>
   </si>
   <si>
-    <t>특수 작전병력</t>
-  </si>
-  <si>
     <t>Unidade Especial</t>
   </si>
   <si>
@@ -584,9 +510,6 @@
     <t>Supporto aereo</t>
   </si>
   <si>
-    <t>항공대</t>
-  </si>
-  <si>
     <t>Unidade de Helicóptero</t>
   </si>
   <si>
@@ -611,9 +534,6 @@
     <t>Servizio Di Emergenza</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>Serviço de Emergência</t>
   </si>
   <si>
@@ -632,12 +552,6 @@
     <t>検視官</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI)</t>
-  </si>
-  <si>
-    <t>Koroner</t>
-  </si>
-  <si>
     <t>NoDeadBodies</t>
   </si>
   <si>
@@ -647,12 +561,6 @@
     <t>There is no ~r~dead bodies~s~ nearby you.</t>
   </si>
   <si>
-    <t>시체 미발견</t>
-  </si>
-  <si>
-    <t>V tve blizkosti nejsou zadna ~r~mrtva tela~~~.</t>
-  </si>
-  <si>
     <t>UnitRequested</t>
   </si>
   <si>
@@ -662,12 +570,6 @@
     <t>Requested ~b~{0}~s~ unit to Dispatch.</t>
   </si>
   <si>
-    <t>지원병력 요청</t>
-  </si>
-  <si>
-    <t>Pozadovana jednotka ~b~{0}~s~ se odesila do akce.</t>
-  </si>
-  <si>
     <t>CoronerCheckPls</t>
   </si>
   <si>
@@ -677,12 +579,6 @@
     <t>You can check ~b~Coroner's Report~s~ for more information.</t>
   </si>
   <si>
-    <t>자세한 정보는 과학수사관리관(KCSI)의 현장 감식 보고서를 확인해주세요.</t>
-  </si>
-  <si>
-    <t>Dalsi informace najdete v ~b~Koroner zprave~s~.</t>
-  </si>
-  <si>
     <t>CoronerBye</t>
   </si>
   <si>
@@ -692,12 +588,6 @@
     <t>Have a nice day! Officer!</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI) 현장 감식 종료</t>
-  </si>
-  <si>
-    <t>Hezky den! Dustojniku!</t>
-  </si>
-  <si>
     <t>TeleportUnit</t>
   </si>
   <si>
@@ -707,12 +597,6 @@
     <t>Press {0} to teleport the backup unit nearby.</t>
   </si>
   <si>
-    <t>지원병력을 근처로 이동 시킵니다.</t>
-  </si>
-  <si>
-    <t>Stisknutim tlacitka {0} teleportujete zalozni jednotku pobliz k vam.</t>
-  </si>
-  <si>
     <t>CoronerMenu</t>
   </si>
   <si>
@@ -722,12 +606,6 @@
     <t>Coroner Menu</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI) 메뉴</t>
-  </si>
-  <si>
-    <t>Koroner Menu</t>
-  </si>
-  <si>
     <t>CoronerReport</t>
   </si>
   <si>
@@ -737,12 +615,6 @@
     <t>Coroner Report</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI) 현장 감식 보고서</t>
-  </si>
-  <si>
-    <t>Koroner Zprava</t>
-  </si>
-  <si>
     <t>CoronerReportCount</t>
   </si>
   <si>
@@ -752,12 +624,6 @@
     <t>Report Count: {0}</t>
   </si>
   <si>
-    <t>과학수사관리관(KCSI) 현장 감식 보고서 건수</t>
-  </si>
-  <si>
-    <t>Pocet prehledu: {0}</t>
-  </si>
-  <si>
     <t>NoData</t>
   </si>
   <si>
@@ -767,36 +633,18 @@
     <t>No Data</t>
   </si>
   <si>
-    <t>정보없음</t>
-  </si>
-  <si>
-    <t>Zadna data</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>名前</t>
   </si>
   <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>Nazev</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
     <t>性別</t>
   </si>
   <si>
-    <t>성별</t>
-  </si>
-  <si>
-    <t>Pohlavi</t>
-  </si>
-  <si>
     <t>CauseOfDeath</t>
   </si>
   <si>
@@ -806,12 +654,6 @@
     <t>Cause of Death</t>
   </si>
   <si>
-    <t>사인</t>
-  </si>
-  <si>
-    <t>Pricina smrti</t>
-  </si>
-  <si>
     <t>DiedDay</t>
   </si>
   <si>
@@ -821,12 +663,6 @@
     <t>Died Day</t>
   </si>
   <si>
-    <t>사망시각</t>
-  </si>
-  <si>
-    <t>Den smrti</t>
-  </si>
-  <si>
     <t>BackupVehicle</t>
   </si>
   <si>
@@ -836,12 +672,6 @@
     <t>Backup Vehicle</t>
   </si>
   <si>
-    <t>차량지원 요청</t>
-  </si>
-  <si>
-    <t>Zalozni vozidlo</t>
-  </si>
-  <si>
     <t>BackupOfficer</t>
   </si>
   <si>
@@ -851,424 +681,555 @@
     <t>Backup Officer</t>
   </si>
   <si>
-    <t>순경 지원요청</t>
-  </si>
-  <si>
-    <t>Zalozni dustojnik</t>
-  </si>
-  <si>
     <t>AllDismissItem</t>
   </si>
   <si>
+    <t>BackupResponseUnitType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>応援の種類</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backup Response</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>Drownding</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>Exhaustion</t>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODAnimal</t>
+  </si>
+  <si>
+    <t>CODKnife</t>
+  </si>
+  <si>
+    <t>CODShotPistol</t>
+  </si>
+  <si>
+    <t>CODElectricalShock</t>
+  </si>
+  <si>
+    <t>CODShotHeavyFirearm</t>
+  </si>
+  <si>
+    <t>CODShotShotgun</t>
+  </si>
+  <si>
+    <t>CODShotRifle</t>
+  </si>
+  <si>
+    <t>CODUnknown</t>
+  </si>
+  <si>
+    <t>強打</t>
+    <rPh sb="0" eb="2">
+      <t>キョウダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBang</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODRunOverByCar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>車に轢かれた</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODFall</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高所から落下</t>
+    <rPh sb="0" eb="2">
+      <t>コウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動物による傷害</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>爆発</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBleeding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大量出血</t>
+    <rPh sb="0" eb="4">
+      <t>タイリョウシュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBarbedWire</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有刺鉄線</t>
+    <rPh sb="0" eb="4">
+      <t>ユウシテッセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>溺死</t>
+    <rPh sb="0" eb="2">
+      <t>デキシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBurn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火傷</t>
+    <rPh sb="0" eb="2">
+      <t>ヤケド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODExhaustion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過労死</t>
+    <rPh sb="0" eb="3">
+      <t>カロウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刃物で刺された</t>
+    <rPh sb="0" eb="2">
+      <t>ハモノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenSome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何かで殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手で殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenBlunt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鋭いもので殴られた</t>
+    <rPh sb="0" eb="1">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拳銃で撃たれた</t>
+    <rPh sb="0" eb="2">
+      <t>ケンジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気ショック</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重火器で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウカキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>散弾銃で撃たれた</t>
+    <rPh sb="0" eb="3">
+      <t>サンダンジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフルで撃たれた</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODChoking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窒息死</t>
+    <rPh sb="0" eb="3">
+      <t>チッソクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細不明</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run over by car</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fell from high place</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Injured by an animal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODExplosion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Barbed Wire</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODDrownding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Burn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODBeatenHand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with something</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with blunt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Beaten with hand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by pistol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Electrical Shock</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by heavy firearm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by shotgun</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shot by rifle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>全応援を解散</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>All Units Dismiss</t>
-  </si>
-  <si>
-    <t>모두 해산</t>
-  </si>
-  <si>
-    <t>Vsechny jednotky propusteny</t>
-  </si>
-  <si>
-    <t>CODBang</t>
-  </si>
-  <si>
-    <t>強打</t>
-  </si>
-  <si>
-    <t>Hit Somebody Hard</t>
-  </si>
-  <si>
-    <t>강타</t>
-  </si>
-  <si>
-    <t>Byl/a uderen/a neznamim predmetem</t>
-  </si>
-  <si>
-    <t>CODRunOverByCar</t>
-  </si>
-  <si>
-    <t>車に轢かれた</t>
-  </si>
-  <si>
-    <t>Run over by car</t>
-  </si>
-  <si>
-    <t>교통사고가 발생함</t>
-  </si>
-  <si>
-    <t>Byl/a prejet/a autem</t>
-  </si>
-  <si>
-    <t>CODFall</t>
-  </si>
-  <si>
-    <t>高所から落下</t>
-  </si>
-  <si>
-    <t>Fell from high place</t>
-  </si>
-  <si>
-    <t>낙상사고</t>
-  </si>
-  <si>
-    <t>Spadl/a z vysokeho mista</t>
-  </si>
-  <si>
-    <t>CODAnimal</t>
-  </si>
-  <si>
-    <t>動物による傷害</t>
-  </si>
-  <si>
-    <t>Injured by an animal</t>
-  </si>
-  <si>
-    <t>동물</t>
-  </si>
-  <si>
-    <t>Byl/a zranen/a zveri</t>
-  </si>
-  <si>
-    <t>CODExplosion</t>
-  </si>
-  <si>
-    <t>爆発</t>
-  </si>
-  <si>
-    <t>Explosion</t>
-  </si>
-  <si>
-    <t>폭발</t>
-  </si>
-  <si>
-    <t>Byla exploze</t>
-  </si>
-  <si>
-    <t>CODBleeding</t>
-  </si>
-  <si>
-    <t>大量出血</t>
-  </si>
-  <si>
-    <t>Bleeding</t>
-  </si>
-  <si>
-    <t>과다출혈</t>
-  </si>
-  <si>
-    <t>Bylo vykrvaceni</t>
-  </si>
-  <si>
-    <t>CODBarbedWire</t>
-  </si>
-  <si>
-    <t>有刺鉄線</t>
-  </si>
-  <si>
-    <t>Barbed Wire</t>
-  </si>
-  <si>
-    <t>철책</t>
-  </si>
-  <si>
-    <t>Byl ostnaty drat</t>
-  </si>
-  <si>
-    <t>CODDrownding</t>
-  </si>
-  <si>
-    <t>溺死</t>
-  </si>
-  <si>
-    <t>Drownding</t>
-  </si>
-  <si>
-    <t>익사사고</t>
-  </si>
-  <si>
-    <t>Bylo utopeni</t>
-  </si>
-  <si>
-    <t>CODBurn</t>
-  </si>
-  <si>
-    <t>火傷</t>
-  </si>
-  <si>
-    <t>Burn</t>
-  </si>
-  <si>
-    <t>화상</t>
-  </si>
-  <si>
-    <t>Bylo uhoreni</t>
-  </si>
-  <si>
-    <t>CODExhaustion</t>
-  </si>
-  <si>
-    <t>過労死</t>
-  </si>
-  <si>
-    <t>Exhaustion</t>
-  </si>
-  <si>
-    <t>과로사</t>
-  </si>
-  <si>
-    <t>Bylo vycerpani</t>
-  </si>
-  <si>
-    <t>CODKnife</t>
-  </si>
-  <si>
-    <t>刃物で刺された</t>
-  </si>
-  <si>
-    <t>Knife</t>
-  </si>
-  <si>
-    <t>칼에 찔림</t>
-  </si>
-  <si>
-    <t>Bylo bodnuti nozem</t>
-  </si>
-  <si>
-    <t>CODBeatenSome</t>
-  </si>
-  <si>
-    <t>何かで殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with something</t>
-  </si>
-  <si>
-    <t>묻지마 폭행</t>
-  </si>
-  <si>
-    <t>Bylo mlacenim neznamym predmetem</t>
-  </si>
-  <si>
-    <t>CODBeatenHand</t>
-  </si>
-  <si>
-    <t>手で殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with hand</t>
-  </si>
-  <si>
-    <t>폭행을 당함</t>
-  </si>
-  <si>
-    <t>Bylo utluceny rukou</t>
-  </si>
-  <si>
-    <t>CODBeatenBlunt</t>
-  </si>
-  <si>
-    <t>鋭いもので殴られた</t>
-  </si>
-  <si>
-    <t>Beaten with blunt</t>
-  </si>
-  <si>
-    <t>날카로운 흉기에 찔림</t>
-  </si>
-  <si>
-    <t>Bylo utluceny tupym predmetem</t>
-  </si>
-  <si>
-    <t>CODShotPistol</t>
-  </si>
-  <si>
-    <t>拳銃で撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by pistol</t>
-  </si>
-  <si>
-    <t>권총으로 피격당함</t>
-  </si>
-  <si>
-    <t>Byl vystrel z pistole</t>
-  </si>
-  <si>
-    <t>CODElectricalShock</t>
-  </si>
-  <si>
-    <t>電気ショック</t>
-  </si>
-  <si>
-    <t>Electrical Shock</t>
-  </si>
-  <si>
-    <t>감전사고</t>
-  </si>
-  <si>
-    <t>Byl elektricky sok</t>
-  </si>
-  <si>
-    <t>CODShotHeavyFirearm</t>
-  </si>
-  <si>
-    <t>重火器で撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by heavy firearm</t>
-  </si>
-  <si>
-    <t>중화기에 피격당함</t>
-  </si>
-  <si>
-    <t>Byl/a strelen/a tezkou strelnou zbrani</t>
-  </si>
-  <si>
-    <t>CODShotShotgun</t>
-  </si>
-  <si>
-    <t>散弾銃で撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by shotgun</t>
-  </si>
-  <si>
-    <t>샷건으로 피격당함</t>
-  </si>
-  <si>
-    <t>Byl vystrel z brokovnice</t>
-  </si>
-  <si>
-    <t>CODShotRifle</t>
-  </si>
-  <si>
-    <t>ライフルで撃たれた</t>
-  </si>
-  <si>
-    <t>Shot by rifle</t>
-  </si>
-  <si>
-    <t>돌격소총으로 피격당함</t>
-  </si>
-  <si>
-    <t>Byl vystrel z pusky</t>
-  </si>
-  <si>
-    <t>CODChoking</t>
-  </si>
-  <si>
-    <t>窒息死</t>
-  </si>
-  <si>
-    <t>Chocking</t>
-  </si>
-  <si>
-    <t>확인 중</t>
-  </si>
-  <si>
-    <t>Bylo skrceni osoby</t>
-  </si>
-  <si>
-    <t>CODUnknown</t>
-  </si>
-  <si>
-    <t>詳細不明</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>알 수 없음</t>
-  </si>
-  <si>
-    <t>Je neznama</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PoliceOfficer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>警察官</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサツカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Police Officer</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoronerComment0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CoronerComment1</t>
+  </si>
+  <si>
+    <t>CoronerComment2</t>
+  </si>
+  <si>
+    <t>CoronerComment3</t>
+  </si>
+  <si>
+    <t>CoronerComment4</t>
+  </si>
+  <si>
+    <t>CoronerComment5</t>
+  </si>
+  <si>
+    <t>CoronerComment6</t>
   </si>
   <si>
     <t>今日も大変な一日だな。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>疲れたよ。家に帰りたい。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>股下以下… 今日で5件目だぞ?</t>
+    <rPh sb="0" eb="2">
+      <t>マタシタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お疲れ様です。さて、仕事仕事。</t>
+    <rPh sb="1" eb="2">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サービス残業突入！ふざけるな！</t>
+    <rPh sb="4" eb="6">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トツニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>俺らみたいに死体の専門家にはなるなよ。</t>
+    <rPh sb="0" eb="1">
+      <t>オレ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>センモンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次会う時、あなたは死体かもしれませんね。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Today is another tough day.</t>
-  </si>
-  <si>
-    <t>CoronerComment1</t>
-  </si>
-  <si>
-    <t>疲れたよ。家に帰りたい。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>I'm tired. I want to go home!</t>
-  </si>
-  <si>
-    <t>CoronerComment2</t>
-  </si>
-  <si>
-    <t>股下以下… 今日で5件目だぞ?</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Another dead body... it's the 5th one today, huh?</t>
-  </si>
-  <si>
-    <t>CoronerComment3</t>
-  </si>
-  <si>
-    <t>お疲れ様です。さて、仕事仕事。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Thank you for your hard work.</t>
-  </si>
-  <si>
-    <t>CoronerComment4</t>
-  </si>
-  <si>
-    <t>サービス残業突入！ふざけるな！</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>This city is full of many dead bodies! Don't be silly!</t>
-  </si>
-  <si>
-    <t>CoronerComment5</t>
-  </si>
-  <si>
-    <t>俺らみたいに死体の専門家にはなるなよ。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Don't be a cadavers expert like us.</t>
-  </si>
-  <si>
-    <t>CoronerComment6</t>
-  </si>
-  <si>
-    <t>次会う時、あなたは死体かもしれませんね。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>The next time we meet, you may be a dead body. hehe</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1298,7 +1259,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1634,15 +1595,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V79"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1707,1368 +1673,1069 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="P5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="V5" t="s">
         <v>27</v>
       </c>
-      <c r="P3" t="s">
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K6" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P6" t="s">
         <v>34</v>
       </c>
-      <c r="P5" t="s">
+      <c r="V6" t="s">
         <v>35</v>
       </c>
-      <c r="V5" t="s">
+    </row>
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
         <v>40</v>
       </c>
-      <c r="I6" t="s">
+      <c r="P7" t="s">
         <v>41</v>
       </c>
-      <c r="K6" t="s">
+      <c r="V7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="O6" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="P6" t="s">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="V6" t="s">
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="I7" t="s">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
         <v>50</v>
       </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="K9" t="s">
         <v>51</v>
       </c>
-      <c r="P7" t="s">
+      <c r="O9" t="s">
         <v>52</v>
       </c>
-      <c r="V7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="P9" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s">
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" t="s">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K10" t="s">
         <v>57</v>
       </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="O10" t="s">
         <v>58</v>
       </c>
-      <c r="P8" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="P10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="V10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H11" t="s">
         <v>63</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K11" t="s">
         <v>64</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O11" t="s">
         <v>65</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P11" t="s">
         <v>66</v>
       </c>
-      <c r="V9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="V11" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="I10" t="s">
+      <c r="E12" t="s">
         <v>70</v>
       </c>
-      <c r="K10" t="s">
+      <c r="H12" t="s">
         <v>71</v>
       </c>
-      <c r="O10" t="s">
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="P10" t="s">
+      <c r="O12" t="s">
         <v>73</v>
       </c>
-      <c r="V10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="P12" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="V12" t="s">
         <v>75</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>76</v>
       </c>
-      <c r="H11" t="s">
+      <c r="B13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I11" t="s">
+      <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="K11" t="s">
+      <c r="H13" t="s">
         <v>79</v>
       </c>
-      <c r="O11" t="s">
+      <c r="K13" t="s">
         <v>80</v>
       </c>
-      <c r="P11" t="s">
+      <c r="O13" t="s">
         <v>81</v>
       </c>
-      <c r="V11" t="s">
+      <c r="P13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="V13" t="s">
         <v>83</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>84</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H12" t="s">
+      <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H14" t="s">
         <v>87</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K14" t="s">
         <v>88</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O14" t="s">
         <v>89</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P14" t="s">
         <v>90</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
         <v>94</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K16" t="s">
         <v>95</v>
       </c>
-      <c r="I13" t="s">
+      <c r="O16" t="s">
         <v>96</v>
       </c>
-      <c r="K13" t="s">
+      <c r="P16" t="s">
         <v>97</v>
       </c>
-      <c r="O13" t="s">
+      <c r="V16" t="s">
         <v>98</v>
       </c>
-      <c r="P13" t="s">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>99</v>
       </c>
-      <c r="V13" t="s">
+      <c r="B17" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="K17" t="s">
         <v>102</v>
       </c>
-      <c r="E14" t="s">
+      <c r="O17" t="s">
         <v>103</v>
       </c>
-      <c r="H14" t="s">
+      <c r="P17" t="s">
         <v>104</v>
       </c>
-      <c r="I14" t="s">
+      <c r="V17" t="s">
         <v>105</v>
       </c>
-      <c r="K14" t="s">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>106</v>
       </c>
-      <c r="O14" t="s">
+      <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="P14" t="s">
+      <c r="E18" t="s">
         <v>108</v>
       </c>
-      <c r="V14" t="s">
+      <c r="H18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="K18" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="O18" t="s">
         <v>111</v>
       </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="P18" t="s">
         <v>112</v>
       </c>
-      <c r="I16" t="s">
+      <c r="V18" t="s">
         <v>113</v>
       </c>
-      <c r="K16" t="s">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>114</v>
       </c>
-      <c r="O16" t="s">
+      <c r="B19" t="s">
         <v>115</v>
       </c>
-      <c r="P16" t="s">
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="s">
         <v>116</v>
       </c>
-      <c r="V16" t="s">
+      <c r="K19" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="O19" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="P19" t="s">
         <v>119</v>
       </c>
-      <c r="E17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="V19" t="s">
         <v>120</v>
       </c>
-      <c r="I17" t="s">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>121</v>
       </c>
-      <c r="K17" t="s">
+      <c r="B21" t="s">
         <v>122</v>
       </c>
-      <c r="O17" t="s">
+      <c r="E21" t="s">
         <v>123</v>
       </c>
-      <c r="P17" t="s">
+      <c r="H21" t="s">
         <v>124</v>
       </c>
-      <c r="V17" t="s">
+      <c r="K21" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="O21" t="s">
         <v>126</v>
       </c>
-      <c r="B18" t="s">
+      <c r="P21" t="s">
         <v>127</v>
       </c>
-      <c r="E18" t="s">
+      <c r="V21" t="s">
         <v>128</v>
       </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>129</v>
       </c>
-      <c r="I18" t="s">
+      <c r="B22" t="s">
         <v>130</v>
       </c>
-      <c r="K18" t="s">
+      <c r="E22" t="s">
         <v>131</v>
       </c>
-      <c r="O18" t="s">
+      <c r="H22" t="s">
         <v>132</v>
       </c>
-      <c r="P18" t="s">
+      <c r="K22" t="s">
         <v>133</v>
       </c>
-      <c r="V18" t="s">
+      <c r="O22" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="P22" t="s">
         <v>135</v>
       </c>
-      <c r="B19" t="s">
+      <c r="V22" t="s">
         <v>136</v>
       </c>
-      <c r="E19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" t="s">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>137</v>
       </c>
-      <c r="I19" t="s">
+      <c r="B23" t="s">
         <v>138</v>
       </c>
-      <c r="K19" t="s">
+      <c r="E23" t="s">
         <v>139</v>
       </c>
-      <c r="O19" t="s">
+      <c r="H23" t="s">
         <v>140</v>
       </c>
-      <c r="P19" t="s">
+      <c r="K23" t="s">
         <v>141</v>
       </c>
-      <c r="V19" t="s">
+      <c r="O23" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="P23" t="s">
         <v>143</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="V23" t="s">
         <v>144</v>
       </c>
-      <c r="H21" t="s">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>145</v>
       </c>
-      <c r="I21" t="s">
+      <c r="B24" t="s">
         <v>146</v>
       </c>
-      <c r="K21" t="s">
+      <c r="E24" t="s">
         <v>147</v>
       </c>
-      <c r="O21" t="s">
+      <c r="H24" t="s">
         <v>148</v>
       </c>
-      <c r="P21" t="s">
+      <c r="K24" t="s">
         <v>149</v>
       </c>
-      <c r="V21" t="s">
+      <c r="O24" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="P24" t="s">
         <v>151</v>
       </c>
-      <c r="B22" t="s">
+      <c r="V24" t="s">
         <v>152</v>
       </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>153</v>
       </c>
-      <c r="H22" t="s">
+      <c r="B25" t="s">
         <v>154</v>
       </c>
-      <c r="I22" t="s">
+      <c r="E25" t="s">
         <v>155</v>
       </c>
-      <c r="K22" t="s">
+      <c r="H25" t="s">
         <v>156</v>
       </c>
-      <c r="O22" t="s">
+      <c r="K25" t="s">
         <v>157</v>
       </c>
-      <c r="P22" t="s">
+      <c r="O25" t="s">
         <v>158</v>
       </c>
-      <c r="V22" t="s">
+      <c r="P25" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="V25" t="s">
         <v>160</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>161</v>
       </c>
-      <c r="E23" t="s">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
         <v>162</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H26" t="s">
         <v>163</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K26" t="s">
         <v>164</v>
       </c>
-      <c r="K23" t="s">
+      <c r="O26" t="s">
         <v>165</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P26" t="s">
         <v>166</v>
       </c>
-      <c r="P23" t="s">
+      <c r="V26" t="s">
         <v>167</v>
       </c>
-      <c r="V23" t="s">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B27" t="s">
         <v>169</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E27" t="s">
         <v>170</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H27" t="s">
         <v>171</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K27" t="s">
         <v>172</v>
       </c>
-      <c r="I24" t="s">
+      <c r="O27" t="s">
         <v>173</v>
       </c>
-      <c r="K24" t="s">
+      <c r="P27" t="s">
         <v>174</v>
       </c>
-      <c r="O24" t="s">
+      <c r="V27" t="s">
         <v>175</v>
       </c>
-      <c r="P24" t="s">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>176</v>
       </c>
-      <c r="V24" t="s">
+      <c r="B29" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>178</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>179</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E30" t="s">
         <v>180</v>
       </c>
-      <c r="H25" t="s">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>181</v>
       </c>
-      <c r="I25" t="s">
+      <c r="B31" t="s">
         <v>182</v>
       </c>
-      <c r="K25" t="s">
+      <c r="E31" t="s">
         <v>183</v>
       </c>
-      <c r="O25" t="s">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>184</v>
       </c>
-      <c r="P25" t="s">
+      <c r="B32" t="s">
         <v>185</v>
       </c>
-      <c r="V25" t="s">
+      <c r="E32" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>187</v>
       </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="B33" t="s">
         <v>188</v>
       </c>
-      <c r="H26" t="s">
+      <c r="E33" t="s">
         <v>189</v>
       </c>
-      <c r="I26" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>190</v>
       </c>
-      <c r="K26" t="s">
+      <c r="B34" t="s">
         <v>191</v>
       </c>
-      <c r="O26" t="s">
+      <c r="E34" t="s">
         <v>192</v>
       </c>
-      <c r="P26" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>193</v>
       </c>
-      <c r="V26" t="s">
+      <c r="B36" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="E36" t="s">
         <v>195</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>196</v>
       </c>
-      <c r="E27" t="s">
+      <c r="B37" t="s">
         <v>197</v>
       </c>
-      <c r="H27" t="s">
+      <c r="E37" t="s">
         <v>198</v>
       </c>
-      <c r="I27" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>199</v>
       </c>
-      <c r="K27" t="s">
+      <c r="B38" t="s">
         <v>200</v>
       </c>
-      <c r="O27" t="s">
+      <c r="E38" t="s">
         <v>201</v>
       </c>
-      <c r="P27" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>202</v>
       </c>
-      <c r="V27" t="s">
+      <c r="B39" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E39" t="s">
         <v>204</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>205</v>
       </c>
-      <c r="E29" t="s">
-        <v>204</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="B41" t="s">
         <v>206</v>
       </c>
-      <c r="P29" t="s">
+      <c r="E41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B42" t="s">
         <v>208</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>209</v>
       </c>
-      <c r="E30" t="s">
+      <c r="B43" t="s">
         <v>210</v>
       </c>
-      <c r="I30" t="s">
+      <c r="E43" t="s">
         <v>211</v>
       </c>
-      <c r="P30" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B44" t="s">
         <v>213</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E44" t="s">
         <v>214</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>215</v>
       </c>
-      <c r="I31" t="s">
+      <c r="B46" t="s">
         <v>216</v>
       </c>
-      <c r="P31" t="s">
+      <c r="E46" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>218</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B47" t="s">
         <v>219</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E47" t="s">
         <v>220</v>
       </c>
-      <c r="I32" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>221</v>
       </c>
-      <c r="P32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" t="s">
-        <v>224</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B49" t="s">
+        <v>287</v>
+      </c>
+      <c r="E49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>230</v>
+      </c>
+      <c r="B54" t="s">
+        <v>244</v>
+      </c>
+      <c r="E54" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" t="s">
         <v>225</v>
       </c>
-      <c r="I33" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" t="s">
+        <v>249</v>
+      </c>
+      <c r="E57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" t="s">
         <v>226</v>
       </c>
-      <c r="P33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" t="s">
         <v>228</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61" t="s">
+        <v>255</v>
+      </c>
+      <c r="E61" t="s">
         <v>229</v>
       </c>
-      <c r="E34" t="s">
-        <v>230</v>
-      </c>
-      <c r="I34" t="s">
-        <v>231</v>
-      </c>
-      <c r="P34" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" t="s">
+        <v>260</v>
+      </c>
+      <c r="E64" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B65" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>233</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B66" t="s">
+        <v>262</v>
+      </c>
+      <c r="E66" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>234</v>
       </c>
-      <c r="E36" t="s">
+      <c r="B67" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>235</v>
       </c>
-      <c r="I36" t="s">
+      <c r="B68" t="s">
+        <v>264</v>
+      </c>
+      <c r="E68" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>236</v>
       </c>
-      <c r="P36" t="s">
+      <c r="B69" t="s">
+        <v>265</v>
+      </c>
+      <c r="E69" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>266</v>
+      </c>
+      <c r="B70" t="s">
+        <v>267</v>
+      </c>
+      <c r="E70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" t="s">
-        <v>239</v>
-      </c>
-      <c r="E37" t="s">
-        <v>240</v>
-      </c>
-      <c r="I37" t="s">
-        <v>241</v>
-      </c>
-      <c r="P37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B38" t="s">
-        <v>244</v>
-      </c>
-      <c r="E38" t="s">
-        <v>245</v>
-      </c>
-      <c r="I38" t="s">
-        <v>246</v>
-      </c>
-      <c r="P38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>248</v>
-      </c>
-      <c r="B39" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" t="s">
-        <v>250</v>
-      </c>
-      <c r="I39" t="s">
-        <v>251</v>
-      </c>
-      <c r="P39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>253</v>
-      </c>
-      <c r="B41" t="s">
-        <v>254</v>
-      </c>
-      <c r="E41" t="s">
-        <v>253</v>
-      </c>
-      <c r="I41" t="s">
-        <v>255</v>
-      </c>
-      <c r="P41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>257</v>
-      </c>
-      <c r="B42" t="s">
-        <v>258</v>
-      </c>
-      <c r="E42" t="s">
-        <v>257</v>
-      </c>
-      <c r="I42" t="s">
-        <v>259</v>
-      </c>
-      <c r="P42" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>261</v>
-      </c>
-      <c r="B43" t="s">
-        <v>262</v>
-      </c>
-      <c r="E43" t="s">
-        <v>263</v>
-      </c>
-      <c r="I43" t="s">
-        <v>264</v>
-      </c>
-      <c r="P43" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>266</v>
-      </c>
-      <c r="B44" t="s">
-        <v>267</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="B71" t="s">
         <v>268</v>
       </c>
-      <c r="I44" t="s">
+      <c r="E71" t="s">
         <v>269</v>
       </c>
-      <c r="P44" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>271</v>
-      </c>
-      <c r="B46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E46" t="s">
-        <v>273</v>
-      </c>
-      <c r="I46" t="s">
-        <v>274</v>
-      </c>
-      <c r="P46" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>276</v>
-      </c>
-      <c r="B47" t="s">
-        <v>277</v>
-      </c>
-      <c r="E47" t="s">
-        <v>278</v>
-      </c>
-      <c r="I47" t="s">
-        <v>279</v>
-      </c>
-      <c r="P47" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>281</v>
-      </c>
-      <c r="B49" t="s">
-        <v>282</v>
-      </c>
-      <c r="E49" t="s">
-        <v>283</v>
-      </c>
-      <c r="I49" t="s">
-        <v>284</v>
-      </c>
-      <c r="P49" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>286</v>
-      </c>
-      <c r="B51" t="s">
-        <v>287</v>
-      </c>
-      <c r="E51" t="s">
-        <v>288</v>
-      </c>
-      <c r="I51" t="s">
-        <v>289</v>
-      </c>
-      <c r="P51" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>291</v>
-      </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>292</v>
       </c>
-      <c r="E52" t="s">
+      <c r="B73" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>293</v>
       </c>
-      <c r="I52" t="s">
+      <c r="B74" t="s">
+        <v>300</v>
+      </c>
+      <c r="E74" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>294</v>
       </c>
-      <c r="P52" t="s">
+      <c r="B75" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B76" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>296</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B77" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>297</v>
       </c>
-      <c r="E53" t="s">
+      <c r="B78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>298</v>
       </c>
-      <c r="I53" t="s">
-        <v>299</v>
-      </c>
-      <c r="P53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>301</v>
-      </c>
-      <c r="B54" t="s">
-        <v>302</v>
-      </c>
-      <c r="E54" t="s">
-        <v>303</v>
-      </c>
-      <c r="I54" t="s">
-        <v>304</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="B79" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>306</v>
-      </c>
-      <c r="B55" t="s">
-        <v>307</v>
-      </c>
-      <c r="E55" t="s">
-        <v>308</v>
-      </c>
-      <c r="I55" t="s">
-        <v>309</v>
-      </c>
-      <c r="P55" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>311</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="E79" t="s">
         <v>312</v>
       </c>
-      <c r="E56" t="s">
-        <v>313</v>
-      </c>
-      <c r="I56" t="s">
-        <v>314</v>
-      </c>
-      <c r="P56" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>316</v>
-      </c>
-      <c r="B57" t="s">
-        <v>317</v>
-      </c>
-      <c r="E57" t="s">
-        <v>318</v>
-      </c>
-      <c r="I57" t="s">
-        <v>319</v>
-      </c>
-      <c r="P57" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>321</v>
-      </c>
-      <c r="B58" t="s">
-        <v>322</v>
-      </c>
-      <c r="E58" t="s">
-        <v>323</v>
-      </c>
-      <c r="I58" t="s">
-        <v>324</v>
-      </c>
-      <c r="P58" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>326</v>
-      </c>
-      <c r="B59" t="s">
-        <v>327</v>
-      </c>
-      <c r="E59" t="s">
-        <v>328</v>
-      </c>
-      <c r="I59" t="s">
-        <v>329</v>
-      </c>
-      <c r="P59" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>331</v>
-      </c>
-      <c r="B60" t="s">
-        <v>332</v>
-      </c>
-      <c r="E60" t="s">
-        <v>333</v>
-      </c>
-      <c r="I60" t="s">
-        <v>334</v>
-      </c>
-      <c r="P60" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>336</v>
-      </c>
-      <c r="B61" t="s">
-        <v>337</v>
-      </c>
-      <c r="E61" t="s">
-        <v>338</v>
-      </c>
-      <c r="I61" t="s">
-        <v>339</v>
-      </c>
-      <c r="P61" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>341</v>
-      </c>
-      <c r="B62" t="s">
-        <v>342</v>
-      </c>
-      <c r="E62" t="s">
-        <v>343</v>
-      </c>
-      <c r="I62" t="s">
-        <v>344</v>
-      </c>
-      <c r="P62" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>346</v>
-      </c>
-      <c r="B63" t="s">
-        <v>347</v>
-      </c>
-      <c r="E63" t="s">
-        <v>348</v>
-      </c>
-      <c r="I63" t="s">
-        <v>349</v>
-      </c>
-      <c r="P63" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>351</v>
-      </c>
-      <c r="B64" t="s">
-        <v>352</v>
-      </c>
-      <c r="E64" t="s">
-        <v>353</v>
-      </c>
-      <c r="I64" t="s">
-        <v>354</v>
-      </c>
-      <c r="P64" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>356</v>
-      </c>
-      <c r="B65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E65" t="s">
-        <v>358</v>
-      </c>
-      <c r="I65" t="s">
-        <v>359</v>
-      </c>
-      <c r="P65" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>361</v>
-      </c>
-      <c r="B66" t="s">
-        <v>362</v>
-      </c>
-      <c r="E66" t="s">
-        <v>363</v>
-      </c>
-      <c r="I66" t="s">
-        <v>364</v>
-      </c>
-      <c r="P66" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>366</v>
-      </c>
-      <c r="B67" t="s">
-        <v>367</v>
-      </c>
-      <c r="E67" t="s">
-        <v>368</v>
-      </c>
-      <c r="I67" t="s">
-        <v>369</v>
-      </c>
-      <c r="P67" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>371</v>
-      </c>
-      <c r="B68" t="s">
-        <v>372</v>
-      </c>
-      <c r="E68" t="s">
-        <v>373</v>
-      </c>
-      <c r="I68" t="s">
-        <v>374</v>
-      </c>
-      <c r="P68" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>376</v>
-      </c>
-      <c r="B69" t="s">
-        <v>377</v>
-      </c>
-      <c r="E69" t="s">
-        <v>378</v>
-      </c>
-      <c r="I69" t="s">
-        <v>379</v>
-      </c>
-      <c r="P69" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>381</v>
-      </c>
-      <c r="B70" t="s">
-        <v>382</v>
-      </c>
-      <c r="E70" t="s">
-        <v>383</v>
-      </c>
-      <c r="I70" t="s">
-        <v>384</v>
-      </c>
-      <c r="P70" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>386</v>
-      </c>
-      <c r="B71" t="s">
-        <v>387</v>
-      </c>
-      <c r="E71" t="s">
-        <v>388</v>
-      </c>
-      <c r="I71" t="s">
-        <v>389</v>
-      </c>
-      <c r="P71" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>391</v>
-      </c>
-      <c r="B73" t="s">
-        <v>392</v>
-      </c>
-      <c r="E73" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>394</v>
-      </c>
-      <c r="B74" t="s">
-        <v>395</v>
-      </c>
-      <c r="E74" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>397</v>
-      </c>
-      <c r="B75" t="s">
-        <v>398</v>
-      </c>
-      <c r="E75" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>400</v>
-      </c>
-      <c r="B76" t="s">
-        <v>401</v>
-      </c>
-      <c r="E76" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>403</v>
-      </c>
-      <c r="B77" t="s">
-        <v>404</v>
-      </c>
-      <c r="E77" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>406</v>
-      </c>
-      <c r="B78" t="s">
-        <v>407</v>
-      </c>
-      <c r="E78" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>409</v>
-      </c>
-      <c r="B79" t="s">
-        <v>410</v>
-      </c>
-      <c r="E79" t="s">
-        <v>411</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>